--- a/examples/ex_lowbeta/output/output.xlsx
+++ b/examples/ex_lowbeta/output/output.xlsx
@@ -474,7 +474,7 @@
         <v>8.516326861023988</v>
       </c>
       <c r="E2" t="n">
-        <v>36205.0395060658</v>
+        <v>53445.12482324251</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
         <v>9.290538326394376</v>
       </c>
       <c r="E3" t="n">
-        <v>36205.03918972116</v>
+        <v>53445.12450689784</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>10.06474977416913</v>
       </c>
       <c r="E4" t="n">
-        <v>36205.0388458683</v>
+        <v>53445.12416304499</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>10.83896120288193</v>
       </c>
       <c r="E5" t="n">
-        <v>36205.03847450722</v>
+        <v>53445.12379168392</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>11.61317261106649</v>
       </c>
       <c r="E6" t="n">
-        <v>36205.03807563792</v>
+        <v>53445.1233928146</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         <v>12.38738399725649</v>
       </c>
       <c r="E7" t="n">
-        <v>36205.03764926038</v>
+        <v>53445.12296643709</v>
       </c>
     </row>
     <row r="8">
@@ -576,7 +576,7 @@
         <v>13.16159535998563</v>
       </c>
       <c r="E8" t="n">
-        <v>36205.03719537462</v>
+        <v>53445.12251255133</v>
       </c>
     </row>
     <row r="9">
@@ -593,7 +593,7 @@
         <v>13.93580669778762</v>
       </c>
       <c r="E9" t="n">
-        <v>36205.03671398065</v>
+        <v>53445.12203115736</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>1.33320103098889e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>9.79431667184016e-06</v>
+        <v>9.794316671840158e-06</v>
       </c>
       <c r="D10" t="n">
         <v>14.71001800919616</v>
       </c>
       <c r="E10" t="n">
-        <v>36205.0362050785</v>
+        <v>53445.1215222552</v>
       </c>
     </row>
     <row r="11">
@@ -627,7 +627,7 @@
         <v>15.48422929274493</v>
       </c>
       <c r="E11" t="n">
-        <v>36205.03566866812</v>
+        <v>53445.12098584481</v>
       </c>
     </row>
     <row r="12">
@@ -644,7 +644,7 @@
         <v>16.25844054696762</v>
       </c>
       <c r="E12" t="n">
-        <v>36205.03510474954</v>
+        <v>53445.12042192621</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         <v>17.03265177039797</v>
       </c>
       <c r="E13" t="n">
-        <v>36205.03451332272</v>
+        <v>53445.11983049941</v>
       </c>
     </row>
     <row r="14">
@@ -678,7 +678,7 @@
         <v>17.80686296156965</v>
       </c>
       <c r="E14" t="n">
-        <v>36205.03389438769</v>
+        <v>53445.1192115644</v>
       </c>
     </row>
     <row r="15">
@@ -695,7 +695,7 @@
         <v>18.58107411901633</v>
       </c>
       <c r="E15" t="n">
-        <v>36205.03324794446</v>
+        <v>53445.11856512117</v>
       </c>
     </row>
     <row r="16">
@@ -712,7 +712,7 @@
         <v>19.35528524127176</v>
       </c>
       <c r="E16" t="n">
-        <v>36205.03257399305</v>
+        <v>53445.11789116976</v>
       </c>
     </row>
     <row r="17">
@@ -729,7 +729,7 @@
         <v>20.12949632686961</v>
       </c>
       <c r="E17" t="n">
-        <v>36205.03187253342</v>
+        <v>53445.11718971013</v>
       </c>
     </row>
     <row r="18">
@@ -746,7 +746,7 @@
         <v>20.90370737434361</v>
       </c>
       <c r="E18" t="n">
-        <v>36205.0311435656</v>
+        <v>53445.11646074231</v>
       </c>
     </row>
     <row r="19">
@@ -763,7 +763,7 @@
         <v>21.67791838222742</v>
       </c>
       <c r="E19" t="n">
-        <v>36205.03038708962</v>
+        <v>53445.1157042663</v>
       </c>
     </row>
     <row r="20">
@@ -780,7 +780,7 @@
         <v>22.45212934905475</v>
       </c>
       <c r="E20" t="n">
-        <v>36205.02960310539</v>
+        <v>53445.11492028213</v>
       </c>
     </row>
     <row r="21">
@@ -797,7 +797,7 @@
         <v>23.22634027335933</v>
       </c>
       <c r="E21" t="n">
-        <v>36205.02879161302</v>
+        <v>53445.11410878973</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>3.549016998664722e-08</v>
       </c>
       <c r="C22" t="n">
-        <v>1.561346370533558e-05</v>
+        <v>1.561346370533557e-05</v>
       </c>
       <c r="D22" t="n">
         <v>24.00055115367483</v>
       </c>
       <c r="E22" t="n">
-        <v>36205.02795261244</v>
+        <v>53445.11326978916</v>
       </c>
     </row>
     <row r="23">
@@ -831,7 +831,7 @@
         <v>24.77476198853494</v>
       </c>
       <c r="E23" t="n">
-        <v>36205.0270861037</v>
+        <v>53445.11240328039</v>
       </c>
     </row>
     <row r="24">
@@ -848,7 +848,7 @@
         <v>25.54897277647337</v>
       </c>
       <c r="E24" t="n">
-        <v>36205.02619208674</v>
+        <v>53445.11150926345</v>
       </c>
     </row>
     <row r="25">
@@ -865,7 +865,7 @@
         <v>26.32318351602387</v>
       </c>
       <c r="E25" t="n">
-        <v>36205.02527056165</v>
+        <v>53445.11058773835</v>
       </c>
     </row>
     <row r="26">
@@ -882,7 +882,7 @@
         <v>27.09739420572006</v>
       </c>
       <c r="E26" t="n">
-        <v>36205.02432152838</v>
+        <v>53445.10963870507</v>
       </c>
     </row>
     <row r="27">
@@ -899,7 +899,7 @@
         <v>27.87160484409571</v>
       </c>
       <c r="E27" t="n">
-        <v>36205.02334498693</v>
+        <v>53445.10866216362</v>
       </c>
     </row>
     <row r="28">
@@ -916,7 +916,7 @@
         <v>28.64581542968448</v>
       </c>
       <c r="E28" t="n">
-        <v>36205.0223409373</v>
+        <v>53445.10765811402</v>
       </c>
     </row>
     <row r="29">
@@ -933,7 +933,7 @@
         <v>29.42002596102009</v>
       </c>
       <c r="E29" t="n">
-        <v>36205.02130937953</v>
+        <v>53445.10662655624</v>
       </c>
     </row>
     <row r="30">
@@ -950,7 +950,7 @@
         <v>30.19423643663626</v>
       </c>
       <c r="E30" t="n">
-        <v>36205.02025031362</v>
+        <v>53445.1055674903</v>
       </c>
     </row>
     <row r="31">
@@ -967,7 +967,7 @@
         <v>30.96844685506665</v>
       </c>
       <c r="E31" t="n">
-        <v>36205.01916373953</v>
+        <v>53445.10448091623</v>
       </c>
     </row>
     <row r="32">
@@ -984,7 +984,7 @@
         <v>31.74265721484496</v>
       </c>
       <c r="E32" t="n">
-        <v>36205.0180496573</v>
+        <v>53445.10336683401</v>
       </c>
     </row>
     <row r="33">
@@ -1001,7 +1001,7 @@
         <v>32.51686751450497</v>
       </c>
       <c r="E33" t="n">
-        <v>36205.01690806693</v>
+        <v>53445.10222524364</v>
       </c>
     </row>
     <row r="34">
@@ -1018,7 +1018,7 @@
         <v>33.29107775258029</v>
       </c>
       <c r="E34" t="n">
-        <v>36205.01573896842</v>
+        <v>53445.10105614513</v>
       </c>
     </row>
     <row r="35">
@@ -1035,7 +1035,7 @@
         <v>34.0652879276047</v>
       </c>
       <c r="E35" t="n">
-        <v>36205.01454236178</v>
+        <v>53445.09985953847</v>
       </c>
     </row>
     <row r="36">
@@ -1052,7 +1052,7 @@
         <v>34.83949803811186</v>
       </c>
       <c r="E36" t="n">
-        <v>36205.01331824699</v>
+        <v>53445.09863542367</v>
       </c>
     </row>
     <row r="37">
@@ -1069,7 +1069,7 @@
         <v>35.6137080826355</v>
       </c>
       <c r="E37" t="n">
-        <v>36205.01206662408</v>
+        <v>53445.09738380079</v>
       </c>
     </row>
     <row r="38">
@@ -1086,7 +1086,7 @@
         <v>36.38791805970931</v>
       </c>
       <c r="E38" t="n">
-        <v>36205.01078749306</v>
+        <v>53445.09610466977</v>
       </c>
     </row>
     <row r="39">
@@ -1103,7 +1103,7 @@
         <v>37.162127967867</v>
       </c>
       <c r="E39" t="n">
-        <v>36205.00948085393</v>
+        <v>53445.09479803062</v>
       </c>
     </row>
     <row r="40">
@@ -1120,7 +1120,7 @@
         <v>37.93633780564225</v>
       </c>
       <c r="E40" t="n">
-        <v>36205.00814670666</v>
+        <v>53445.09346388336</v>
       </c>
     </row>
     <row r="41">
@@ -1137,7 +1137,7 @@
         <v>38.71054757156882</v>
       </c>
       <c r="E41" t="n">
-        <v>36205.00678505132</v>
+        <v>53445.092102228</v>
       </c>
     </row>
     <row r="42">
@@ -1154,7 +1154,7 @@
         <v>39.48475726418037</v>
       </c>
       <c r="E42" t="n">
-        <v>36205.00539588785</v>
+        <v>53445.09071306455</v>
       </c>
     </row>
     <row r="43">
@@ -1171,7 +1171,7 @@
         <v>40.25896688201066</v>
       </c>
       <c r="E43" t="n">
-        <v>36205.00397921628</v>
+        <v>53445.08929639299</v>
       </c>
     </row>
     <row r="44">
@@ -1188,7 +1188,7 @@
         <v>41.03317642359337</v>
       </c>
       <c r="E44" t="n">
-        <v>36205.00253503664</v>
+        <v>53445.08785221334</v>
       </c>
     </row>
     <row r="45">
@@ -1205,7 +1205,7 @@
         <v>41.80738588746217</v>
       </c>
       <c r="E45" t="n">
-        <v>36205.0010633489</v>
+        <v>53445.08638052559</v>
       </c>
     </row>
     <row r="46">
@@ -1222,7 +1222,7 @@
         <v>42.58159527215085</v>
       </c>
       <c r="E46" t="n">
-        <v>36204.99956415309</v>
+        <v>53445.0848813298</v>
       </c>
     </row>
     <row r="47">
@@ -1239,7 +1239,7 @@
         <v>43.35580457619304</v>
       </c>
       <c r="E47" t="n">
-        <v>36204.9980374492</v>
+        <v>53445.08335462591</v>
       </c>
     </row>
     <row r="48">
@@ -1256,7 +1256,7 @@
         <v>44.13001379812251</v>
       </c>
       <c r="E48" t="n">
-        <v>36204.99648323725</v>
+        <v>53445.08180041394</v>
       </c>
     </row>
     <row r="49">
@@ -1273,7 +1273,7 @@
         <v>44.90422293647293</v>
       </c>
       <c r="E49" t="n">
-        <v>36204.99490151725</v>
+        <v>53445.08021869395</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>1.285502654242785e-07</v>
       </c>
       <c r="C50" t="n">
-        <v>2.87983936411633e-05</v>
+        <v>2.879839364116329e-05</v>
       </c>
       <c r="D50" t="n">
         <v>45.67843198977804</v>
       </c>
       <c r="E50" t="n">
-        <v>36204.99329228915</v>
+        <v>53445.07860946583</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>1.329446031736998e-07</v>
       </c>
       <c r="C51" t="n">
-        <v>2.926213285928738e-05</v>
+        <v>2.926213285928739e-05</v>
       </c>
       <c r="D51" t="n">
         <v>46.45264095657153</v>
       </c>
       <c r="E51" t="n">
-        <v>36204.99165555304</v>
+        <v>53445.07697272973</v>
       </c>
     </row>
     <row r="52">
@@ -1324,7 +1324,7 @@
         <v>47.22684983538715</v>
       </c>
       <c r="E52" t="n">
-        <v>36204.98999130883</v>
+        <v>53445.07530848557</v>
       </c>
     </row>
     <row r="53">
@@ -1341,7 +1341,7 @@
         <v>48.00105862475856</v>
       </c>
       <c r="E53" t="n">
-        <v>36204.98829955665</v>
+        <v>53445.07361673335</v>
       </c>
     </row>
     <row r="54">
@@ -1358,7 +1358,7 @@
         <v>48.77526732321951</v>
       </c>
       <c r="E54" t="n">
-        <v>36204.98658029642</v>
+        <v>53445.07189747311</v>
       </c>
     </row>
     <row r="55">
@@ -1375,7 +1375,7 @@
         <v>49.5494759293037</v>
       </c>
       <c r="E55" t="n">
-        <v>36204.98483352816</v>
+        <v>53445.07015070485</v>
       </c>
     </row>
     <row r="56">
@@ -1392,7 +1392,7 @@
         <v>50.32368444154488</v>
       </c>
       <c r="E56" t="n">
-        <v>36204.98305925188</v>
+        <v>53445.06837642857</v>
       </c>
     </row>
     <row r="57">
@@ -1409,7 +1409,7 @@
         <v>51.0978928584767</v>
       </c>
       <c r="E57" t="n">
-        <v>36204.98125746759</v>
+        <v>53445.06657464428</v>
       </c>
     </row>
     <row r="58">
@@ -1426,7 +1426,7 @@
         <v>51.8721011786329</v>
       </c>
       <c r="E58" t="n">
-        <v>36204.97942817528</v>
+        <v>53445.06474535197</v>
       </c>
     </row>
     <row r="59">
@@ -1443,7 +1443,7 @@
         <v>52.64630940054724</v>
       </c>
       <c r="E59" t="n">
-        <v>36204.977571375</v>
+        <v>53445.06288855166</v>
       </c>
     </row>
     <row r="60">
@@ -1460,7 +1460,7 @@
         <v>53.4205175227534</v>
       </c>
       <c r="E60" t="n">
-        <v>36204.9756870667</v>
+        <v>53445.06100424339</v>
       </c>
     </row>
     <row r="61">
@@ -1477,7 +1477,7 @@
         <v>54.19472554378508</v>
       </c>
       <c r="E61" t="n">
-        <v>36204.97377525042</v>
+        <v>53445.05909242712</v>
       </c>
     </row>
     <row r="62">
@@ -1494,7 +1494,7 @@
         <v>54.96893346217604</v>
       </c>
       <c r="E62" t="n">
-        <v>36204.97183592618</v>
+        <v>53445.05715310287</v>
       </c>
     </row>
     <row r="63">
@@ -1505,13 +1505,13 @@
         <v>1.914358682827754e-07</v>
       </c>
       <c r="C63" t="n">
-        <v>3.479733557479126e-05</v>
+        <v>3.479733557479127e-05</v>
       </c>
       <c r="D63" t="n">
         <v>55.74314127646002</v>
       </c>
       <c r="E63" t="n">
-        <v>36204.96986909397</v>
+        <v>53445.05518627066</v>
       </c>
     </row>
     <row r="64">
@@ -1528,7 +1528,7 @@
         <v>56.51734898517057</v>
       </c>
       <c r="E64" t="n">
-        <v>36204.96787475376</v>
+        <v>53445.05319193046</v>
       </c>
     </row>
     <row r="65">
@@ -1545,7 +1545,7 @@
         <v>57.29155658684166</v>
       </c>
       <c r="E65" t="n">
-        <v>36204.96585290564</v>
+        <v>53445.05117008233</v>
       </c>
     </row>
     <row r="66">
@@ -1556,13 +1556,13 @@
         <v>2.077198940732738e-07</v>
       </c>
       <c r="C66" t="n">
-        <v>3.61732384606185e-05</v>
+        <v>3.617323846061851e-05</v>
       </c>
       <c r="D66" t="n">
         <v>58.06576408000684</v>
       </c>
       <c r="E66" t="n">
-        <v>36204.96380354957</v>
+        <v>53445.04912072627</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>58.83997146319992</v>
       </c>
       <c r="E67" t="n">
-        <v>36204.96172668553</v>
+        <v>53445.04704386226</v>
       </c>
     </row>
     <row r="68">
@@ -1590,13 +1590,13 @@
         <v>2.189450433076424e-07</v>
       </c>
       <c r="C68" t="n">
-        <v>3.708888855032341e-05</v>
+        <v>3.708888855032342e-05</v>
       </c>
       <c r="D68" t="n">
         <v>59.61417873495456</v>
       </c>
       <c r="E68" t="n">
-        <v>36204.9596223136</v>
+        <v>53445.04493949028</v>
       </c>
     </row>
     <row r="69">
@@ -1613,7 +1613,7 @@
         <v>60.38838589380454</v>
       </c>
       <c r="E69" t="n">
-        <v>36204.95749043374</v>
+        <v>53445.04280761042</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>61.16259293828352</v>
       </c>
       <c r="E70" t="n">
-        <v>36204.95533104595</v>
+        <v>53445.04064822263</v>
       </c>
     </row>
     <row r="71">
@@ -1647,7 +1647,7 @@
         <v>61.93679986692526</v>
       </c>
       <c r="E71" t="n">
-        <v>36204.95314415023</v>
+        <v>53445.03846132694</v>
       </c>
     </row>
     <row r="72">
@@ -1664,7 +1664,7 @@
         <v>62.71100667826353</v>
       </c>
       <c r="E72" t="n">
-        <v>36204.95092974668</v>
+        <v>53445.03624692337</v>
       </c>
     </row>
     <row r="73">
@@ -1681,7 +1681,7 @@
         <v>63.48521337083196</v>
       </c>
       <c r="E73" t="n">
-        <v>36204.94868783519</v>
+        <v>53445.03400501188</v>
       </c>
     </row>
     <row r="74">
@@ -1692,13 +1692,13 @@
         <v>2.543922387564226e-07</v>
       </c>
       <c r="C74" t="n">
-        <v>3.982843162875662e-05</v>
+        <v>3.982843162875661e-05</v>
       </c>
       <c r="D74" t="n">
         <v>64.25941994316433</v>
       </c>
       <c r="E74" t="n">
-        <v>36204.94641841584</v>
+        <v>53445.03173559254</v>
       </c>
     </row>
     <row r="75">
@@ -1715,7 +1715,7 @@
         <v>65.03362639379436</v>
       </c>
       <c r="E75" t="n">
-        <v>36204.9441214886</v>
+        <v>53445.0294386653</v>
       </c>
     </row>
     <row r="76">
@@ -1732,7 +1732,7 @@
         <v>65.80783272125582</v>
       </c>
       <c r="E76" t="n">
-        <v>36204.94179705351</v>
+        <v>53445.02711423019</v>
       </c>
     </row>
     <row r="77">
@@ -1749,7 +1749,7 @@
         <v>66.58203892408245</v>
       </c>
       <c r="E77" t="n">
-        <v>36204.93944511056</v>
+        <v>53445.02476228726</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>67.35624500080783</v>
       </c>
       <c r="E78" t="n">
-        <v>36204.93706565979</v>
+        <v>53445.02238283648</v>
       </c>
     </row>
     <row r="79">
@@ -1783,7 +1783,7 @@
         <v>68.13045094996579</v>
       </c>
       <c r="E79" t="n">
-        <v>36204.93465870112</v>
+        <v>53445.01997587782</v>
       </c>
     </row>
     <row r="80">
@@ -1800,7 +1800,7 @@
         <v>68.90465677009016</v>
       </c>
       <c r="E80" t="n">
-        <v>36204.93222423468</v>
+        <v>53445.01754141138</v>
       </c>
     </row>
     <row r="81">
@@ -1817,7 +1817,7 @@
         <v>69.67886245971448</v>
       </c>
       <c r="E81" t="n">
-        <v>36204.92976226038</v>
+        <v>53445.01507943707</v>
       </c>
     </row>
     <row r="82">
@@ -1834,7 +1834,7 @@
         <v>70.4530680173727</v>
       </c>
       <c r="E82" t="n">
-        <v>36204.92727277831</v>
+        <v>53445.012589955</v>
       </c>
     </row>
     <row r="83">
@@ -1851,7 +1851,7 @@
         <v>71.22727344159834</v>
       </c>
       <c r="E83" t="n">
-        <v>36204.92475578841</v>
+        <v>53445.01007296512</v>
       </c>
     </row>
     <row r="84">
@@ -1868,7 +1868,7 @@
         <v>72.0014787309252</v>
       </c>
       <c r="E84" t="n">
-        <v>36204.92221129071</v>
+        <v>53445.00752846742</v>
       </c>
     </row>
     <row r="85">
@@ -1885,7 +1885,7 @@
         <v>72.77568388388713</v>
       </c>
       <c r="E85" t="n">
-        <v>36204.91963928526</v>
+        <v>53445.00495646195</v>
       </c>
     </row>
     <row r="86">
@@ -1902,7 +1902,7 @@
         <v>73.5498888990177</v>
       </c>
       <c r="E86" t="n">
-        <v>36204.91703977204</v>
+        <v>53445.00235694872</v>
       </c>
     </row>
     <row r="87">
@@ -1919,7 +1919,7 @@
         <v>74.32409377485082</v>
       </c>
       <c r="E87" t="n">
-        <v>36204.91441275107</v>
+        <v>53444.99972992775</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>75.09829850992</v>
       </c>
       <c r="E88" t="n">
-        <v>36204.91175822228</v>
+        <v>53444.99707539898</v>
       </c>
     </row>
     <row r="89">
@@ -1953,7 +1953,7 @@
         <v>75.8725031027593</v>
       </c>
       <c r="E89" t="n">
-        <v>36204.90907618579</v>
+        <v>53444.9943933625</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>76.64670755190217</v>
       </c>
       <c r="E90" t="n">
-        <v>36204.90636664158</v>
+        <v>53444.99168381828</v>
       </c>
     </row>
     <row r="91">
@@ -1987,7 +1987,7 @@
         <v>77.42091185588248</v>
       </c>
       <c r="E91" t="n">
-        <v>36204.90362958965</v>
+        <v>53444.98894676635</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>85.16294658916711</v>
       </c>
       <c r="E92" t="n">
-        <v>36204.87474614792</v>
+        <v>53444.9600633246</v>
       </c>
     </row>
     <row r="93">
@@ -2021,7 +2021,7 @@
         <v>92.90496519331602</v>
       </c>
       <c r="E93" t="n">
-        <v>36204.84311194615</v>
+        <v>53444.92842912285</v>
       </c>
     </row>
     <row r="94">
@@ -2038,7 +2038,7 @@
         <v>100.6469662020864</v>
       </c>
       <c r="E94" t="n">
-        <v>36204.80872699631</v>
+        <v>53444.894044173</v>
       </c>
     </row>
     <row r="95">
@@ -2049,13 +2049,13 @@
         <v>7.236430230759901e-07</v>
       </c>
       <c r="C95" t="n">
-        <v>6.541178238214769e-05</v>
+        <v>6.541178238214768e-05</v>
       </c>
       <c r="D95" t="n">
         <v>108.3889481492472</v>
       </c>
       <c r="E95" t="n">
-        <v>36204.7715913115</v>
+        <v>53444.85690848819</v>
       </c>
     </row>
     <row r="96">
@@ -2072,7 +2072,7 @@
         <v>116.1309095685788</v>
       </c>
       <c r="E96" t="n">
-        <v>36204.73170490575</v>
+        <v>53444.81702208244</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>123.8728489938751</v>
       </c>
       <c r="E97" t="n">
-        <v>36204.68906779415</v>
+        <v>53444.77438497083</v>
       </c>
     </row>
     <row r="98">
@@ -2106,7 +2106,7 @@
         <v>131.6147649589432</v>
       </c>
       <c r="E98" t="n">
-        <v>36204.64367999281</v>
+        <v>53444.7289971695</v>
       </c>
     </row>
     <row r="99">
@@ -2123,7 +2123,7 @@
         <v>139.3566559976057</v>
       </c>
       <c r="E99" t="n">
-        <v>36204.59554151901</v>
+        <v>53444.6808586957</v>
       </c>
     </row>
     <row r="100">
@@ -2140,7 +2140,7 @@
         <v>147.0985206437005</v>
       </c>
       <c r="E100" t="n">
-        <v>36204.54465239095</v>
+        <v>53444.62996956764</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>154.8403574310824</v>
       </c>
       <c r="E101" t="n">
-        <v>36204.49101262788</v>
+        <v>53444.57632980457</v>
       </c>
     </row>
     <row r="102">
@@ -2168,13 +2168,13 @@
         <v>1.627623589987808e-06</v>
       </c>
       <c r="C102" t="n">
-        <v>9.606011987746321e-05</v>
+        <v>9.606011987746319e-05</v>
       </c>
       <c r="D102" t="n">
         <v>162.5821648936239</v>
       </c>
       <c r="E102" t="n">
-        <v>36204.43462225021</v>
+        <v>53444.51993942689</v>
       </c>
     </row>
     <row r="103">
@@ -2191,7 +2191,7 @@
         <v>170.3239415652155</v>
       </c>
       <c r="E103" t="n">
-        <v>36204.3754812792</v>
+        <v>53444.4607984559</v>
       </c>
     </row>
     <row r="104">
@@ -2202,13 +2202,13 @@
         <v>1.952163316551726e-06</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0001047031097272611</v>
+        <v>0.000104703109727261</v>
       </c>
       <c r="D104" t="n">
         <v>178.0656859797676</v>
       </c>
       <c r="E104" t="n">
-        <v>36204.31358973731</v>
+        <v>53444.39890691401</v>
       </c>
     </row>
     <row r="105">
@@ -2225,7 +2225,7 @@
         <v>185.8073966712107</v>
       </c>
       <c r="E105" t="n">
-        <v>36204.24894764798</v>
+        <v>53444.33426482468</v>
       </c>
     </row>
     <row r="106">
@@ -2242,7 +2242,7 @@
         <v>193.5490721734969</v>
       </c>
       <c r="E106" t="n">
-        <v>36204.18155503566</v>
+        <v>53444.26687221234</v>
       </c>
     </row>
     <row r="107">
@@ -2259,7 +2259,7 @@
         <v>201.2907110206001</v>
       </c>
       <c r="E107" t="n">
-        <v>36204.11141192592</v>
+        <v>53444.19672910261</v>
       </c>
     </row>
     <row r="108">
@@ -2276,7 +2276,7 @@
         <v>209.0323117465181</v>
       </c>
       <c r="E108" t="n">
-        <v>36204.03851834535</v>
+        <v>53444.12383552206</v>
       </c>
     </row>
     <row r="109">
@@ -2293,7 +2293,7 @@
         <v>216.7738728852718</v>
       </c>
       <c r="E109" t="n">
-        <v>36203.96287432156</v>
+        <v>53444.04819149824</v>
       </c>
     </row>
     <row r="110">
@@ -2310,7 +2310,7 @@
         <v>224.5153929709076</v>
       </c>
       <c r="E110" t="n">
-        <v>36203.88447988314</v>
+        <v>53443.96979705984</v>
       </c>
     </row>
     <row r="111">
@@ -2327,7 +2327,7 @@
         <v>232.2568705374977</v>
       </c>
       <c r="E111" t="n">
-        <v>36203.80333505985</v>
+        <v>53443.88865223652</v>
       </c>
     </row>
     <row r="112">
@@ -2344,7 +2344,7 @@
         <v>239.9983041191414</v>
       </c>
       <c r="E112" t="n">
-        <v>36203.7194398824</v>
+        <v>53443.80475705908</v>
       </c>
     </row>
     <row r="113">
@@ -2361,7 +2361,7 @@
         <v>247.7396922499653</v>
       </c>
       <c r="E113" t="n">
-        <v>36203.63279438257</v>
+        <v>53443.71811155925</v>
       </c>
     </row>
     <row r="114">
@@ -2378,7 +2378,7 @@
         <v>255.4810334641254</v>
       </c>
       <c r="E114" t="n">
-        <v>36203.5433985932</v>
+        <v>53443.62871576986</v>
       </c>
     </row>
     <row r="115">
@@ -2395,7 +2395,7 @@
         <v>263.2223262958065</v>
       </c>
       <c r="E115" t="n">
-        <v>36203.45125254813</v>
+        <v>53443.53656972483</v>
       </c>
     </row>
     <row r="116">
@@ -2412,7 +2412,7 @@
         <v>270.9635692792243</v>
       </c>
       <c r="E116" t="n">
-        <v>36203.35635628227</v>
+        <v>53443.44167345895</v>
       </c>
     </row>
     <row r="117">
@@ -2429,7 +2429,7 @@
         <v>278.7047609486265</v>
       </c>
       <c r="E117" t="n">
-        <v>36203.25870983162</v>
+        <v>53443.3440270083</v>
       </c>
     </row>
     <row r="118">
@@ -2446,7 +2446,7 @@
         <v>286.445899838292</v>
       </c>
       <c r="E118" t="n">
-        <v>36203.15831323309</v>
+        <v>53443.24363040977</v>
       </c>
     </row>
     <row r="119">
@@ -2463,7 +2463,7 @@
         <v>294.1869844825346</v>
       </c>
       <c r="E119" t="n">
-        <v>36203.05516652477</v>
+        <v>53443.14048370145</v>
       </c>
     </row>
     <row r="120">
@@ -2480,7 +2480,7 @@
         <v>301.9280134157003</v>
       </c>
       <c r="E120" t="n">
-        <v>36202.9492697457</v>
+        <v>53443.03458692237</v>
       </c>
     </row>
     <row r="121">
@@ -2497,7 +2497,7 @@
         <v>309.6689851721728</v>
       </c>
       <c r="E121" t="n">
-        <v>36202.84062293599</v>
+        <v>53442.92594011265</v>
       </c>
     </row>
     <row r="122">
@@ -2514,7 +2514,7 @@
         <v>317.4098982863692</v>
       </c>
       <c r="E122" t="n">
-        <v>36202.72922613681</v>
+        <v>53442.81454331348</v>
       </c>
     </row>
     <row r="123">
@@ -2531,7 +2531,7 @@
         <v>325.150751292746</v>
       </c>
       <c r="E123" t="n">
-        <v>36202.61507939037</v>
+        <v>53442.700396567</v>
       </c>
     </row>
     <row r="124">
@@ -2548,7 +2548,7 @@
         <v>332.8915427257957</v>
       </c>
       <c r="E124" t="n">
-        <v>36202.49818273982</v>
+        <v>53442.58349991649</v>
       </c>
     </row>
     <row r="125">
@@ -2565,7 +2565,7 @@
         <v>340.6322711200515</v>
       </c>
       <c r="E125" t="n">
-        <v>36202.37853622956</v>
+        <v>53442.46385340624</v>
       </c>
     </row>
     <row r="126">
@@ -2582,7 +2582,7 @@
         <v>348.3729350100849</v>
       </c>
       <c r="E126" t="n">
-        <v>36202.25613990485</v>
+        <v>53442.34145708151</v>
       </c>
     </row>
     <row r="127">
@@ -2599,7 +2599,7 @@
         <v>356.1135329305089</v>
       </c>
       <c r="E127" t="n">
-        <v>36202.13099381205</v>
+        <v>53442.21631098872</v>
       </c>
     </row>
     <row r="128">
@@ -2616,7 +2616,7 @@
         <v>363.8540634159772</v>
       </c>
       <c r="E128" t="n">
-        <v>36202.00309799855</v>
+        <v>53442.08841517519</v>
       </c>
     </row>
     <row r="129">
@@ -2633,7 +2633,7 @@
         <v>371.5945250011885</v>
       </c>
       <c r="E129" t="n">
-        <v>36201.87245251281</v>
+        <v>53441.95776968948</v>
       </c>
     </row>
     <row r="130">
@@ -2650,7 +2650,7 @@
         <v>379.3349162208814</v>
       </c>
       <c r="E130" t="n">
-        <v>36201.73905740433</v>
+        <v>53441.82437458101</v>
       </c>
     </row>
     <row r="131">
@@ -2667,7 +2667,7 @@
         <v>387.0752356098418</v>
       </c>
       <c r="E131" t="n">
-        <v>36201.6029127236</v>
+        <v>53441.68822990028</v>
       </c>
     </row>
     <row r="132">
@@ -2678,13 +2678,13 @@
         <v>9.569966545749899e-06</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0002223553175057447</v>
+        <v>0.0002223553175057446</v>
       </c>
       <c r="D132" t="n">
         <v>394.8154817028999</v>
       </c>
       <c r="E132" t="n">
-        <v>36201.46401852225</v>
+        <v>53441.54933569892</v>
       </c>
     </row>
     <row r="133">
@@ -2701,7 +2701,7 @@
         <v>402.5556530349314</v>
       </c>
       <c r="E133" t="n">
-        <v>36201.32237485277</v>
+        <v>53441.4076920294</v>
       </c>
     </row>
     <row r="134">
@@ -2718,7 +2718,7 @@
         <v>410.2957481408616</v>
       </c>
       <c r="E134" t="n">
-        <v>36201.17798176894</v>
+        <v>53441.2632989456</v>
       </c>
     </row>
     <row r="135">
@@ -2735,7 +2735,7 @@
         <v>418.035765555661</v>
       </c>
       <c r="E135" t="n">
-        <v>36201.03083932535</v>
+        <v>53441.11615650199</v>
       </c>
     </row>
     <row r="136">
@@ -2752,7 +2752,7 @@
         <v>425.7757038143509</v>
       </c>
       <c r="E136" t="n">
-        <v>36200.88094757777</v>
+        <v>53440.96626475442</v>
       </c>
     </row>
     <row r="137">
@@ -2769,7 +2769,7 @@
         <v>433.5155614520024</v>
       </c>
       <c r="E137" t="n">
-        <v>36200.728306583</v>
+        <v>53440.81362375966</v>
       </c>
     </row>
     <row r="138">
@@ -2786,7 +2786,7 @@
         <v>441.2553370037363</v>
       </c>
       <c r="E138" t="n">
-        <v>36200.57291639875</v>
+        <v>53440.65823357541</v>
       </c>
     </row>
     <row r="139">
@@ -2797,13 +2797,13 @@
         <v>1.236380277185467e-05</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0002510727646841698</v>
+        <v>0.0002510727646841697</v>
       </c>
       <c r="D139" t="n">
         <v>448.9950290047267</v>
       </c>
       <c r="E139" t="n">
-        <v>36200.41477708397</v>
+        <v>53440.50009426063</v>
       </c>
     </row>
     <row r="140">
@@ -2820,7 +2820,7 @@
         <v>456.7346359902</v>
       </c>
       <c r="E140" t="n">
-        <v>36200.25388869854</v>
+        <v>53440.33920587516</v>
       </c>
     </row>
     <row r="141">
@@ -2837,7 +2837,7 @@
         <v>464.4741564954362</v>
       </c>
       <c r="E141" t="n">
-        <v>36200.09025130334</v>
+        <v>53440.17556847997</v>
       </c>
     </row>
     <row r="142">
@@ -2854,7 +2854,7 @@
         <v>472.2135890557697</v>
       </c>
       <c r="E142" t="n">
-        <v>36199.92386496042</v>
+        <v>53440.00918213704</v>
       </c>
     </row>
     <row r="143">
@@ -2871,7 +2871,7 @@
         <v>479.95293220659</v>
       </c>
       <c r="E143" t="n">
-        <v>36199.75472973269</v>
+        <v>53439.84004690932</v>
       </c>
     </row>
     <row r="144">
@@ -2888,7 +2888,7 @@
         <v>487.6921844833438</v>
       </c>
       <c r="E144" t="n">
-        <v>36199.58284568424</v>
+        <v>53439.66816286087</v>
       </c>
     </row>
     <row r="145">
@@ -2905,7 +2905,7 @@
         <v>495.4313444215354</v>
       </c>
       <c r="E145" t="n">
-        <v>36199.40821288025</v>
+        <v>53439.4935300569</v>
       </c>
     </row>
     <row r="146">
@@ -2922,7 +2922,7 @@
         <v>503.1704105567262</v>
       </c>
       <c r="E146" t="n">
-        <v>36199.23083138675</v>
+        <v>53439.3161485634</v>
       </c>
     </row>
     <row r="147">
@@ -2939,7 +2939,7 @@
         <v>510.9093814245375</v>
       </c>
       <c r="E147" t="n">
-        <v>36199.05070127094</v>
+        <v>53439.13601844756</v>
       </c>
     </row>
     <row r="148">
@@ -2956,7 +2956,7 @@
         <v>518.6482555606511</v>
       </c>
       <c r="E148" t="n">
-        <v>36198.86782260105</v>
+        <v>53438.95313977767</v>
       </c>
     </row>
     <row r="149">
@@ -2967,13 +2967,13 @@
         <v>1.696416869417756e-05</v>
       </c>
       <c r="C149" t="n">
-        <v>0.0002917488648162404</v>
+        <v>0.0002917488648162405</v>
       </c>
       <c r="D149" t="n">
         <v>526.3870315008097</v>
       </c>
       <c r="E149" t="n">
-        <v>36198.68219544632</v>
+        <v>53438.76751262294</v>
       </c>
     </row>
     <row r="150">
@@ -2990,7 +2990,7 @@
         <v>534.1257077808165</v>
       </c>
       <c r="E150" t="n">
-        <v>36198.49381987706</v>
+        <v>53438.57913705367</v>
       </c>
     </row>
     <row r="151">
@@ -3007,7 +3007,7 @@
         <v>541.8642829365401</v>
       </c>
       <c r="E151" t="n">
-        <v>36198.30269596461</v>
+        <v>53438.38801314124</v>
       </c>
     </row>
     <row r="152">
@@ -3024,7 +3024,7 @@
         <v>549.6027555039107</v>
       </c>
       <c r="E152" t="n">
-        <v>36198.10882378132</v>
+        <v>53438.19414095792</v>
       </c>
     </row>
     <row r="153">
@@ -3035,13 +3035,13 @@
         <v>1.900347634492349e-05</v>
       </c>
       <c r="C153" t="n">
-        <v>0.0003079167734790324</v>
+        <v>0.0003079167734790323</v>
       </c>
       <c r="D153" t="n">
         <v>557.3411240189248</v>
       </c>
       <c r="E153" t="n">
-        <v>36197.9122034006</v>
+        <v>53437.99752057722</v>
       </c>
     </row>
     <row r="154">
@@ -3058,7 +3058,7 @@
         <v>565.0793870176433</v>
       </c>
       <c r="E154" t="n">
-        <v>36197.71283489693</v>
+        <v>53437.79815207352</v>
       </c>
     </row>
     <row r="155">
@@ -3075,7 +3075,7 @@
         <v>572.8175430361944</v>
       </c>
       <c r="E155" t="n">
-        <v>36197.51071834576</v>
+        <v>53437.59603552235</v>
       </c>
     </row>
     <row r="156">
@@ -3092,7 +3092,7 @@
         <v>580.5555906107744</v>
       </c>
       <c r="E156" t="n">
-        <v>36197.30585382364</v>
+        <v>53437.39117100026</v>
       </c>
     </row>
     <row r="157">
@@ -3103,13 +3103,13 @@
         <v>2.115578346963269e-05</v>
       </c>
       <c r="C157" t="n">
-        <v>0.0003240310759661864</v>
+        <v>0.0003240310759661865</v>
       </c>
       <c r="D157" t="n">
         <v>588.2935282776461</v>
       </c>
       <c r="E157" t="n">
-        <v>36197.09824140814</v>
+        <v>53437.18355858475</v>
       </c>
     </row>
     <row r="158">
@@ -3126,7 +3126,7 @@
         <v>596.031354573144</v>
       </c>
       <c r="E158" t="n">
-        <v>36196.8878811779</v>
+        <v>53436.97319835451</v>
       </c>
     </row>
     <row r="159">
@@ -3143,7 +3143,7 @@
         <v>603.7690680336716</v>
       </c>
       <c r="E159" t="n">
-        <v>36196.67477321259</v>
+        <v>53436.76009038918</v>
       </c>
     </row>
     <row r="160">
@@ -3160,7 +3160,7 @@
         <v>611.506667195703</v>
       </c>
       <c r="E160" t="n">
-        <v>36196.45891759278</v>
+        <v>53436.54423476938</v>
       </c>
     </row>
     <row r="161">
@@ -3177,7 +3177,7 @@
         <v>619.244150595786</v>
       </c>
       <c r="E161" t="n">
-        <v>36196.24031440029</v>
+        <v>53436.32563157688</v>
       </c>
     </row>
     <row r="162">
@@ -3188,13 +3188,13 @@
         <v>2.400419023815363e-05</v>
       </c>
       <c r="C162" t="n">
-        <v>0.000344102864774227</v>
+        <v>0.0003441028647742271</v>
       </c>
       <c r="D162" t="n">
         <v>626.9815167705399</v>
       </c>
       <c r="E162" t="n">
-        <v>36196.01896371791</v>
+        <v>53436.10428089451</v>
       </c>
     </row>
     <row r="163">
@@ -3211,7 +3211,7 @@
         <v>634.7187642566594</v>
       </c>
       <c r="E163" t="n">
-        <v>36195.79486562938</v>
+        <v>53435.88018280597</v>
       </c>
     </row>
     <row r="164">
@@ -3222,13 +3222,13 @@
         <v>2.519247263052829e-05</v>
       </c>
       <c r="C164" t="n">
-        <v>0.0003521104875496375</v>
+        <v>0.0003521104875496376</v>
       </c>
       <c r="D164" t="n">
         <v>642.4558915909125</v>
       </c>
       <c r="E164" t="n">
-        <v>36195.56802021957</v>
+        <v>53435.65333739616</v>
       </c>
     </row>
     <row r="165">
@@ -3245,7 +3245,7 @@
         <v>650.1928973101456</v>
       </c>
       <c r="E165" t="n">
-        <v>36195.33842757443</v>
+        <v>53435.42374475099</v>
       </c>
     </row>
     <row r="166">
@@ -3262,7 +3262,7 @@
         <v>657.9297799512776</v>
       </c>
       <c r="E166" t="n">
-        <v>36195.10608778074</v>
+        <v>53435.1914049573</v>
       </c>
     </row>
     <row r="167">
@@ -3279,7 +3279,7 @@
         <v>665.6665380513097</v>
       </c>
       <c r="E167" t="n">
-        <v>36194.87100092659</v>
+        <v>53434.95631810316</v>
       </c>
     </row>
     <row r="168">
@@ -3296,7 +3296,7 @@
         <v>673.4031701473178</v>
       </c>
       <c r="E168" t="n">
-        <v>36194.6331671009</v>
+        <v>53434.71848427748</v>
       </c>
     </row>
     <row r="169">
@@ -3313,7 +3313,7 @@
         <v>681.13967477646</v>
       </c>
       <c r="E169" t="n">
-        <v>36194.39258639373</v>
+        <v>53434.47790357032</v>
       </c>
     </row>
     <row r="170">
@@ -3330,7 +3330,7 @@
         <v>688.8760504759745</v>
       </c>
       <c r="E170" t="n">
-        <v>36194.14925889623</v>
+        <v>53434.23457607281</v>
       </c>
     </row>
     <row r="171">
@@ -3347,7 +3347,7 @@
         <v>696.612295783178</v>
       </c>
       <c r="E171" t="n">
-        <v>36193.90318470038</v>
+        <v>53433.98850187694</v>
       </c>
     </row>
     <row r="172">
@@ -3364,7 +3364,7 @@
         <v>704.3484092354734</v>
       </c>
       <c r="E172" t="n">
-        <v>36193.65436389943</v>
+        <v>53433.739681076</v>
       </c>
     </row>
     <row r="173">
@@ -3381,7 +3381,7 @@
         <v>712.0843893703444</v>
       </c>
       <c r="E173" t="n">
-        <v>36193.40279658755</v>
+        <v>53433.48811376412</v>
       </c>
     </row>
     <row r="174">
@@ -3398,7 +3398,7 @@
         <v>719.8202347253596</v>
       </c>
       <c r="E174" t="n">
-        <v>36193.14848285998</v>
+        <v>53433.23380003654</v>
       </c>
     </row>
     <row r="175">
@@ -3409,13 +3409,13 @@
         <v>3.222338900144003e-05</v>
       </c>
       <c r="C175" t="n">
-        <v>0.0003959519313024262</v>
+        <v>0.0003959519313024261</v>
       </c>
       <c r="D175" t="n">
         <v>727.5559438381722</v>
       </c>
       <c r="E175" t="n">
-        <v>36192.89142281294</v>
+        <v>53432.97673998952</v>
       </c>
     </row>
     <row r="176">
@@ -3432,7 +3432,7 @@
         <v>735.291515246522</v>
       </c>
       <c r="E176" t="n">
-        <v>36192.6316165438</v>
+        <v>53432.71693372037</v>
       </c>
     </row>
     <row r="177">
@@ -3449,7 +3449,7 @@
         <v>743.0269474882332</v>
       </c>
       <c r="E177" t="n">
-        <v>36192.36906415085</v>
+        <v>53432.45438132741</v>
       </c>
     </row>
     <row r="178">
@@ -3460,13 +3460,13 @@
         <v>3.428521382108325e-05</v>
       </c>
       <c r="C178" t="n">
-        <v>0.0004078532655244451</v>
+        <v>0.0004078532655244452</v>
       </c>
       <c r="D178" t="n">
         <v>750.7622391012226</v>
       </c>
       <c r="E178" t="n">
-        <v>36192.10376573353</v>
+        <v>53432.18908291004</v>
       </c>
     </row>
     <row r="179">
@@ -3483,7 +3483,7 @@
         <v>758.4973886234919</v>
       </c>
       <c r="E179" t="n">
-        <v>36191.83572139221</v>
+        <v>53431.92103856874</v>
       </c>
     </row>
     <row r="180">
@@ -3500,7 +3500,7 @@
         <v>766.2323945931322</v>
       </c>
       <c r="E180" t="n">
-        <v>36191.56493122831</v>
+        <v>53431.65024840485</v>
       </c>
     </row>
     <row r="181">
@@ -3511,13 +3511,13 @@
         <v>3.64083158806918e-05</v>
       </c>
       <c r="C181" t="n">
-        <v>0.0004197322657368977</v>
+        <v>0.0004197322657368978</v>
       </c>
       <c r="D181" t="n">
         <v>773.9672555483278</v>
       </c>
       <c r="E181" t="n">
-        <v>36191.2913953444</v>
+        <v>53431.37671252093</v>
       </c>
     </row>
     <row r="182">
@@ -3534,7 +3534,7 @@
         <v>851.3075677725921</v>
       </c>
       <c r="E182" t="n">
-        <v>36188.40504519322</v>
+        <v>53428.49036236972</v>
       </c>
     </row>
     <row r="183">
@@ -3551,7 +3551,7 @@
         <v>928.6317712611022</v>
       </c>
       <c r="E183" t="n">
-        <v>36185.2442434796</v>
+        <v>53425.32956065606</v>
       </c>
     </row>
     <row r="184">
@@ -3568,7 +3568,7 @@
         <v>1005.93840583467</v>
       </c>
       <c r="E184" t="n">
-        <v>36181.80910979794</v>
+        <v>53421.89442697437</v>
       </c>
     </row>
     <row r="185">
@@ -3585,7 +3585,7 @@
         <v>1083.226012421559</v>
       </c>
       <c r="E185" t="n">
-        <v>36178.09977409286</v>
+        <v>53418.18509126923</v>
       </c>
     </row>
     <row r="186">
@@ -3596,13 +3596,13 @@
         <v>8.0500100217806e-05</v>
       </c>
       <c r="C186" t="n">
-        <v>0.0006149335549831012</v>
+        <v>0.0006149335549831013</v>
       </c>
       <c r="D186" t="n">
         <v>1160.493133149108</v>
       </c>
       <c r="E186" t="n">
-        <v>36174.11637664699</v>
+        <v>53414.20169382335</v>
       </c>
     </row>
     <row r="187">
@@ -3619,7 +3619,7 @@
         <v>1237.7383114352</v>
       </c>
       <c r="E187" t="n">
-        <v>36169.85906806776</v>
+        <v>53409.94438524407</v>
       </c>
     </row>
     <row r="188">
@@ -3636,7 +3636,7 @@
         <v>1314.960092079556</v>
       </c>
       <c r="E188" t="n">
-        <v>36165.32800927313</v>
+        <v>53405.41332644937</v>
       </c>
     </row>
     <row r="189">
@@ -3653,7 +3653,7 @@
         <v>1392.157021354852</v>
       </c>
       <c r="E189" t="n">
-        <v>36160.52337147631</v>
+        <v>53400.60868865251</v>
       </c>
     </row>
     <row r="190">
@@ -3664,13 +3664,13 @@
         <v>0.0001267795565783907</v>
       </c>
       <c r="C190" t="n">
-        <v>0.0007681055082274406</v>
+        <v>0.0007681055082274404</v>
       </c>
       <c r="D190" t="n">
         <v>1469.327647097633</v>
       </c>
       <c r="E190" t="n">
-        <v>36155.44533616981</v>
+        <v>53395.53065334597</v>
       </c>
     </row>
     <row r="191">
@@ -3687,7 +3687,7 @@
         <v>1546.470518799028</v>
       </c>
       <c r="E191" t="n">
-        <v>36150.09409510817</v>
+        <v>53390.17941228423</v>
       </c>
     </row>
     <row r="192">
@@ -3704,7 +3704,7 @@
         <v>1623.584187695246</v>
       </c>
       <c r="E192" t="n">
-        <v>36144.46985028986</v>
+        <v>53384.55516746587</v>
       </c>
     </row>
     <row r="193">
@@ -3721,7 +3721,7 @@
         <v>1700.667206857834</v>
       </c>
       <c r="E193" t="n">
-        <v>36138.57281393836</v>
+        <v>53378.6581311143</v>
       </c>
     </row>
     <row r="194">
@@ -3738,7 +3738,7 @@
         <v>1777.718131283706</v>
       </c>
       <c r="E194" t="n">
-        <v>36132.40320848209</v>
+        <v>53372.48852565797</v>
       </c>
     </row>
     <row r="195">
@@ -3755,7 +3755,7 @@
         <v>1854.735517984909</v>
       </c>
       <c r="E195" t="n">
-        <v>36125.96126653363</v>
+        <v>53366.04658370945</v>
       </c>
     </row>
     <row r="196">
@@ -3772,7 +3772,7 @@
         <v>1931.717926078125</v>
       </c>
       <c r="E196" t="n">
-        <v>36119.24723086756</v>
+        <v>53359.33254804328</v>
       </c>
     </row>
     <row r="197">
@@ -3789,7 +3789,7 @@
         <v>2008.663916873899</v>
       </c>
       <c r="E197" t="n">
-        <v>36112.26135439783</v>
+        <v>53352.3466715735</v>
       </c>
     </row>
     <row r="198">
@@ -3806,7 +3806,7 @@
         <v>2085.572053965582</v>
       </c>
       <c r="E198" t="n">
-        <v>36105.00390015413</v>
+        <v>53345.0892173297</v>
       </c>
     </row>
     <row r="199">
@@ -3823,7 +3823,7 @@
         <v>2162.440903317963</v>
       </c>
       <c r="E199" t="n">
-        <v>36097.47514125687</v>
+        <v>53337.56045843238</v>
       </c>
     </row>
     <row r="200">
@@ -3840,7 +3840,7 @@
         <v>2239.269033355596</v>
       </c>
       <c r="E200" t="n">
-        <v>36089.67536089181</v>
+        <v>53329.76067806724</v>
       </c>
     </row>
     <row r="201">
@@ -3857,7 +3857,7 @@
         <v>2316.055015050822</v>
       </c>
       <c r="E201" t="n">
-        <v>36081.60485228345</v>
+        <v>53321.69016945881</v>
       </c>
     </row>
     <row r="202">
@@ -3874,7 +3874,7 @@
         <v>2392.797422011408</v>
       </c>
       <c r="E202" t="n">
-        <v>36073.26391866755</v>
+        <v>53313.3492358428</v>
       </c>
     </row>
     <row r="203">
@@ -3891,7 +3891,7 @@
         <v>2469.494830567916</v>
       </c>
       <c r="E203" t="n">
-        <v>36064.65287326278</v>
+        <v>53304.73819043794</v>
       </c>
     </row>
     <row r="204">
@@ -3908,7 +3908,7 @@
         <v>2546.145819860636</v>
       </c>
       <c r="E204" t="n">
-        <v>36055.77203924137</v>
+        <v>53295.85735641643</v>
       </c>
     </row>
     <row r="205">
@@ -3925,7 +3925,7 @@
         <v>2622.748971926213</v>
       </c>
       <c r="E205" t="n">
-        <v>36046.62174969893</v>
+        <v>53286.70706687389</v>
       </c>
     </row>
     <row r="206">
@@ -3942,7 +3942,7 @@
         <v>2699.302871783866</v>
       </c>
       <c r="E206" t="n">
-        <v>36037.20234762347</v>
+        <v>53277.28766479833</v>
       </c>
     </row>
     <row r="207">
@@ -3959,7 +3959,7 @@
         <v>2775.806107521224</v>
       </c>
       <c r="E207" t="n">
-        <v>36027.5141858633</v>
+        <v>53267.59950303804</v>
       </c>
     </row>
     <row r="208">
@@ -3976,7 +3976,7 @@
         <v>2852.257270379772</v>
       </c>
       <c r="E208" t="n">
-        <v>36017.55762709417</v>
+        <v>53257.64294426882</v>
       </c>
     </row>
     <row r="209">
@@ -3993,7 +3993,7 @@
         <v>2928.654954839868</v>
       </c>
       <c r="E209" t="n">
-        <v>36007.33304378552</v>
+        <v>53247.41836096007</v>
       </c>
     </row>
     <row r="210">
@@ -4010,7 +4010,7 @@
         <v>3004.997758705354</v>
       </c>
       <c r="E210" t="n">
-        <v>35996.84081816583</v>
+        <v>53236.92613534025</v>
       </c>
     </row>
     <row r="211">
@@ -4027,7 +4027,7 @@
         <v>3081.284283187742</v>
       </c>
       <c r="E211" t="n">
-        <v>35986.08134218711</v>
+        <v>53226.16665936142</v>
       </c>
     </row>
     <row r="212">
@@ -4044,7 +4044,7 @@
         <v>3157.513132989934</v>
       </c>
       <c r="E212" t="n">
-        <v>35975.05501748866</v>
+        <v>53215.14033466284</v>
       </c>
     </row>
     <row r="213">
@@ -4061,7 +4061,7 @@
         <v>3233.682916389515</v>
       </c>
       <c r="E213" t="n">
-        <v>35963.76225535953</v>
+        <v>53203.8475725336</v>
       </c>
     </row>
     <row r="214">
@@ -4078,7 +4078,7 @@
         <v>3309.792245321562</v>
       </c>
       <c r="E214" t="n">
-        <v>35952.20347670074</v>
+        <v>53192.28879387469</v>
       </c>
     </row>
     <row r="215">
@@ -4095,7 +4095,7 @@
         <v>3385.839735461012</v>
       </c>
       <c r="E215" t="n">
-        <v>35940.37911198621</v>
+        <v>53180.46442916003</v>
       </c>
     </row>
     <row r="216">
@@ -4112,7 +4112,7 @@
         <v>3461.824006304508</v>
       </c>
       <c r="E216" t="n">
-        <v>35928.28960122302</v>
+        <v>53168.37491839673</v>
       </c>
     </row>
     <row r="217">
@@ -4129,7 +4129,7 @@
         <v>3537.74368125179</v>
       </c>
       <c r="E217" t="n">
-        <v>35915.93539391084</v>
+        <v>53156.02071108442</v>
       </c>
     </row>
     <row r="218">
@@ -4146,7 +4146,7 @@
         <v>3613.597387686542</v>
       </c>
       <c r="E218" t="n">
-        <v>35903.31694900028</v>
+        <v>53143.4022661737</v>
       </c>
     </row>
     <row r="219">
@@ -4163,7 +4163,7 @@
         <v>3689.383757056794</v>
       </c>
       <c r="E219" t="n">
-        <v>35890.43473485103</v>
+        <v>53130.52005202435</v>
       </c>
     </row>
     <row r="220">
@@ -4180,7 +4180,7 @@
         <v>3765.10142495472</v>
       </c>
       <c r="E220" t="n">
-        <v>35877.28922918852</v>
+        <v>53117.37454636169</v>
       </c>
     </row>
     <row r="221">
@@ -4197,7 +4197,7 @@
         <v>3840.74903119598</v>
       </c>
       <c r="E221" t="n">
-        <v>35863.8809190601</v>
+        <v>53103.96623623314</v>
       </c>
     </row>
     <row r="222">
@@ -4214,7 +4214,7 @@
         <v>3916.325219898455</v>
       </c>
       <c r="E222" t="n">
-        <v>35850.21030079037</v>
+        <v>53090.29561796327</v>
       </c>
     </row>
     <row r="223">
@@ -4231,7 +4231,7 @@
         <v>3991.82863956051</v>
       </c>
       <c r="E223" t="n">
-        <v>35836.27787993591</v>
+        <v>53076.36319710863</v>
       </c>
     </row>
     <row r="224">
@@ -4248,7 +4248,7 @@
         <v>4067.257943138621</v>
       </c>
       <c r="E224" t="n">
-        <v>35822.08417123875</v>
+        <v>53062.16948841132</v>
       </c>
     </row>
     <row r="225">
@@ -4265,7 +4265,7 @@
         <v>4142.611788124487</v>
       </c>
       <c r="E225" t="n">
-        <v>35807.62969857967</v>
+        <v>53047.7150157521</v>
       </c>
     </row>
     <row r="226">
@@ -4276,13 +4276,13 @@
         <v>0.0007884726214683245</v>
       </c>
       <c r="C226" t="n">
-        <v>0.002083988936179746</v>
+        <v>0.002083988936179747</v>
       </c>
       <c r="D226" t="n">
         <v>4217.888836621558</v>
       </c>
       <c r="E226" t="n">
-        <v>35792.91499493022</v>
+        <v>53033.0003121025</v>
       </c>
     </row>
     <row r="227">
@@ -4299,7 +4299,7 @@
         <v>4293.087755420938</v>
       </c>
       <c r="E227" t="n">
-        <v>35777.94060230425</v>
+        <v>53018.02591947637</v>
       </c>
     </row>
     <row r="228">
@@ -4316,7 +4316,7 @@
         <v>4368.207216076763</v>
       </c>
       <c r="E228" t="n">
-        <v>35762.70707170868</v>
+        <v>53002.79238888065</v>
       </c>
     </row>
     <row r="229">
@@ -4333,7 +4333,7 @@
         <v>4443.245894980914</v>
       </c>
       <c r="E229" t="n">
-        <v>35747.21496309341</v>
+        <v>52987.30028026522</v>
       </c>
     </row>
     <row r="230">
@@ -4350,7 +4350,7 @@
         <v>4518.202473437173</v>
       </c>
       <c r="E230" t="n">
-        <v>35731.46484530068</v>
+        <v>52971.55016247231</v>
       </c>
     </row>
     <row r="231">
@@ -4367,7 +4367,7 @@
         <v>4593.07563773471</v>
       </c>
       <c r="E231" t="n">
-        <v>35715.45729601348</v>
+        <v>52955.54261318497</v>
       </c>
     </row>
     <row r="232">
@@ -4384,7 +4384,7 @@
         <v>4667.864079220975</v>
       </c>
       <c r="E232" t="n">
-        <v>35699.19290170338</v>
+        <v>52939.27821887466</v>
       </c>
     </row>
     <row r="233">
@@ -4401,7 +4401,7 @@
         <v>4742.566494373964</v>
       </c>
       <c r="E233" t="n">
-        <v>35682.6722575777</v>
+        <v>52922.75757474884</v>
       </c>
     </row>
     <row r="234">
@@ -4418,7 +4418,7 @@
         <v>4817.181584873802</v>
       </c>
       <c r="E234" t="n">
-        <v>35665.89596752585</v>
+        <v>52905.9812846968</v>
       </c>
     </row>
     <row r="235">
@@ -4435,7 +4435,7 @@
         <v>4891.708057673733</v>
       </c>
       <c r="E235" t="n">
-        <v>35648.86464406511</v>
+        <v>52888.94996123587</v>
       </c>
     </row>
     <row r="236">
@@ -4452,7 +4452,7 @@
         <v>4966.144625070388</v>
       </c>
       <c r="E236" t="n">
-        <v>35631.57890828556</v>
+        <v>52871.66422545615</v>
       </c>
     </row>
     <row r="237">
@@ -4469,7 +4469,7 @@
         <v>5040.490004773453</v>
       </c>
       <c r="E237" t="n">
-        <v>35614.03938979452</v>
+        <v>52854.12470696491</v>
       </c>
     </row>
     <row r="238">
@@ -4486,7 +4486,7 @@
         <v>5114.742919974618</v>
       </c>
       <c r="E238" t="n">
-        <v>35596.24672666027</v>
+        <v>52836.33204383049</v>
       </c>
     </row>
     <row r="239">
@@ -4503,7 +4503,7 @@
         <v>5188.902099415856</v>
       </c>
       <c r="E239" t="n">
-        <v>35578.201565355</v>
+        <v>52818.28688252505</v>
       </c>
     </row>
     <row r="240">
@@ -4514,13 +4514,13 @@
         <v>0.001069320471216076</v>
       </c>
       <c r="C240" t="n">
-        <v>0.002577602308870071</v>
+        <v>0.002577602308870072</v>
       </c>
       <c r="D240" t="n">
         <v>5262.966277457041</v>
       </c>
       <c r="E240" t="n">
-        <v>35559.90456069733</v>
+        <v>52799.98987786717</v>
       </c>
     </row>
     <row r="241">
@@ -4537,7 +4537,7 @@
         <v>5336.934194142848</v>
       </c>
       <c r="E241" t="n">
-        <v>35541.35637579404</v>
+        <v>52781.44169296369</v>
       </c>
     </row>
     <row r="242">
@@ -4554,7 +4554,7 @@
         <v>5410.804595268956</v>
       </c>
       <c r="E242" t="n">
-        <v>35522.55768198112</v>
+        <v>52762.64299915059</v>
       </c>
     </row>
     <row r="243">
@@ -4571,7 +4571,7 @@
         <v>5484.576232447547</v>
       </c>
       <c r="E243" t="n">
-        <v>35503.50915876444</v>
+        <v>52743.5944759337</v>
       </c>
     </row>
     <row r="244">
@@ -4588,7 +4588,7 @@
         <v>5558.24786317211</v>
       </c>
       <c r="E244" t="n">
-        <v>35484.21149375959</v>
+        <v>52724.29681092864</v>
       </c>
     </row>
     <row r="245">
@@ -4605,7 +4605,7 @@
         <v>5631.818250881485</v>
       </c>
       <c r="E245" t="n">
-        <v>35464.6653826312</v>
+        <v>52704.75069980002</v>
       </c>
     </row>
     <row r="246">
@@ -4622,7 +4622,7 @@
         <v>5705.286165023236</v>
       </c>
       <c r="E246" t="n">
-        <v>35444.8715290317</v>
+        <v>52684.95684620033</v>
       </c>
     </row>
     <row r="247">
@@ -4639,7 +4639,7 @@
         <v>5778.650381116245</v>
       </c>
       <c r="E247" t="n">
-        <v>35424.83064453959</v>
+        <v>52664.91596170801</v>
       </c>
     </row>
     <row r="248">
@@ -4656,7 +4656,7 @@
         <v>5851.909680812587</v>
       </c>
       <c r="E248" t="n">
-        <v>35404.54344859671</v>
+        <v>52644.62876576492</v>
       </c>
     </row>
     <row r="249">
@@ -4673,7 +4673,7 @@
         <v>5925.062851958698</v>
       </c>
       <c r="E249" t="n">
-        <v>35384.01066844582</v>
+        <v>52624.09598561382</v>
       </c>
     </row>
     <row r="250">
@@ -4690,7 +4690,7 @@
         <v>5998.108688655708</v>
       </c>
       <c r="E250" t="n">
-        <v>35363.23303906647</v>
+        <v>52603.31835623426</v>
       </c>
     </row>
     <row r="251">
@@ -4707,7 +4707,7 @@
         <v>6071.045991319118</v>
       </c>
       <c r="E251" t="n">
-        <v>35342.21130311149</v>
+        <v>52582.29662027904</v>
       </c>
     </row>
     <row r="252">
@@ -4724,7 +4724,7 @@
         <v>6143.873566737647</v>
       </c>
       <c r="E252" t="n">
-        <v>35320.946210842</v>
+        <v>52561.03152800934</v>
       </c>
     </row>
     <row r="253">
@@ -4741,7 +4741,7 @@
         <v>6216.590228131372</v>
       </c>
       <c r="E253" t="n">
-        <v>35299.43852006267</v>
+        <v>52539.5238372298</v>
       </c>
     </row>
     <row r="254">
@@ -4752,13 +4752,13 @@
         <v>0.001328396989080848</v>
       </c>
       <c r="C254" t="n">
-        <v>0.00306460223665641</v>
+        <v>0.003064602236656411</v>
       </c>
       <c r="D254" t="n">
         <v>6289.194795209046</v>
       </c>
       <c r="E254" t="n">
-        <v>35277.68899605593</v>
+        <v>52517.77431322284</v>
       </c>
     </row>
     <row r="255">
@@ -4769,13 +4769,13 @@
         <v>0.001345871333581475</v>
       </c>
       <c r="C255" t="n">
-        <v>0.003099166527858803</v>
+        <v>0.003099166527858802</v>
       </c>
       <c r="D255" t="n">
         <v>6361.686094224672</v>
       </c>
       <c r="E255" t="n">
-        <v>35255.69841151587</v>
+        <v>52495.78372868254</v>
       </c>
     </row>
     <row r="256">
@@ -4792,7 +4792,7 @@
         <v>6434.062958033287</v>
       </c>
       <c r="E256" t="n">
-        <v>35233.46754648178</v>
+        <v>52473.5528636482</v>
       </c>
     </row>
     <row r="257">
@@ -4809,7 +4809,7 @@
         <v>6506.324226146003</v>
       </c>
       <c r="E257" t="n">
-        <v>35210.99718827098</v>
+        <v>52451.08250543718</v>
       </c>
     </row>
     <row r="258">
@@ -4826,7 +4826,7 @@
         <v>6578.468744784196</v>
       </c>
       <c r="E258" t="n">
-        <v>35188.28813141141</v>
+        <v>52428.37344857736</v>
       </c>
     </row>
     <row r="259">
@@ -4843,7 +4843,7 @@
         <v>6650.495366932942</v>
       </c>
       <c r="E259" t="n">
-        <v>35165.34117757364</v>
+        <v>52405.42649473936</v>
       </c>
     </row>
     <row r="260">
@@ -4860,7 +4860,7 @@
         <v>6722.402952393684</v>
       </c>
       <c r="E260" t="n">
-        <v>35142.1571355024</v>
+        <v>52382.24245266787</v>
       </c>
     </row>
     <row r="261">
@@ -4877,7 +4877,7 @@
         <v>6794.190367836015</v>
       </c>
       <c r="E261" t="n">
-        <v>35118.73682094774</v>
+        <v>52358.82213811296</v>
       </c>
     </row>
     <row r="262">
@@ -4894,7 +4894,7 @@
         <v>6865.856486848759</v>
       </c>
       <c r="E262" t="n">
-        <v>35095.08105659582</v>
+        <v>52335.16637376078</v>
       </c>
     </row>
     <row r="263">
@@ -4905,13 +4905,13 @@
         <v>0.001480469525958203</v>
       </c>
       <c r="C263" t="n">
-        <v>0.003374711130984719</v>
+        <v>0.003374711130984718</v>
       </c>
       <c r="D263" t="n">
         <v>6937.400189990207</v>
       </c>
       <c r="E263" t="n">
-        <v>35071.19067199918</v>
+        <v>52311.2759891639</v>
       </c>
     </row>
     <row r="264">
@@ -4928,7 +4928,7 @@
         <v>7008.820364837483</v>
       </c>
       <c r="E264" t="n">
-        <v>35047.06650350672</v>
+        <v>52287.15182067122</v>
       </c>
     </row>
     <row r="265">
@@ -4945,7 +4945,7 @@
         <v>7080.115906035207</v>
       </c>
       <c r="E265" t="n">
-        <v>35022.70939419312</v>
+        <v>52262.79471135733</v>
       </c>
     </row>
     <row r="266">
@@ -4962,7 +4962,7 @@
         <v>7151.285715343268</v>
       </c>
       <c r="E266" t="n">
-        <v>34998.12019378808</v>
+        <v>52238.20551095204</v>
       </c>
     </row>
     <row r="267">
@@ -4979,7 +4979,7 @@
         <v>7222.328701683792</v>
       </c>
       <c r="E267" t="n">
-        <v>34973.29975860503</v>
+        <v>52213.38507576872</v>
       </c>
     </row>
     <row r="268">
@@ -4996,7 +4996,7 @@
         <v>7293.243781187298</v>
       </c>
       <c r="E268" t="n">
-        <v>34948.24895146961</v>
+        <v>52188.33426863304</v>
       </c>
     </row>
     <row r="269">
@@ -5013,7 +5013,7 @@
         <v>7364.029877238034</v>
       </c>
       <c r="E269" t="n">
-        <v>34922.96864164767</v>
+        <v>52163.05395881084</v>
       </c>
     </row>
     <row r="270">
@@ -5030,7 +5030,7 @@
         <v>7434.685920518476</v>
       </c>
       <c r="E270" t="n">
-        <v>34897.45970477308</v>
+        <v>52137.54502193599</v>
       </c>
     </row>
     <row r="271">
@@ -5041,13 +5041,13 @@
         <v>0.001605847921436956</v>
       </c>
       <c r="C271" t="n">
-        <v>0.003648633297200563</v>
+        <v>0.003648633297200562</v>
       </c>
       <c r="D271" t="n">
         <v>7505.210849053001</v>
       </c>
       <c r="E271" t="n">
-        <v>34871.72302277502</v>
+        <v>52111.80833993765</v>
       </c>
     </row>
     <row r="272">
@@ -5064,7 +5064,7 @@
         <v>8203.020521459672</v>
       </c>
       <c r="E272" t="n">
-        <v>34602.02859976546</v>
+        <v>51842.11391692524</v>
       </c>
     </row>
     <row r="273">
@@ -5075,13 +5075,13 @@
         <v>0.001881166283981774</v>
       </c>
       <c r="C273" t="n">
-        <v>0.004327119329891426</v>
+        <v>0.004327119329891425</v>
       </c>
       <c r="D273" t="n">
         <v>8886.60660156839</v>
       </c>
       <c r="E273" t="n">
-        <v>34310.57368678618</v>
+        <v>51550.65900394285</v>
       </c>
     </row>
     <row r="274">
@@ -5092,13 +5092,13 @@
         <v>0.002000375145918862</v>
       </c>
       <c r="C274" t="n">
-        <v>0.00466333167717438</v>
+        <v>0.004663331677174381</v>
       </c>
       <c r="D274" t="n">
         <v>9555.03417394986</v>
       </c>
       <c r="E274" t="n">
-        <v>33998.33241322696</v>
+        <v>51238.41773038026</v>
       </c>
     </row>
     <row r="275">
@@ -5115,7 +5115,7 @@
         <v>10207.44908804726</v>
       </c>
       <c r="E275" t="n">
-        <v>33666.32526457794</v>
+        <v>50906.41058172766</v>
       </c>
     </row>
     <row r="276">
@@ -5132,7 +5132,7 @@
         <v>10843.08001782782</v>
       </c>
       <c r="E276" t="n">
-        <v>33315.61135830433</v>
+        <v>50555.69667545021</v>
       </c>
     </row>
     <row r="277">
@@ -5149,7 +5149,7 @@
         <v>11461.23970179722</v>
       </c>
       <c r="E277" t="n">
-        <v>32947.28073315838</v>
+        <v>50187.36605030013</v>
       </c>
     </row>
     <row r="278">
@@ -5166,7 +5166,7 @@
         <v>12061.32539312668</v>
       </c>
       <c r="E278" t="n">
-        <v>32562.4467448869</v>
+        <v>49802.5320620243</v>
       </c>
     </row>
     <row r="279">
@@ -5183,7 +5183,7 @@
         <v>12642.81856040273</v>
       </c>
       <c r="E279" t="n">
-        <v>32162.23865362129</v>
+        <v>49402.3239707541</v>
       </c>
     </row>
     <row r="280">
@@ -5200,7 +5200,7 @@
         <v>13205.28388864777</v>
       </c>
       <c r="E280" t="n">
-        <v>31747.79447939436</v>
+        <v>48987.87979652233</v>
       </c>
     </row>
     <row r="281">
@@ -5217,7 +5217,7 @@
         <v>13748.36763768017</v>
       </c>
       <c r="E281" t="n">
-        <v>31320.2541925335</v>
+        <v>48560.33950965638</v>
       </c>
     </row>
     <row r="282">
@@ -5234,7 +5234,7 @@
         <v>14271.79542055474</v>
       </c>
       <c r="E282" t="n">
-        <v>30880.75329545193</v>
+        <v>48120.8386125695</v>
       </c>
     </row>
     <row r="283">
@@ -5251,7 +5251,7 @@
         <v>14775.3694687695</v>
       </c>
       <c r="E283" t="n">
-        <v>30430.41684189948</v>
+        <v>47670.50215901149</v>
       </c>
     </row>
     <row r="284">
@@ -5268,7 +5268,7 @@
         <v>15258.96545321536</v>
       </c>
       <c r="E284" t="n">
-        <v>29970.35392931739</v>
+        <v>47210.43924642359</v>
       </c>
     </row>
     <row r="285">
@@ -5285,7 +5285,7 @@
         <v>15722.52893059555</v>
       </c>
       <c r="E285" t="n">
-        <v>29501.65268982022</v>
+        <v>46741.73800692038</v>
       </c>
     </row>
     <row r="286">
@@ -5302,7 +5302,7 @@
         <v>16166.07148439343</v>
       </c>
       <c r="E286" t="n">
-        <v>29025.37579570116</v>
+        <v>46265.461112795</v>
       </c>
     </row>
     <row r="287">
@@ -5319,7 +5319,7 @@
         <v>16589.66662759249</v>
       </c>
       <c r="E287" t="n">
-        <v>28542.55648640686</v>
+        <v>45782.64180349419</v>
       </c>
     </row>
     <row r="288">
@@ -5336,7 +5336,7 @@
         <v>16993.44553142833</v>
       </c>
       <c r="E288" t="n">
-        <v>28054.19511577592</v>
+        <v>45294.28043285652</v>
       </c>
     </row>
     <row r="289">
@@ -5347,13 +5347,13 @@
         <v>0.002960091820662823</v>
       </c>
       <c r="C289" t="n">
-        <v>0.00953820475832658</v>
+        <v>0.009538204758326578</v>
       </c>
       <c r="D289" t="n">
         <v>17377.5926406721</v>
       </c>
       <c r="E289" t="n">
-        <v>27561.25621108013</v>
+        <v>44801.34152815372</v>
       </c>
     </row>
     <row r="290">
@@ -5370,7 +5370,7 @@
         <v>17742.34123149261</v>
       </c>
       <c r="E290" t="n">
-        <v>27064.6660291015</v>
+        <v>44304.75134616783</v>
       </c>
     </row>
     <row r="291">
@@ -5387,7 +5387,7 @@
         <v>18087.9689630026</v>
       </c>
       <c r="E291" t="n">
-        <v>26565.31058914544</v>
+        <v>43805.39590620433</v>
       </c>
     </row>
     <row r="292">
@@ -5404,7 +5404,7 @@
         <v>18414.7934683332</v>
       </c>
       <c r="E292" t="n">
-        <v>26064.03415852461</v>
+        <v>43304.11947557578</v>
       </c>
     </row>
     <row r="293">
@@ -5421,7 +5421,7 @@
         <v>18723.168025652</v>
       </c>
       <c r="E293" t="n">
-        <v>25561.63816261697</v>
+        <v>42801.72347966021</v>
       </c>
     </row>
     <row r="294">
@@ -5438,7 +5438,7 @@
         <v>19013.47734408332</v>
       </c>
       <c r="E294" t="n">
-        <v>25058.88048905825</v>
+        <v>42298.96580609332</v>
       </c>
     </row>
     <row r="295">
@@ -5455,7 +5455,7 @@
         <v>19286.13349411919</v>
       </c>
       <c r="E295" t="n">
-        <v>24556.47515390152</v>
+        <v>41796.56047092819</v>
       </c>
     </row>
     <row r="296">
@@ -5472,7 +5472,7 @@
         <v>19541.57200692721</v>
       </c>
       <c r="E296" t="n">
-        <v>24055.0922965957</v>
+        <v>41295.17761361372</v>
       </c>
     </row>
     <row r="297">
@@ -5489,7 +5489,7 @@
         <v>19780.24816204191</v>
       </c>
       <c r="E297" t="n">
-        <v>23555.35847031134</v>
+        <v>40795.4437873205</v>
       </c>
     </row>
     <row r="298">
@@ -5506,7 +5506,7 @@
         <v>20002.63347833357</v>
       </c>
       <c r="E298" t="n">
-        <v>23057.85719439162</v>
+        <v>40297.94251139166</v>
       </c>
     </row>
     <row r="299">
@@ -5523,7 +5523,7 @@
         <v>20209.21241892249</v>
       </c>
       <c r="E299" t="n">
-        <v>22563.1297364423</v>
+        <v>39803.21505343301</v>
       </c>
     </row>
     <row r="300">
@@ -5540,7 +5540,7 @@
         <v>20400.47931687716</v>
       </c>
       <c r="E300" t="n">
-        <v>22071.67609271289</v>
+        <v>39311.76140969405</v>
       </c>
     </row>
     <row r="301">
@@ -5557,7 +5557,7 @@
         <v>20576.93552511573</v>
       </c>
       <c r="E301" t="n">
-        <v>21583.95613687798</v>
+        <v>38824.04145384933</v>
       </c>
     </row>
     <row r="302">
@@ -5574,7 +5574,7 @@
         <v>20739.08679092211</v>
       </c>
       <c r="E302" t="n">
-        <v>21100.39090903287</v>
+        <v>38340.47622599419</v>
       </c>
     </row>
     <row r="303">
@@ -5591,7 +5591,7 @@
         <v>20887.44085288793</v>
       </c>
       <c r="E303" t="n">
-        <v>20621.36401860148</v>
+        <v>37861.44933555255</v>
       </c>
     </row>
     <row r="304">
@@ -5608,7 +5608,7 @@
         <v>21022.50525588004</v>
       </c>
       <c r="E304" t="n">
-        <v>20147.22313685286</v>
+        <v>37387.30845379343</v>
       </c>
     </row>
     <row r="305">
@@ -5625,7 +5625,7 @@
         <v>21144.78537779265</v>
       </c>
       <c r="E305" t="n">
-        <v>19678.28155678791</v>
+        <v>36918.36687371777</v>
       </c>
     </row>
     <row r="306">
@@ -5642,7 +5642,7 @@
         <v>21254.78266034841</v>
       </c>
       <c r="E306" t="n">
-        <v>19214.81980024174</v>
+        <v>36454.90511716068</v>
       </c>
     </row>
     <row r="307">
@@ -5659,7 +5659,7 @@
         <v>21352.99303503313</v>
       </c>
       <c r="E307" t="n">
-        <v>18757.0872541085</v>
+        <v>35997.17257101626</v>
       </c>
     </row>
     <row r="308">
@@ -5676,7 +5676,7 @@
         <v>21439.90553435722</v>
       </c>
       <c r="E308" t="n">
-        <v>18305.30381960807</v>
+        <v>35545.38913650443</v>
       </c>
     </row>
     <row r="309">
@@ -5693,7 +5693,7 @@
         <v>21516.00107800285</v>
       </c>
       <c r="E309" t="n">
-        <v>17859.66156045045</v>
+        <v>35099.74687733521</v>
       </c>
     </row>
     <row r="310">
@@ -5710,7 +5710,7 @@
         <v>21581.75142300575</v>
       </c>
       <c r="E310" t="n">
-        <v>17420.32633759231</v>
+        <v>34660.41165446519</v>
       </c>
     </row>
     <row r="311">
@@ -5727,7 +5727,7 @@
         <v>21637.61826691037</v>
       </c>
       <c r="E311" t="n">
-        <v>16987.43942001073</v>
+        <v>34227.52473687154</v>
       </c>
     </row>
     <row r="312">
@@ -5744,7 +5744,7 @@
         <v>21684.0524927926</v>
       </c>
       <c r="E312" t="n">
-        <v>16561.11906253231</v>
+        <v>33801.20437938083</v>
       </c>
     </row>
     <row r="313">
@@ -5761,7 +5761,7 @@
         <v>21721.49354514509</v>
       </c>
       <c r="E313" t="n">
-        <v>16141.46204323944</v>
+        <v>33381.54736007545</v>
       </c>
     </row>
     <row r="314">
@@ -5778,7 +5778,7 @@
         <v>21750.36892583687</v>
       </c>
       <c r="E314" t="n">
-        <v>15728.54515433805</v>
+        <v>32968.6304711613</v>
       </c>
     </row>
     <row r="315">
@@ -5795,7 +5795,7 @@
         <v>21771.09379967264</v>
       </c>
       <c r="E315" t="n">
-        <v>15322.42664160163</v>
+        <v>32562.51195841188</v>
       </c>
     </row>
     <row r="316">
@@ -5806,13 +5806,13 @@
         <v>0.003429340368876371</v>
       </c>
       <c r="C316" t="n">
-        <v>0.01785116218866312</v>
+        <v>0.01785116218866313</v>
       </c>
       <c r="D316" t="n">
         <v>21784.07069946616</v>
       </c>
       <c r="E316" t="n">
-        <v>14923.1475886166</v>
+        <v>32163.23290541365</v>
       </c>
     </row>
     <row r="317">
@@ -5829,7 +5829,7 @@
         <v>21789.68932098946</v>
       </c>
       <c r="E317" t="n">
-        <v>14530.7332430418</v>
+        <v>31770.81855982543</v>
       </c>
     </row>
     <row r="318">
@@ -5846,7 +5846,7 @@
         <v>21788.3263986487</v>
       </c>
       <c r="E318" t="n">
-        <v>14145.19428296966</v>
+        <v>31385.27959973965</v>
       </c>
     </row>
     <row r="319">
@@ -5863,7 +5863,7 @@
         <v>21780.34565325562</v>
       </c>
       <c r="E319" t="n">
-        <v>13766.52802224319</v>
+        <v>31006.61333899927</v>
       </c>
     </row>
     <row r="320">
@@ -5880,7 +5880,7 @@
         <v>21766.09780379956</v>
       </c>
       <c r="E320" t="n">
-        <v>13394.71955424856</v>
+        <v>30634.80487099057</v>
       </c>
     </row>
     <row r="321">
@@ -5897,7 +5897,7 @@
         <v>21745.92063566538</v>
       </c>
       <c r="E321" t="n">
-        <v>13029.74283427612</v>
+        <v>30269.82815100382</v>
       </c>
     </row>
     <row r="322">
@@ -5914,7 +5914,7 @@
         <v>21720.13911828599</v>
       </c>
       <c r="E322" t="n">
-        <v>12671.56170102905</v>
+        <v>29911.64701774219</v>
       </c>
     </row>
     <row r="323">
@@ -5931,7 +5931,7 @@
         <v>21689.06556574997</v>
       </c>
       <c r="E323" t="n">
-        <v>12320.13083826931</v>
+        <v>29560.21615496766</v>
       </c>
     </row>
     <row r="324">
@@ -5942,13 +5942,13 @@
         <v>0.003483175070959981</v>
       </c>
       <c r="C324" t="n">
-        <v>0.02024261293474308</v>
+        <v>0.02024261293474307</v>
       </c>
       <c r="D324" t="n">
         <v>21652.99983440499</v>
       </c>
       <c r="E324" t="n">
-        <v>11975.39667792821</v>
+        <v>29215.4819946116</v>
       </c>
     </row>
     <row r="325">
@@ -5965,7 +5965,7 @@
         <v>21612.2295520009</v>
       </c>
       <c r="E325" t="n">
-        <v>11637.29824628583</v>
+        <v>28877.383562954</v>
       </c>
     </row>
     <row r="326">
@@ -5982,7 +5982,7 @@
         <v>21567.03037339666</v>
       </c>
       <c r="E326" t="n">
-        <v>11305.76795504209</v>
+        <v>28545.85327169486</v>
       </c>
     </row>
     <row r="327">
@@ -5999,7 +5999,7 @@
         <v>21517.6662583146</v>
       </c>
       <c r="E327" t="n">
-        <v>10980.7323392729</v>
+        <v>28220.81765590999</v>
       </c>
     </row>
     <row r="328">
@@ -6016,7 +6016,7 @@
         <v>21464.38976705819</v>
       </c>
       <c r="E328" t="n">
-        <v>10662.11274439004</v>
+        <v>27902.19806101124</v>
       </c>
     </row>
     <row r="329">
@@ -6033,7 +6033,7 @@
         <v>21407.44237051754</v>
       </c>
       <c r="E329" t="n">
-        <v>10349.82596431258</v>
+        <v>27589.9112809177</v>
       </c>
     </row>
     <row r="330">
@@ -6050,7 +6050,7 @@
         <v>21347.05477116796</v>
       </c>
       <c r="E330" t="n">
-        <v>10043.78483311148</v>
+        <v>27283.8701497003</v>
       </c>
     </row>
     <row r="331">
@@ -6067,7 +6067,7 @@
         <v>21283.44723212165</v>
       </c>
       <c r="E331" t="n">
-        <v>9743.898772416756</v>
+        <v>26983.98408898905</v>
       </c>
     </row>
     <row r="332">
@@ -6084,7 +6084,7 @@
         <v>21216.8299116219</v>
       </c>
       <c r="E332" t="n">
-        <v>9450.074296878969</v>
+        <v>26690.15961343449</v>
       </c>
     </row>
     <row r="333">
@@ -6101,7 +6101,7 @@
         <v>21147.40320067262</v>
       </c>
       <c r="E333" t="n">
-        <v>9162.215479959914</v>
+        <v>26402.30079649845</v>
       </c>
     </row>
     <row r="334">
@@ -6118,7 +6118,7 @@
         <v>21075.35806177529</v>
       </c>
       <c r="E334" t="n">
-        <v>8880.224382292599</v>
+        <v>26120.30969881396</v>
       </c>
     </row>
     <row r="335">
@@ -6135,7 +6135,7 @@
         <v>21000.87636700068</v>
       </c>
       <c r="E335" t="n">
-        <v>8604.001444803849</v>
+        <v>25844.08676130779</v>
       </c>
     </row>
     <row r="336">
@@ -6152,7 +6152,7 @@
         <v>20924.13123385636</v>
       </c>
       <c r="E336" t="n">
-        <v>8333.445848732608</v>
+        <v>25573.53116521894</v>
       </c>
     </row>
     <row r="337">
@@ -6169,7 +6169,7 @@
         <v>20845.28735762279</v>
       </c>
       <c r="E337" t="n">
-        <v>8068.45584461097</v>
+        <v>25308.54116107943</v>
       </c>
     </row>
     <row r="338">
@@ -6186,7 +6186,7 @@
         <v>20764.50133902317</v>
       </c>
       <c r="E338" t="n">
-        <v>7808.92905219927</v>
+        <v>25049.01436864965</v>
       </c>
     </row>
     <row r="339">
@@ -6203,7 +6203,7 @@
         <v>20681.92200626526</v>
       </c>
       <c r="E339" t="n">
-        <v>7554.762733288857</v>
+        <v>24794.84804972097</v>
       </c>
     </row>
     <row r="340">
@@ -6214,13 +6214,13 @@
         <v>0.003549086892500505</v>
       </c>
       <c r="C340" t="n">
-        <v>0.02495409243760815</v>
+        <v>0.02495409243760814</v>
       </c>
       <c r="D340" t="n">
         <v>20597.69073065009</v>
       </c>
       <c r="E340" t="n">
-        <v>7305.854039202221</v>
+        <v>24545.9393556158</v>
       </c>
     </row>
     <row r="341">
@@ -6237,7 +6237,7 @@
         <v>20511.94173508228</v>
       </c>
       <c r="E341" t="n">
-        <v>7062.100234736903</v>
+        <v>24302.18555113178</v>
       </c>
     </row>
     <row r="342">
@@ -6254,7 +6254,7 @@
         <v>20424.80239494136</v>
       </c>
       <c r="E342" t="n">
-        <v>6823.398900213484</v>
+        <v>24063.48421658942</v>
       </c>
     </row>
     <row r="343">
@@ -6271,7 +6271,7 @@
         <v>20336.39353088573</v>
       </c>
       <c r="E343" t="n">
-        <v>6589.648113202233</v>
+        <v>23829.73342955902</v>
       </c>
     </row>
     <row r="344">
@@ -6288,7 +6288,7 @@
         <v>20246.82969325902</v>
       </c>
       <c r="E344" t="n">
-        <v>6360.746611418741</v>
+        <v>23600.83192775615</v>
       </c>
     </row>
     <row r="345">
@@ -6299,13 +6299,13 @@
         <v>0.003562575367579189</v>
       </c>
       <c r="C345" t="n">
-        <v>0.0264094431686276</v>
+        <v>0.02640944316862759</v>
       </c>
       <c r="D345" t="n">
         <v>20156.21943785614</v>
       </c>
       <c r="E345" t="n">
-        <v>6136.593938195105</v>
+        <v>23376.6792545129</v>
       </c>
     </row>
     <row r="346">
@@ -6322,7 +6322,7 @@
         <v>20064.66559288338</v>
       </c>
       <c r="E346" t="n">
-        <v>5917.090571851908</v>
+        <v>23157.17588814993</v>
       </c>
     </row>
     <row r="347">
@@ -6339,7 +6339,7 @@
         <v>19972.26551701374</v>
       </c>
       <c r="E347" t="n">
-        <v>5702.138040216747</v>
+        <v>22942.22335649473</v>
       </c>
     </row>
     <row r="348">
@@ -6356,7 +6356,7 @@
         <v>19879.11134849767</v>
       </c>
       <c r="E348" t="n">
-        <v>5491.639021458472</v>
+        <v>22731.72433771621</v>
       </c>
     </row>
     <row r="349">
@@ -6373,7 +6373,7 @@
         <v>19785.29024534023</v>
       </c>
       <c r="E349" t="n">
-        <v>5285.497432333108</v>
+        <v>22525.5827485704</v>
       </c>
     </row>
     <row r="350">
@@ -6390,7 +6390,7 @@
         <v>19690.88461659903</v>
       </c>
       <c r="E350" t="n">
-        <v>5083.61850486553</v>
+        <v>22323.70382108213</v>
       </c>
     </row>
     <row r="351">
@@ -6407,7 +6407,7 @@
         <v>19595.97234489531</v>
       </c>
       <c r="E351" t="n">
-        <v>4885.908852424272</v>
+        <v>22125.99416862</v>
       </c>
     </row>
     <row r="352">
@@ -6424,7 +6424,7 @@
         <v>19500.62700026219</v>
       </c>
       <c r="E352" t="n">
-        <v>4692.276526082116</v>
+        <v>21932.36184225672</v>
       </c>
     </row>
     <row r="353">
@@ -6441,7 +6441,7 @@
         <v>19404.91804548018</v>
       </c>
       <c r="E353" t="n">
-        <v>4502.631062093187</v>
+        <v>21742.71637824648</v>
       </c>
     </row>
     <row r="354">
@@ -6458,7 +6458,7 @@
         <v>19308.91103307341</v>
       </c>
       <c r="E354" t="n">
-        <v>4316.883521260608</v>
+        <v>21556.96883739238</v>
       </c>
     </row>
     <row r="355">
@@ -6475,7 +6475,7 @@
         <v>19212.66779415704</v>
       </c>
       <c r="E355" t="n">
-        <v>4134.946520912101</v>
+        <v>21375.03183702212</v>
       </c>
     </row>
     <row r="356">
@@ -6492,7 +6492,7 @@
         <v>19116.24661934175</v>
       </c>
       <c r="E356" t="n">
-        <v>3956.734260150683</v>
+        <v>21196.81957623875</v>
       </c>
     </row>
     <row r="357">
@@ -6509,7 +6509,7 @@
         <v>19019.70243191228</v>
       </c>
       <c r="E357" t="n">
-        <v>3782.162538997623</v>
+        <v>21022.24785506348</v>
       </c>
     </row>
     <row r="358">
@@ -6526,7 +6526,7 @@
         <v>18923.08695350584</v>
       </c>
       <c r="E358" t="n">
-        <v>3611.148771999737</v>
+        <v>20851.23408804319</v>
       </c>
     </row>
     <row r="359">
@@ -6543,7 +6543,7 @@
         <v>18826.44886252244</v>
       </c>
       <c r="E359" t="n">
-        <v>3443.611996829548</v>
+        <v>20683.6973128504</v>
       </c>
     </row>
     <row r="360">
@@ -6560,7 +6560,7 @@
         <v>18729.83394550342</v>
       </c>
       <c r="E360" t="n">
-        <v>3279.472878366721</v>
+        <v>20519.55819436478</v>
       </c>
     </row>
     <row r="361">
@@ -6571,13 +6571,13 @@
         <v>0.003592624551432973</v>
       </c>
       <c r="C361" t="n">
-        <v>0.03101992699876321</v>
+        <v>0.0310199269987632</v>
       </c>
       <c r="D361" t="n">
         <v>18633.28524171701</v>
       </c>
       <c r="E361" t="n">
-        <v>3118.653708711438</v>
+        <v>20358.73902468646</v>
       </c>
     </row>
     <row r="362">
@@ -6594,7 +6594,7 @@
         <v>17679.20244912937</v>
       </c>
       <c r="E362" t="n">
-        <v>1677.11093947687</v>
+        <v>18917.19625520982</v>
       </c>
     </row>
     <row r="363">
@@ -6605,13 +6605,13 @@
         <v>0.003613614404286987</v>
       </c>
       <c r="C363" t="n">
-        <v>0.03669638596873029</v>
+        <v>0.0366963859687303</v>
       </c>
       <c r="D363" t="n">
         <v>16763.26535989518</v>
       </c>
       <c r="E363" t="n">
-        <v>493.7067043279858</v>
+        <v>17733.79201979766</v>
       </c>
     </row>
     <row r="364">
@@ -6628,7 +6628,7 @@
         <v>15899.77982808838</v>
       </c>
       <c r="E364" t="n">
-        <v>-484.9367833435881</v>
+        <v>16755.14853184181</v>
       </c>
     </row>
     <row r="365">
@@ -6639,13 +6639,13 @@
         <v>0.003625407463896659</v>
       </c>
       <c r="C365" t="n">
-        <v>0.04229166223879014</v>
+        <v>0.04229166223879015</v>
       </c>
       <c r="D365" t="n">
         <v>15094.25503380329</v>
       </c>
       <c r="E365" t="n">
-        <v>-1300.482820069901</v>
+        <v>15939.60249481032</v>
       </c>
     </row>
     <row r="366">
@@ -6656,13 +6656,13 @@
         <v>0.003629408185624399</v>
       </c>
       <c r="C366" t="n">
-        <v>0.04506265397994347</v>
+        <v>0.04506265397994349</v>
       </c>
       <c r="D366" t="n">
         <v>14347.25816212108</v>
       </c>
       <c r="E366" t="n">
-        <v>-1985.338748955482</v>
+        <v>15254.74656559878</v>
       </c>
     </row>
     <row r="367">
@@ -6679,7 +6679,7 @@
         <v>13656.69414574123</v>
       </c>
       <c r="E367" t="n">
-        <v>-2564.746535756873</v>
+        <v>14675.33877845082</v>
       </c>
     </row>
     <row r="368">
@@ -6696,7 +6696,7 @@
         <v>13019.1401233358</v>
       </c>
       <c r="E368" t="n">
-        <v>-3058.448443133522</v>
+        <v>14181.63687070708</v>
       </c>
     </row>
     <row r="369">
@@ -6713,7 +6713,7 @@
         <v>12430.61655049289</v>
       </c>
       <c r="E369" t="n">
-        <v>-3481.973622273338</v>
+        <v>13758.11169117977</v>
       </c>
     </row>
     <row r="370">
@@ -6730,7 +6730,7 @@
         <v>11887.02380310696</v>
       </c>
       <c r="E370" t="n">
-        <v>-3847.617498303913</v>
+        <v>13392.46781474137</v>
       </c>
     </row>
     <row r="371">
@@ -6747,7 +6747,7 @@
         <v>11384.38079694338</v>
       </c>
       <c r="E371" t="n">
-        <v>-4165.183053414711</v>
+        <v>13074.90225920254</v>
       </c>
     </row>
     <row r="372">
@@ -6764,7 +6764,7 @@
         <v>10918.94704084663</v>
       </c>
       <c r="E372" t="n">
-        <v>-4442.541554969359</v>
+        <v>12797.54375719973</v>
       </c>
     </row>
     <row r="373">
@@ -6781,7 +6781,7 @@
         <v>10487.27672870887</v>
       </c>
       <c r="E373" t="n">
-        <v>-4686.057743704077</v>
+        <v>12554.02756799683</v>
       </c>
     </row>
     <row r="374">
@@ -6792,13 +6792,13 @@
         <v>0.003645037002609743</v>
       </c>
       <c r="C374" t="n">
-        <v>0.06672128311424728</v>
+        <v>0.06672128311424727</v>
       </c>
       <c r="D374" t="n">
         <v>10086.23390939462</v>
       </c>
       <c r="E374" t="n">
-        <v>-4900.913627437689</v>
+        <v>12339.1716837751</v>
       </c>
     </row>
     <row r="375">
@@ -6815,7 +6815,7 @@
         <v>9712.986068701299</v>
       </c>
       <c r="E375" t="n">
-        <v>-5091.356388794108</v>
+        <v>12148.72892191068</v>
       </c>
     </row>
     <row r="376">
@@ -6826,13 +6826,13 @@
         <v>0.003647423040105169</v>
       </c>
       <c r="C376" t="n">
-        <v>0.07201941661202772</v>
+        <v>0.07201941661202771</v>
       </c>
       <c r="D376" t="n">
         <v>9364.98642911288</v>
       </c>
       <c r="E376" t="n">
-        <v>-5260.889334953125</v>
+        <v>11979.19597522385</v>
       </c>
     </row>
     <row r="377">
@@ -6849,7 +6849,7 @@
         <v>9039.951039773567</v>
       </c>
       <c r="E377" t="n">
-        <v>-5412.419909805036</v>
+        <v>11827.6653998244</v>
       </c>
     </row>
     <row r="378">
@@ -6860,13 +6860,13 @@
         <v>0.003649710705085942</v>
       </c>
       <c r="C378" t="n">
-        <v>0.07727881060342527</v>
+        <v>0.07727881060342526</v>
       </c>
       <c r="D378" t="n">
         <v>8735.83417492254</v>
       </c>
       <c r="E378" t="n">
-        <v>-5548.375167111521</v>
+        <v>11691.71014195072</v>
       </c>
     </row>
     <row r="379">
@@ -6883,7 +6883,7 @@
         <v>8450.804018861103</v>
       </c>
       <c r="E379" t="n">
-        <v>-5670.7924418242</v>
+        <v>11569.29286665128</v>
       </c>
     </row>
     <row r="380">
@@ -6894,13 +6894,13 @@
         <v>0.003651987426756988</v>
       </c>
       <c r="C380" t="n">
-        <v>0.08250234197984813</v>
+        <v>0.08250234197984814</v>
       </c>
       <c r="D380" t="n">
         <v>8183.219690466513</v>
       </c>
       <c r="E380" t="n">
-        <v>-5781.391001852302</v>
+        <v>11458.69430601688</v>
       </c>
     </row>
     <row r="381">
@@ -6911,13 +6911,13 @@
         <v>0.003653139315985326</v>
       </c>
       <c r="C381" t="n">
-        <v>0.0851014468548533</v>
+        <v>0.08510144685485332</v>
       </c>
       <c r="D381" t="n">
         <v>7931.61010957191</v>
       </c>
       <c r="E381" t="n">
-        <v>-5881.629023938625</v>
+        <v>11358.45628330481</v>
       </c>
     </row>
     <row r="382">
@@ -6928,13 +6928,13 @@
         <v>0.003654306751910633</v>
       </c>
       <c r="C382" t="n">
-        <v>0.0876924886699635</v>
+        <v>0.08769248866996349</v>
       </c>
       <c r="D382" t="n">
         <v>7694.654885023117</v>
       </c>
       <c r="E382" t="n">
-        <v>-5972.749174909855</v>
+        <v>11267.33613168844</v>
       </c>
     </row>
     <row r="383">
@@ -6951,7 +6951,7 @@
         <v>7471.167220673063</v>
       </c>
       <c r="E383" t="n">
-        <v>-6055.815291533385</v>
+        <v>11184.27001440041</v>
       </c>
     </row>
     <row r="384">
@@ -6968,7 +6968,7 @@
         <v>7260.078736286575</v>
       </c>
       <c r="E384" t="n">
-        <v>-6131.742064726013</v>
+        <v>11108.34324052401</v>
       </c>
     </row>
     <row r="385">
@@ -6979,13 +6979,13 @@
         <v>0.00365793527685392</v>
       </c>
       <c r="C385" t="n">
-        <v>0.09541975701927759</v>
+        <v>0.09541975701927762</v>
       </c>
       <c r="D385" t="n">
         <v>7060.426051677307</v>
       </c>
       <c r="E385" t="n">
-        <v>-6201.319193502492</v>
+        <v>11038.76611104455</v>
       </c>
     </row>
     <row r="386">
@@ -6996,13 +6996,13 @@
         <v>0.003659194736253479</v>
       </c>
       <c r="C386" t="n">
-        <v>0.09798099210718388</v>
+        <v>0.09798099210718389</v>
       </c>
       <c r="D386" t="n">
         <v>6871.338963691167</v>
       </c>
       <c r="E386" t="n">
-        <v>-6265.231142114377</v>
+        <v>10974.85416171048</v>
       </c>
     </row>
     <row r="387">
@@ -7019,7 +7019,7 @@
         <v>6692.030044173233</v>
       </c>
       <c r="E387" t="n">
-        <v>-6324.073382182647</v>
+        <v>10916.01192090092</v>
       </c>
     </row>
     <row r="388">
@@ -7036,7 +7036,7 @@
         <v>6521.785495028788</v>
       </c>
       <c r="E388" t="n">
-        <v>-6378.365809754381</v>
+        <v>10861.7194925688</v>
       </c>
     </row>
     <row r="389">
@@ -7053,7 +7053,7 @@
         <v>6359.957109200715</v>
       </c>
       <c r="E389" t="n">
-        <v>-6428.5638800829</v>
+        <v>10811.5214214609</v>
       </c>
     </row>
     <row r="390">
@@ -7070,7 +7070,7 @@
         <v>6205.955201023938</v>
       </c>
       <c r="E390" t="n">
-        <v>-6475.067889474391</v>
+        <v>10765.01741127105</v>
       </c>
     </row>
     <row r="391">
@@ -7087,7 +7087,7 @@
         <v>6059.242384347728</v>
       </c>
       <c r="E391" t="n">
-        <v>-6518.230745575328</v>
+        <v>10721.85455435282</v>
       </c>
     </row>
     <row r="392">
@@ -7104,7 +7104,7 @@
         <v>5919.328091132264</v>
       </c>
       <c r="E392" t="n">
-        <v>-6558.364498899718</v>
+        <v>10681.72080019224</v>
       </c>
     </row>
     <row r="393">
@@ -7121,7 +7121,7 @@
         <v>5785.763736461837</v>
       </c>
       <c r="E393" t="n">
-        <v>-6595.745854660213</v>
+        <v>10644.33944357671</v>
       </c>
     </row>
     <row r="394">
@@ -7138,7 +7138,7 @@
         <v>5658.138447877257</v>
       </c>
       <c r="E394" t="n">
-        <v>-6630.620841645383</v>
+        <v>10609.46445571772</v>
       </c>
     </row>
     <row r="395">
@@ -7155,7 +7155,7 @@
         <v>5536.075287572011</v>
       </c>
       <c r="E395" t="n">
-        <v>-6663.208781389453</v>
+        <v>10576.87651508108</v>
       </c>
     </row>
     <row r="396">
@@ -7172,7 +7172,7 @@
         <v>5419.227905368468</v>
       </c>
       <c r="E396" t="n">
-        <v>-6693.705674242558</v>
+        <v>10546.3796213167</v>
       </c>
     </row>
     <row r="397">
@@ -7189,7 +7189,7 @@
         <v>5307.277568583686</v>
       </c>
       <c r="E397" t="n">
-        <v>-6722.287097667437</v>
+        <v>10517.79819696184</v>
       </c>
     </row>
     <row r="398">
@@ -7206,7 +7206,7 @@
         <v>5199.93052202218</v>
       </c>
       <c r="E398" t="n">
-        <v>-6749.110695009532</v>
+        <v>10490.97459867113</v>
       </c>
     </row>
     <row r="399">
@@ -7223,7 +7223,7 @@
         <v>5096.915637512475</v>
       </c>
       <c r="E399" t="n">
-        <v>-6774.318319221322</v>
+        <v>10465.76697349214</v>
       </c>
     </row>
     <row r="400">
@@ -7240,7 +7240,7 @@
         <v>4997.982317750698</v>
       </c>
       <c r="E400" t="n">
-        <v>-6798.037884880503</v>
+        <v>10442.0474068472</v>
       </c>
     </row>
     <row r="401">
@@ -7257,7 +7257,7 @@
         <v>4902.898623832942</v>
       </c>
       <c r="E401" t="n">
-        <v>-6820.38497278737</v>
+        <v>10419.70031793605</v>
       </c>
     </row>
     <row r="402">
@@ -7268,13 +7268,13 @@
         <v>0.00368359483219531</v>
       </c>
       <c r="C402" t="n">
-        <v>0.1381307308107837</v>
+        <v>0.1381307308107838</v>
       </c>
       <c r="D402" t="n">
         <v>4811.449599845952</v>
       </c>
       <c r="E402" t="n">
-        <v>-6841.464224039788</v>
+        <v>10398.62106566085</v>
       </c>
     </row>
     <row r="403">
@@ -7291,7 +7291,7 @@
         <v>4723.435771327934</v>
       </c>
       <c r="E403" t="n">
-        <v>-6861.370554435085</v>
+        <v>10378.71473422436</v>
       </c>
     </row>
     <row r="404">
@@ -7308,7 +7308,7 @@
         <v>4638.671797383436</v>
       </c>
       <c r="E404" t="n">
-        <v>-6880.190215075922</v>
+        <v>10359.89507252386</v>
       </c>
     </row>
     <row r="405">
@@ -7325,7 +7325,7 @@
         <v>4556.985258803647</v>
       </c>
       <c r="E405" t="n">
-        <v>-6898.001720956334</v>
+        <v>10342.08356556543</v>
       </c>
     </row>
     <row r="406">
@@ -7342,7 +7342,7 @@
         <v>4478.215566763409</v>
       </c>
       <c r="E406" t="n">
-        <v>-6914.876665908787</v>
+        <v>10325.20861951658</v>
       </c>
     </row>
     <row r="407">
@@ -7359,7 +7359,7 @@
         <v>4402.212978586763</v>
       </c>
       <c r="E407" t="n">
-        <v>-6930.880439475302</v>
+        <v>10309.2048448354</v>
       </c>
     </row>
     <row r="408">
@@ -7376,7 +7376,7 @@
         <v>4328.837708737068</v>
       </c>
       <c r="E408" t="n">
-        <v>-6946.072858915873</v>
+        <v>10294.01242426183</v>
       </c>
     </row>
     <row r="409">
@@ -7393,7 +7393,7 @@
         <v>4257.959124630775</v>
       </c>
       <c r="E409" t="n">
-        <v>-6960.508727606188</v>
+        <v>10279.5765544203</v>
       </c>
     </row>
     <row r="410">
@@ -7410,7 +7410,7 @@
         <v>4189.455018127437</v>
       </c>
       <c r="E410" t="n">
-        <v>-6974.238329430008</v>
+        <v>10265.84695142704</v>
       </c>
     </row>
     <row r="411">
@@ -7427,7 +7427,7 @@
         <v>4123.210944638352</v>
       </c>
       <c r="E411" t="n">
-        <v>-6987.307867389816</v>
+        <v>10252.7774122796</v>
       </c>
     </row>
     <row r="412">
@@ -7444,7 +7444,7 @@
         <v>4059.119622745432</v>
       </c>
       <c r="E412" t="n">
-        <v>-6999.759853492587</v>
+        <v>10240.32542497103</v>
       </c>
     </row>
     <row r="413">
@@ -7461,7 +7461,7 @@
         <v>3997.080388049619</v>
       </c>
       <c r="E413" t="n">
-        <v>-7011.633455981937</v>
+        <v>10228.45182125776</v>
       </c>
     </row>
     <row r="414">
@@ -7478,7 +7478,7 @@
         <v>3936.998695691131</v>
       </c>
       <c r="E414" t="n">
-        <v>-7022.96480915251</v>
+        <v>10217.12046684512</v>
       </c>
     </row>
     <row r="415">
@@ -7489,13 +7489,13 @@
         <v>0.003709733666848229</v>
       </c>
       <c r="C415" t="n">
-        <v>0.1698265034799793</v>
+        <v>0.1698265034799792</v>
       </c>
       <c r="D415" t="n">
         <v>3878.78566661595</v>
       </c>
       <c r="E415" t="n">
-        <v>-7033.787290272469</v>
+        <v>10206.29798446509</v>
       </c>
     </row>
     <row r="416">
@@ -7512,7 +7512,7 @@
         <v>3822.357673216997</v>
       </c>
       <c r="E416" t="n">
-        <v>-7044.131767534346</v>
+        <v>10195.95350592506</v>
       </c>
     </row>
     <row r="417">
@@ -7523,13 +7523,13 @@
         <v>0.003714261019543943</v>
       </c>
       <c r="C417" t="n">
-        <v>0.1746423742585492</v>
+        <v>0.1746423742585491</v>
       </c>
       <c r="D417" t="n">
         <v>3767.635960464077</v>
       </c>
       <c r="E417" t="n">
-        <v>-7054.026822439041</v>
+        <v>10186.05844972417</v>
       </c>
     </row>
     <row r="418">
@@ -7546,7 +7546,7 @@
         <v>3714.546299063677</v>
       </c>
       <c r="E418" t="n">
-        <v>-7063.498949574093</v>
+        <v>10176.58632127494</v>
       </c>
     </row>
     <row r="419">
@@ -7563,7 +7563,7 @@
         <v>3663.018667565099</v>
       </c>
       <c r="E419" t="n">
-        <v>-7072.572736368778</v>
+        <v>10167.51253314813</v>
       </c>
     </row>
     <row r="420">
@@ -7580,7 +7580,7 @@
         <v>3612.986960660374</v>
       </c>
       <c r="E420" t="n">
-        <v>-7081.271025081855</v>
+        <v>10158.81424308499</v>
       </c>
     </row>
     <row r="421">
@@ -7597,7 +7597,7 @@
         <v>3564.3887212173</v>
       </c>
       <c r="E421" t="n">
-        <v>-7089.615058996521</v>
+        <v>10150.47020780233</v>
       </c>
     </row>
     <row r="422">
@@ -7614,7 +7614,7 @@
         <v>3517.16489384305</v>
       </c>
       <c r="E422" t="n">
-        <v>-7097.624614554186</v>
+        <v>10142.46065085882</v>
       </c>
     </row>
     <row r="423">
@@ -7631,7 +7631,7 @@
         <v>3471.259598003928</v>
       </c>
       <c r="E423" t="n">
-        <v>-7105.31812094843</v>
+        <v>10134.76714306084</v>
       </c>
     </row>
     <row r="424">
@@ -7648,7 +7648,7 @@
         <v>3426.619918929355</v>
       </c>
       <c r="E424" t="n">
-        <v>-7112.712768518346</v>
+        <v>10127.37249406936</v>
       </c>
     </row>
     <row r="425">
@@ -7665,7 +7665,7 @@
         <v>3383.195714707523</v>
       </c>
       <c r="E425" t="n">
-        <v>-7119.824607121724</v>
+        <v>10120.26065402662</v>
       </c>
     </row>
     <row r="426">
@@ -7682,7 +7682,7 @@
         <v>3340.939438139781</v>
       </c>
       <c r="E426" t="n">
-        <v>-7126.668635530902</v>
+        <v>10113.41662416027</v>
       </c>
     </row>
     <row r="427">
@@ -7699,7 +7699,7 @@
         <v>3299.805972062662</v>
       </c>
       <c r="E427" t="n">
-        <v>-7133.258882773848</v>
+        <v>10106.8263754424</v>
       </c>
     </row>
     <row r="428">
@@ -7716,7 +7716,7 @@
         <v>3259.752476973047</v>
       </c>
       <c r="E428" t="n">
-        <v>-7139.608482237635</v>
+        <v>10100.47677448595</v>
       </c>
     </row>
     <row r="429">
@@ -7733,7 +7733,7 @@
         <v>3220.738249904566</v>
       </c>
       <c r="E429" t="n">
-        <v>-7145.729739259908</v>
+        <v>10094.35551595328</v>
       </c>
     </row>
     <row r="430">
@@ -7750,7 +7750,7 @@
         <v>3182.724593604324</v>
       </c>
       <c r="E430" t="n">
-        <v>-7151.634192853073</v>
+        <v>10088.45106083203</v>
       </c>
     </row>
     <row r="431">
@@ -7767,7 +7767,7 @@
         <v>3145.674695149001</v>
       </c>
       <c r="E431" t="n">
-        <v>-7157.332672135073</v>
+        <v>10082.75258000429</v>
       </c>
     </row>
     <row r="432">
@@ -7784,7 +7784,7 @@
         <v>3109.553513220143</v>
       </c>
       <c r="E432" t="n">
-        <v>-7162.835347978502</v>
+        <v>10077.24990259748</v>
       </c>
     </row>
     <row r="433">
@@ -7801,7 +7801,7 @@
         <v>3074.327673330788</v>
       </c>
       <c r="E433" t="n">
-        <v>-7168.151780334796</v>
+        <v>10071.93346866015</v>
       </c>
     </row>
     <row r="434">
@@ -7818,7 +7818,7 @@
         <v>3039.965370360524</v>
       </c>
       <c r="E434" t="n">
-        <v>-7173.290961641965</v>
+        <v>10066.79428575436</v>
       </c>
     </row>
     <row r="435">
@@ -7835,7 +7835,7 @@
         <v>3006.43627781444</v>
       </c>
       <c r="E435" t="n">
-        <v>-7178.261356681083</v>
+        <v>10061.82388909901</v>
       </c>
     </row>
     <row r="436">
@@ -7852,7 +7852,7 @@
         <v>2973.711463273929</v>
       </c>
       <c r="E436" t="n">
-        <v>-7183.070939209672</v>
+        <v>10057.01430493668</v>
       </c>
     </row>
     <row r="437">
@@ -7869,7 +7869,7 @@
         <v>2941.763309554614</v>
       </c>
       <c r="E437" t="n">
-        <v>-7187.727225665577</v>
+        <v>10052.35801682945</v>
       </c>
     </row>
     <row r="438">
@@ -7886,7 +7886,7 @@
         <v>2910.565441129244</v>
       </c>
       <c r="E438" t="n">
-        <v>-7192.23730620612</v>
+        <v>10047.84793462009</v>
       </c>
     </row>
     <row r="439">
@@ -7903,7 +7903,7 @@
         <v>2880.092655412065</v>
       </c>
       <c r="E439" t="n">
-        <v>-7196.607873319828</v>
+        <v>10043.47736582005</v>
       </c>
     </row>
     <row r="440">
@@ -7920,7 +7920,7 @@
         <v>2850.320858535737</v>
       </c>
       <c r="E440" t="n">
-        <v>-7200.845248225371</v>
+        <v>10039.23998921068</v>
       </c>
     </row>
     <row r="441">
@@ -7937,7 +7937,7 @@
         <v>2821.227005283547</v>
       </c>
       <c r="E441" t="n">
-        <v>-7204.955405250744</v>
+        <v>10035.12983046406</v>
       </c>
     </row>
     <row r="442">
@@ -7954,7 +7954,7 @@
         <v>2792.789042868024</v>
       </c>
       <c r="E442" t="n">
-        <v>-7208.943994367027</v>
+        <v>10031.14123960907</v>
       </c>
     </row>
     <row r="443">
@@ -7965,13 +7965,13 @@
         <v>0.003785144932522249</v>
       </c>
       <c r="C443" t="n">
-        <v>0.2360475810468095</v>
+        <v>0.2360475810468094</v>
       </c>
       <c r="D443" t="n">
         <v>2764.985858272942</v>
       </c>
       <c r="E443" t="n">
-        <v>-7212.816362034804</v>
+        <v>10027.26887018515</v>
       </c>
     </row>
     <row r="444">
@@ -7982,13 +7982,13 @@
         <v>0.003788309035459015</v>
       </c>
       <c r="C444" t="n">
-        <v>0.2383699367048694</v>
+        <v>0.2383699367048693</v>
       </c>
       <c r="D444" t="n">
         <v>2737.79722889918</v>
       </c>
       <c r="E444" t="n">
-        <v>-7216.577570505626</v>
+        <v>10023.50765994082</v>
       </c>
     </row>
     <row r="445">
@@ -7999,13 +7999,13 @@
         <v>0.003791504915617363</v>
       </c>
       <c r="C445" t="n">
-        <v>0.2406896807716386</v>
+        <v>0.2406896807716385</v>
       </c>
       <c r="D445" t="n">
         <v>2711.203776276066</v>
       </c>
       <c r="E445" t="n">
-        <v>-7220.232415707937</v>
+        <v>10019.85281294766</v>
       </c>
     </row>
     <row r="446">
@@ -8022,7 +8022,7 @@
         <v>2685.186922619389</v>
       </c>
       <c r="E446" t="n">
-        <v>-7223.785443834729</v>
+        <v>10016.29978301258</v>
       </c>
     </row>
     <row r="447">
@@ -8039,7 +8039,7 @@
         <v>2659.728850034624</v>
       </c>
       <c r="E447" t="n">
-        <v>-7227.240966739653</v>
+        <v>10012.84425828206</v>
       </c>
     </row>
     <row r="448">
@@ -8056,7 +8056,7 @@
         <v>2634.812462180203</v>
       </c>
       <c r="E448" t="n">
-        <v>-7230.603076237715</v>
+        <v>10009.48214694106</v>
       </c>
     </row>
     <row r="449">
@@ -8067,13 +8067,13 @@
         <v>0.003804604695639514</v>
       </c>
       <c r="C449" t="n">
-        <v>0.2499430829514573</v>
+        <v>0.2499430829514572</v>
       </c>
       <c r="D449" t="n">
         <v>2610.421348220095</v>
       </c>
       <c r="E449" t="n">
-        <v>-7233.8756573993</v>
+        <v>10006.20956391924</v>
       </c>
     </row>
     <row r="450">
@@ -8090,7 +8090,7 @@
         <v>2586.539748908413</v>
       </c>
       <c r="E450" t="n">
-        <v>-7237.062400917114</v>
+        <v>10003.02281852389</v>
       </c>
     </row>
     <row r="451">
@@ -8101,13 +8101,13 @@
         <v>0.003811343263943444</v>
       </c>
       <c r="C451" t="n">
-        <v>0.2545548032798942</v>
+        <v>0.2545548032798943</v>
       </c>
       <c r="D451" t="n">
         <v>2563.152524660918</v>
       </c>
       <c r="E451" t="n">
-        <v>-7240.166814619477</v>
+        <v>9999.918402926776</v>
       </c>
     </row>
     <row r="452">
@@ -8124,7 +8124,7 @@
         <v>2353.527872811746</v>
       </c>
       <c r="E452" t="n">
-        <v>-7267.343255808799</v>
+        <v>9972.741941843717</v>
       </c>
     </row>
     <row r="453">
@@ -8141,7 +8141,7 @@
         <v>2180.319196406902</v>
       </c>
       <c r="E453" t="n">
-        <v>-7289.123023444565</v>
+        <v>9950.962152606104</v>
       </c>
     </row>
     <row r="454">
@@ -8158,7 +8158,7 @@
         <v>2035.150325207331</v>
       </c>
       <c r="E454" t="n">
-        <v>-7307.171274141861</v>
+        <v>9932.913878614336</v>
       </c>
     </row>
     <row r="455">
@@ -8175,7 +8175,7 @@
         <v>1912.012743355597</v>
       </c>
       <c r="E455" t="n">
-        <v>-7322.579286025586</v>
+        <v>9917.505841757886</v>
       </c>
     </row>
     <row r="456">
@@ -8186,13 +8186,13 @@
         <v>0.004018616842959101</v>
       </c>
       <c r="C456" t="n">
-        <v>0.3670910684987296</v>
+        <v>0.3670910684987295</v>
       </c>
       <c r="D456" t="n">
         <v>1806.484871428522</v>
       </c>
       <c r="E456" t="n">
-        <v>-7336.084926059815</v>
+        <v>9904.000175085817</v>
       </c>
     </row>
     <row r="457">
@@ -8209,7 +8209,7 @@
         <v>1715.240857135554</v>
       </c>
       <c r="E457" t="n">
-        <v>-7348.200278646653</v>
+        <v>9891.884794208412</v>
       </c>
     </row>
     <row r="458">
@@ -8226,7 +8226,7 @@
         <v>1635.731057974827</v>
       </c>
       <c r="E458" t="n">
-        <v>-7359.288563681205</v>
+        <v>9880.796479242072</v>
       </c>
     </row>
     <row r="459">
@@ -8237,13 +8237,13 @@
         <v>0.004175657832182954</v>
       </c>
       <c r="C459" t="n">
-        <v>0.4325390590908197</v>
+        <v>0.4325390590908196</v>
       </c>
       <c r="D459" t="n">
         <v>1565.968126176035</v>
       </c>
       <c r="E459" t="n">
-        <v>-7369.612131057061</v>
+        <v>9870.472880303987</v>
       </c>
     </row>
     <row r="460">
@@ -8260,7 +8260,7 @@
         <v>1504.380137668679</v>
       </c>
       <c r="E460" t="n">
-        <v>-7379.363329445814</v>
+        <v>9860.721648732837</v>
       </c>
     </row>
     <row r="461">
@@ -8271,13 +8271,13 @@
         <v>0.004292207603858768</v>
       </c>
       <c r="C461" t="n">
-        <v>0.4754741887951109</v>
+        <v>0.475474188795111</v>
       </c>
       <c r="D461" t="n">
         <v>1449.707485305422</v>
       </c>
       <c r="E461" t="n">
-        <v>-7388.684897946413</v>
+        <v>9851.400045439266</v>
       </c>
     </row>
     <row r="462">
@@ -8288,13 +8288,13 @@
         <v>0.004353701507399181</v>
       </c>
       <c r="C462" t="n">
-        <v>0.4967538940514277</v>
+        <v>0.4967538940514278</v>
       </c>
       <c r="D462" t="n">
         <v>1400.929050952535</v>
       </c>
       <c r="E462" t="n">
-        <v>-7397.683760576966</v>
+        <v>9842.401146414355</v>
       </c>
     </row>
     <row r="463">
@@ -8311,7 +8311,7 @@
         <v>1357.208399060658</v>
       </c>
       <c r="E463" t="n">
-        <v>-7406.440558827589</v>
+        <v>9833.644310176633</v>
       </c>
     </row>
     <row r="464">
@@ -8322,13 +8322,13 @@
         <v>0.004482552919995164</v>
       </c>
       <c r="C464" t="n">
-        <v>0.5389662323081318</v>
+        <v>0.5389662323081319</v>
       </c>
       <c r="D464" t="n">
         <v>1317.853932606223</v>
       </c>
       <c r="E464" t="n">
-        <v>-7415.016366892612</v>
+        <v>9825.068462540185</v>
       </c>
     </row>
     <row r="465">
@@ -8339,13 +8339,13 @@
         <v>0.004549679879348891</v>
       </c>
       <c r="C465" t="n">
-        <v>0.5599088074491401</v>
+        <v>0.5599088074491402</v>
       </c>
       <c r="D465" t="n">
         <v>1282.288959709978</v>
       </c>
       <c r="E465" t="n">
-        <v>-7423.457505515689</v>
+        <v>9816.627282769177</v>
       </c>
     </row>
     <row r="466">
@@ -8362,7 +8362,7 @@
         <v>1250.028908637489</v>
       </c>
       <c r="E466" t="n">
-        <v>-7431.79904820465</v>
+        <v>9808.285697363461</v>
       </c>
     </row>
     <row r="467">
@@ -8379,7 +8379,7 @@
         <v>1220.663774578094</v>
       </c>
       <c r="E467" t="n">
-        <v>-7440.067412535484</v>
+        <v>9800.017288754283</v>
       </c>
     </row>
     <row r="468">
@@ -8396,7 +8396,7 @@
         <v>1193.844446911438</v>
       </c>
       <c r="E468" t="n">
-        <v>-7448.282301100136</v>
+        <v>9791.802354356692</v>
       </c>
     </row>
     <row r="469">
@@ -8413,7 +8413,7 @@
         <v>1169.271950174679</v>
       </c>
       <c r="E469" t="n">
-        <v>-7456.458173328205</v>
+        <v>9783.626434747846</v>
       </c>
     </row>
     <row r="470">
@@ -8430,7 +8430,7 @@
         <v>1146.688897661903</v>
       </c>
       <c r="E470" t="n">
-        <v>-7464.605374264611</v>
+        <v>9775.479184889298</v>
       </c>
     </row>
     <row r="471">
@@ -8447,7 +8447,7 @@
         <v>1125.872642924166</v>
       </c>
       <c r="E471" t="n">
-        <v>-7472.731009279947</v>
+        <v>9767.353499416722</v>
       </c>
     </row>
     <row r="472">
@@ -8464,7 +8464,7 @@
         <v>1106.629746885812</v>
       </c>
       <c r="E472" t="n">
-        <v>-7480.839628343654</v>
+        <v>9759.244828366744</v>
       </c>
     </row>
     <row r="473">
@@ -8481,7 +8481,7 @@
         <v>1088.791473620506</v>
       </c>
       <c r="E473" t="n">
-        <v>-7488.933765932148</v>
+        <v>9751.150637268765</v>
       </c>
     </row>
     <row r="474">
@@ -8498,7 +8498,7 @@
         <v>1072.210097242913</v>
       </c>
       <c r="E474" t="n">
-        <v>-7497.014370322034</v>
+        <v>9743.069977851885</v>
       </c>
     </row>
     <row r="475">
@@ -8509,13 +8509,13 @@
         <v>0.005293425821610747</v>
       </c>
       <c r="C475" t="n">
-        <v>0.7642377443469419</v>
+        <v>0.764237744346942</v>
       </c>
       <c r="D475" t="n">
         <v>1056.755853463557</v>
       </c>
       <c r="E475" t="n">
-        <v>-7505.081147265418</v>
+        <v>9735.003144369461</v>
       </c>
     </row>
     <row r="476">
@@ -8532,7 +8532,7 @@
         <v>1042.314407341694</v>
       </c>
       <c r="E476" t="n">
-        <v>-7513.132836756811</v>
+        <v>9726.951396832299</v>
       </c>
     </row>
     <row r="477">
@@ -8543,13 +8543,13 @@
         <v>0.00545260913149093</v>
       </c>
       <c r="C477" t="n">
-        <v>0.8041422122082276</v>
+        <v>0.8041422122082278</v>
       </c>
       <c r="D477" t="n">
         <v>1028.784737282508</v>
       </c>
       <c r="E477" t="n">
-        <v>-7521.167437034991</v>
+        <v>9718.916737006821</v>
       </c>
     </row>
     <row r="478">
@@ -8566,7 +8566,7 @@
         <v>1016.077356914042</v>
       </c>
       <c r="E478" t="n">
-        <v>-7529.182386615112</v>
+        <v>9710.901726382881</v>
       </c>
     </row>
     <row r="479">
@@ -8583,7 +8583,7 @@
         <v>1004.112812962784</v>
       </c>
       <c r="E479" t="n">
-        <v>-7537.174712667394</v>
+        <v>9702.909337795161</v>
       </c>
     </row>
     <row r="480">
@@ -8594,13 +8594,13 @@
         <v>0.005694474651973636</v>
       </c>
       <c r="C480" t="n">
-        <v>0.863482458582705</v>
+        <v>0.8634824585827048</v>
       </c>
       <c r="D480" t="n">
         <v>992.8204099304825</v>
       </c>
       <c r="E480" t="n">
-        <v>-7545.141152206519</v>
+        <v>9694.942834233696</v>
       </c>
     </row>
     <row r="481">
@@ -8617,7 +8617,7 @@
         <v>982.1371222066033</v>
       </c>
       <c r="E481" t="n">
-        <v>-7553.078251160488</v>
+        <v>9687.005669775162</v>
       </c>
     </row>
     <row r="482">
@@ -8634,7 +8634,7 @@
         <v>972.006661924962</v>
       </c>
       <c r="E482" t="n">
-        <v>-7560.982445326689</v>
+        <v>9679.101408626704</v>
       </c>
     </row>
     <row r="483">
@@ -8651,7 +8651,7 @@
         <v>962.3786769024806</v>
       </c>
       <c r="E483" t="n">
-        <v>-7568.850126410862</v>
+        <v>9671.23365908694</v>
       </c>
     </row>
     <row r="484">
@@ -8668,7 +8668,7 @@
         <v>953.2080577647117</v>
       </c>
       <c r="E484" t="n">
-        <v>-7576.677695717016</v>
+        <v>9663.406019856193</v>
       </c>
     </row>
     <row r="485">
@@ -8685,7 +8685,7 @@
         <v>944.4543371535418</v>
       </c>
       <c r="E485" t="n">
-        <v>-7584.461607567863</v>
+        <v>9655.622036615914</v>
       </c>
     </row>
     <row r="486">
@@ -8696,13 +8696,13 @@
         <v>0.006182104879518748</v>
       </c>
       <c r="C486" t="n">
-        <v>0.9804700718066431</v>
+        <v>0.9804700718066433</v>
       </c>
       <c r="D486" t="n">
         <v>936.0811669440744</v>
       </c>
       <c r="E486" t="n">
-        <v>-7592.198404152772</v>
+        <v>9647.885167180884</v>
       </c>
     </row>
     <row r="487">
@@ -8713,13 +8713,13 @@
         <v>0.006263158243019283</v>
       </c>
       <c r="C487" t="n">
-        <v>0.9997655462319234</v>
+        <v>0.9997655462319236</v>
       </c>
       <c r="D487" t="n">
         <v>928.0558618352256</v>
       </c>
       <c r="E487" t="n">
-        <v>-7599.884743197177</v>
+        <v>9640.198753829649</v>
       </c>
     </row>
     <row r="488">
@@ -8736,7 +8736,7 @@
         <v>920.3489996484839</v>
       </c>
       <c r="E488" t="n">
-        <v>-7607.517419606762</v>
+        <v>9632.566001660451</v>
       </c>
     </row>
     <row r="489">
@@ -8753,7 +8753,7 @@
         <v>912.9340702691651</v>
       </c>
       <c r="E489" t="n">
-        <v>-7615.093382046059</v>
+        <v>9624.989962012576</v>
       </c>
     </row>
     <row r="490">
@@ -8770,7 +8770,7 @@
         <v>905.787166469968</v>
       </c>
       <c r="E490" t="n">
-        <v>-7622.609745255047</v>
+        <v>9617.473520149833</v>
       </c>
     </row>
     <row r="491">
@@ -8787,7 +8787,7 @@
         <v>898.8867109267644</v>
       </c>
       <c r="E491" t="n">
-        <v>-7630.063798779851</v>
+        <v>9610.019386529781</v>
       </c>
     </row>
     <row r="492">
@@ -8804,7 +8804,7 @@
         <v>892.2132146176061</v>
       </c>
       <c r="E492" t="n">
-        <v>-7637.453012689411</v>
+        <v>9602.630091087027</v>
       </c>
     </row>
     <row r="493">
@@ -8821,7 +8821,7 @@
         <v>885.7490625243975</v>
       </c>
       <c r="E493" t="n">
-        <v>-7644.77504076381</v>
+        <v>9595.307980045105</v>
       </c>
     </row>
     <row r="494">
@@ -8838,7 +8838,7 @@
         <v>879.4783231615056</v>
       </c>
       <c r="E494" t="n">
-        <v>-7652.027721567687</v>
+        <v>9588.055214842769</v>
       </c>
     </row>
     <row r="495">
@@ -8855,7 +8855,7 @@
         <v>873.3865789597114</v>
       </c>
       <c r="E495" t="n">
-        <v>-7659.209077763055</v>
+        <v>9580.873772821435</v>
       </c>
     </row>
     <row r="496">
@@ -8872,7 +8872,7 @@
         <v>867.4607749558045</v>
       </c>
       <c r="E496" t="n">
-        <v>-7666.31731396418</v>
+        <v>9573.765449370176</v>
       </c>
     </row>
     <row r="497">
@@ -8889,7 +8889,7 @@
         <v>861.6890835925095</v>
       </c>
       <c r="E497" t="n">
-        <v>-7673.350813395045</v>
+        <v>9566.731861268228</v>
       </c>
     </row>
     <row r="498">
@@ -8906,7 +8906,7 @@
         <v>856.0607837322241</v>
       </c>
       <c r="E498" t="n">
-        <v>-7680.308133573178</v>
+        <v>9559.774451001362</v>
       </c>
     </row>
     <row r="499">
@@ -8923,7 +8923,7 @@
         <v>850.5661522408806</v>
       </c>
       <c r="E499" t="n">
-        <v>-7687.188001211962</v>
+        <v>9552.894491859319</v>
       </c>
     </row>
     <row r="500">
@@ -8940,7 +8940,7 @@
         <v>845.1963667129795</v>
       </c>
       <c r="E500" t="n">
-        <v>-7693.989306507353</v>
+        <v>9546.093093649226</v>
       </c>
     </row>
     <row r="501">
@@ -8957,7 +8957,7 @@
         <v>839.9434180917531</v>
       </c>
       <c r="E501" t="n">
-        <v>-7700.711096951034</v>
+        <v>9539.371208882474</v>
       </c>
     </row>
     <row r="502">
@@ -8974,7 +8974,7 @@
         <v>834.8000320948893</v>
       </c>
       <c r="E502" t="n">
-        <v>-7707.352570792224</v>
+        <v>9532.729639312842</v>
       </c>
     </row>
     <row r="503">
@@ -8991,7 +8991,7 @@
         <v>829.7595984904087</v>
       </c>
       <c r="E503" t="n">
-        <v>-7713.913070252836</v>
+        <v>9526.169042721325</v>
       </c>
     </row>
     <row r="504">
@@ -9008,7 +9008,7 @@
         <v>824.8161073827895</v>
       </c>
       <c r="E504" t="n">
-        <v>-7720.392074585488</v>
+        <v>9519.689939858248</v>
       </c>
     </row>
     <row r="505">
@@ -9025,7 +9025,7 @@
         <v>819.9640917691065</v>
       </c>
       <c r="E505" t="n">
-        <v>-7726.78919305037</v>
+        <v>9513.292721466281</v>
       </c>
     </row>
     <row r="506">
@@ -9042,7 +9042,7 @@
         <v>815.1985757113039</v>
       </c>
       <c r="E506" t="n">
-        <v>-7733.104157875669</v>
+        <v>9506.977655320019</v>
       </c>
     </row>
     <row r="507">
@@ -9059,7 +9059,7 @@
         <v>810.5150275456602</v>
       </c>
       <c r="E507" t="n">
-        <v>-7739.336817256009</v>
+        <v>9500.744893227607</v>
       </c>
     </row>
     <row r="508">
@@ -9076,7 +9076,7 @@
         <v>805.9093176158318</v>
       </c>
       <c r="E508" t="n">
-        <v>-7745.487128434328</v>
+        <v>9494.594477948849</v>
       </c>
     </row>
     <row r="509">
@@ -9093,7 +9093,7 @@
         <v>801.3776800728702</v>
       </c>
       <c r="E509" t="n">
-        <v>-7751.555150905087</v>
+        <v>9488.526349991946</v>
       </c>
     </row>
     <row r="510">
@@ -9110,7 +9110,7 @@
         <v>796.9166783355486</v>
       </c>
       <c r="E510" t="n">
-        <v>-7757.54103976993</v>
+        <v>9482.540354257948</v>
       </c>
     </row>
     <row r="511">
@@ -9127,7 +9127,7 @@
         <v>792.5231738481849</v>
       </c>
       <c r="E511" t="n">
-        <v>-7763.445039270693</v>
+        <v>9476.636246507547</v>
       </c>
     </row>
     <row r="512">
@@ -9144,7 +9144,7 @@
         <v>788.194297811718</v>
       </c>
       <c r="E512" t="n">
-        <v>-7769.267476520156</v>
+        <v>9470.813699630567</v>
       </c>
     </row>
     <row r="513">
@@ -9161,7 +9161,7 @@
         <v>783.9274255978555</v>
       </c>
       <c r="E513" t="n">
-        <v>-7775.008755445593</v>
+        <v>9465.072309702264</v>
       </c>
     </row>
     <row r="514">
@@ -9178,7 +9178,7 @@
         <v>779.7201535861752</v>
       </c>
       <c r="E514" t="n">
-        <v>-7780.669350957091</v>
+        <v>9459.411601815056</v>
       </c>
     </row>
     <row r="515">
@@ -9195,7 +9195,7 @@
         <v>775.5702781907579</v>
       </c>
       <c r="E515" t="n">
-        <v>-7786.249803348753</v>
+        <v>9453.831035677269</v>
       </c>
     </row>
     <row r="516">
@@ -9212,7 +9212,7 @@
         <v>771.4757768665755</v>
       </c>
       <c r="E516" t="n">
-        <v>-7791.750712938281</v>
+        <v>9448.330010973677</v>
       </c>
     </row>
     <row r="517">
@@ -9229,7 +9229,7 @@
         <v>767.4347909069327</v>
       </c>
       <c r="E517" t="n">
-        <v>-7797.172734947648</v>
+        <v>9442.907872484666</v>
       </c>
     </row>
     <row r="518">
@@ -9246,7 +9246,7 @@
         <v>763.4456098620254</v>
       </c>
       <c r="E518" t="n">
-        <v>-7802.516574625913</v>
+        <v>9437.563914963561</v>
       </c>
     </row>
     <row r="519">
@@ -9263,7 +9263,7 @@
         <v>759.5066574254089</v>
       </c>
       <c r="E519" t="n">
-        <v>-7807.782982612893</v>
+        <v>9432.297387772822</v>
       </c>
     </row>
     <row r="520">
@@ -9280,7 +9280,7 @@
         <v>755.6164786501708</v>
       </c>
       <c r="E520" t="n">
-        <v>-7812.972750541474</v>
+        <v>9427.107499281972</v>
       </c>
     </row>
     <row r="521">
@@ -9297,7 +9297,7 @@
         <v>751.7737283699994</v>
       </c>
       <c r="E521" t="n">
-        <v>-7818.086706874308</v>
+        <v>9421.993421030527</v>
       </c>
     </row>
     <row r="522">
@@ -9314,7 +9314,7 @@
         <v>747.9771607123585</v>
       </c>
       <c r="E522" t="n">
-        <v>-7823.12571297069</v>
+        <v>9416.954291661488</v>
       </c>
     </row>
     <row r="523">
@@ -9331,7 +9331,7 @@
         <v>744.2256196017925</v>
       </c>
       <c r="E523" t="n">
-        <v>-7828.090659377311</v>
+        <v>9411.98922063033</v>
       </c>
     </row>
     <row r="524">
@@ -9348,7 +9348,7 @@
         <v>740.5180301610615</v>
       </c>
       <c r="E524" t="n">
-        <v>-7832.982462337028</v>
+        <v>9407.097291696455</v>
       </c>
     </row>
     <row r="525">
@@ -9365,7 +9365,7 @@
         <v>736.8533909265751</v>
       </c>
       <c r="E525" t="n">
-        <v>-7837.802060508334</v>
+        <v>9402.277566203531</v>
       </c>
     </row>
     <row r="526">
@@ -9382,7 +9382,7 @@
         <v>733.2307668024338</v>
       </c>
       <c r="E526" t="n">
-        <v>-7842.550411888516</v>
+        <v>9397.529086156341</v>
       </c>
     </row>
     <row r="527">
@@ -9399,7 +9399,7 @@
         <v>729.6492826844917</v>
       </c>
       <c r="E527" t="n">
-        <v>-7847.228490932895</v>
+        <v>9392.850877101726</v>
       </c>
     </row>
     <row r="528">
@@ -9416,7 +9416,7 @@
         <v>726.1081176922646</v>
       </c>
       <c r="E528" t="n">
-        <v>-7851.837285862113</v>
+        <v>9388.241950821095</v>
       </c>
     </row>
     <row r="529">
@@ -9433,7 +9433,7 @@
         <v>722.6064999522886</v>
       </c>
       <c r="E529" t="n">
-        <v>-7856.377796149848</v>
+        <v>9383.701307842864</v>
       </c>
     </row>
     <row r="530">
@@ -9450,7 +9450,7 @@
         <v>719.1437018817545</v>
       </c>
       <c r="E530" t="n">
-        <v>-7860.851030182827</v>
+        <v>9379.22793978237</v>
       </c>
     </row>
     <row r="531">
@@ -9467,7 +9467,7 @@
         <v>715.7190359260003</v>
       </c>
       <c r="E531" t="n">
-        <v>-7865.258003085202</v>
+        <v>9374.820831517371</v>
       </c>
     </row>
     <row r="532">
@@ -9484,7 +9484,7 @@
         <v>712.3318507076955</v>
       </c>
       <c r="E532" t="n">
-        <v>-7869.599734699746</v>
+        <v>9370.478963207212</v>
       </c>
     </row>
     <row r="533">
@@ -9501,7 +9501,7 @@
         <v>708.9815275494569</v>
       </c>
       <c r="E533" t="n">
-        <v>-7873.877247717474</v>
+        <v>9366.201312162788</v>
       </c>
     </row>
     <row r="534">
@@ -9518,7 +9518,7 @@
         <v>705.667477335141</v>
       </c>
       <c r="E534" t="n">
-        <v>-7878.091565948794</v>
+        <v>9361.986854575614</v>
       </c>
     </row>
     <row r="535">
@@ -9535,7 +9535,7 @@
         <v>702.3891376782462</v>
       </c>
       <c r="E535" t="n">
-        <v>-7882.243712728373</v>
+        <v>9357.834567113036</v>
       </c>
     </row>
     <row r="536">
@@ -9552,7 +9552,7 @@
         <v>699.1459703687452</v>
       </c>
       <c r="E536" t="n">
-        <v>-7886.334709446402</v>
+        <v>9353.743428386701</v>
       </c>
     </row>
     <row r="537">
@@ -9569,7 +9569,7 @@
         <v>695.9374590723123</v>
       </c>
       <c r="E537" t="n">
-        <v>-7890.365574199624</v>
+        <v>9349.712420301752</v>
       </c>
     </row>
     <row r="538">
@@ -9586,7 +9586,7 @@
         <v>692.7631072582685</v>
       </c>
       <c r="E538" t="n">
-        <v>-7894.337320555047</v>
+        <v>9345.740529293098</v>
       </c>
     </row>
     <row r="539">
@@ -9603,7 +9603,7 @@
         <v>689.6224363347446</v>
       </c>
       <c r="E539" t="n">
-        <v>-7898.250956419839</v>
+        <v>9341.826747455396</v>
       </c>
     </row>
     <row r="540">
@@ -9620,7 +9620,7 @@
         <v>686.5149839715269</v>
       </c>
       <c r="E540" t="n">
-        <v>-7902.107483011205</v>
+        <v>9337.970073573206</v>
       </c>
     </row>
     <row r="541">
@@ -9637,7 +9637,7 @@
         <v>683.440302592836</v>
       </c>
       <c r="E541" t="n">
-        <v>-7905.907893920349</v>
+        <v>9334.169514057241</v>
       </c>
     </row>
     <row r="542">
@@ -9654,7 +9654,7 @@
         <v>654.405641802677</v>
       </c>
       <c r="E542" t="n">
-        <v>-7941.037310835514</v>
+        <v>9299.038539077457</v>
       </c>
     </row>
     <row r="543">
@@ -9671,7 +9671,7 @@
         <v>628.2273327179914</v>
       </c>
       <c r="E543" t="n">
-        <v>-7971.567847515691</v>
+        <v>9268.506314595848</v>
       </c>
     </row>
     <row r="544">
@@ -9688,7 +9688,7 @@
         <v>604.578538011987</v>
       </c>
       <c r="E544" t="n">
-        <v>-7998.293597672513</v>
+        <v>9241.77874845499</v>
       </c>
     </row>
     <row r="545">
@@ -9705,7 +9705,7 @@
         <v>583.1675477714274</v>
       </c>
       <c r="E545" t="n">
-        <v>-8021.874890798538</v>
+        <v>9218.195512591821</v>
       </c>
     </row>
     <row r="546">
@@ -9722,7 +9722,7 @@
         <v>563.7311675026102</v>
       </c>
       <c r="E546" t="n">
-        <v>-8042.850326071943</v>
+        <v>9197.218009151407</v>
       </c>
     </row>
     <row r="547">
@@ -9739,7 +9739,7 @@
         <v>546.0333594955963</v>
       </c>
       <c r="E547" t="n">
-        <v>-8061.654932064919</v>
+        <v>9178.41121079328</v>
       </c>
     </row>
     <row r="548">
@@ -9750,13 +9750,13 @@
         <v>0.01293495253751896</v>
       </c>
       <c r="C548" t="n">
-        <v>3.146303639051822</v>
+        <v>3.146303639051823</v>
       </c>
       <c r="D548" t="n">
         <v>529.8645479148179</v>
       </c>
       <c r="E548" t="n">
-        <v>-8078.638737352543</v>
+        <v>9161.425090094568</v>
       </c>
     </row>
     <row r="549">
@@ -9773,7 +9773,7 @@
         <v>515.0403882476382</v>
       </c>
       <c r="E549" t="n">
-        <v>-8094.083401685488</v>
+        <v>9145.97798838677</v>
       </c>
     </row>
     <row r="550">
@@ -9790,7 +9790,7 @@
         <v>501.3999294703363</v>
       </c>
       <c r="E550" t="n">
-        <v>-8108.216196516641</v>
+        <v>9131.842635237164</v>
       </c>
     </row>
     <row r="551">
@@ -9801,13 +9801,13 @@
         <v>0.01401166521981738</v>
       </c>
       <c r="C551" t="n">
-        <v>3.621791767908621</v>
+        <v>3.621791767908622</v>
       </c>
       <c r="D551" t="n">
         <v>488.8033927413206</v>
       </c>
       <c r="E551" t="n">
-        <v>-8121.221360389279</v>
+        <v>9118.834793067552</v>
       </c>
     </row>
     <row r="552">
@@ -9824,7 +9824,7 @@
         <v>477.1298051472833</v>
       </c>
       <c r="E552" t="n">
-        <v>-8133.249142565855</v>
+        <v>9106.80421353087</v>
       </c>
     </row>
     <row r="553">
@@ -9841,7 +9841,7 @@
         <v>466.2746659264802</v>
       </c>
       <c r="E553" t="n">
-        <v>-8144.422924621923</v>
+        <v>9095.627515922322</v>
       </c>
     </row>
     <row r="554">
@@ -9858,7 +9858,7 @@
         <v>456.1477559802273</v>
       </c>
       <c r="E554" t="n">
-        <v>-8154.844794030448</v>
+        <v>9085.202613599145</v>
       </c>
     </row>
     <row r="555">
@@ -9875,7 +9875,7 @@
         <v>446.6711491468965</v>
       </c>
       <c r="E555" t="n">
-        <v>-8164.599893931246</v>
+        <v>9075.444364214765</v>
       </c>
     </row>
     <row r="556">
@@ -9892,7 +9892,7 @@
         <v>437.7774477979955</v>
       </c>
       <c r="E556" t="n">
-        <v>-8173.759816002181</v>
+        <v>9066.281176850787</v>
       </c>
     </row>
     <row r="557">
@@ -9909,7 +9909,7 @@
         <v>429.4082427862783</v>
       </c>
       <c r="E557" t="n">
-        <v>-8182.385249906885</v>
+        <v>9057.652362572042</v>
       </c>
     </row>
     <row r="558">
@@ -9926,7 +9926,7 @@
         <v>421.5127848373324</v>
       </c>
       <c r="E558" t="n">
-        <v>-8190.528057127332</v>
+        <v>9049.506060596374</v>
       </c>
     </row>
     <row r="559">
@@ -9943,7 +9943,7 @@
         <v>414.0468479318993</v>
       </c>
       <c r="E559" t="n">
-        <v>-8198.232899712644</v>
+        <v>9041.797609548139</v>
       </c>
     </row>
     <row r="560">
@@ -9960,7 +9960,7 @@
         <v>406.9717627208434</v>
       </c>
       <c r="E560" t="n">
-        <v>-8205.538524837175</v>
+        <v>9034.488262901856</v>
       </c>
     </row>
     <row r="561">
@@ -9971,13 +9971,13 @@
         <v>0.01714008597303444</v>
       </c>
       <c r="C561" t="n">
-        <v>5.134898541955968</v>
+        <v>5.134898541955969</v>
       </c>
       <c r="D561" t="n">
         <v>400.2535979271871</v>
       </c>
       <c r="E561" t="n">
-        <v>-8212.478782869535</v>
+        <v>9027.544170915111</v>
       </c>
     </row>
     <row r="562">
@@ -9994,7 +9994,7 @@
         <v>393.8624689520481</v>
       </c>
       <c r="E562" t="n">
-        <v>-8219.08343868438</v>
+        <v>9020.935569318088</v>
       </c>
     </row>
     <row r="563">
@@ -10011,7 +10011,7 @@
         <v>387.7719548342483</v>
       </c>
       <c r="E563" t="n">
-        <v>-8225.378822111845</v>
+        <v>9014.636128865715</v>
       </c>
     </row>
     <row r="564">
@@ -10022,13 +10022,13 @@
         <v>0.01797711946519833</v>
       </c>
       <c r="C564" t="n">
-        <v>5.571506510967953</v>
+        <v>5.571506510967952</v>
       </c>
       <c r="D564" t="n">
         <v>381.9586068993867</v>
       </c>
       <c r="E564" t="n">
-        <v>-8231.3883528019</v>
+        <v>9008.622430474508</v>
       </c>
     </row>
     <row r="565">
@@ -10045,7 +10045,7 @@
         <v>376.4015346276864</v>
       </c>
       <c r="E565" t="n">
-        <v>-8237.132966652352</v>
+        <v>9002.873538795728</v>
       </c>
     </row>
     <row r="566">
@@ -10062,7 +10062,7 @@
         <v>371.0820563353676</v>
       </c>
       <c r="E566" t="n">
-        <v>-8242.631464730101</v>
+        <v>8997.370653295089</v>
       </c>
     </row>
     <row r="567">
@@ -10073,13 +10073,13 @@
         <v>0.01877731861210851</v>
       </c>
       <c r="C567" t="n">
-        <v>6.001476610845517</v>
+        <v>6.001476610845516</v>
       </c>
       <c r="D567" t="n">
         <v>365.9834041350356</v>
       </c>
       <c r="E567" t="n">
-        <v>-8247.900800858655</v>
+        <v>8992.096820666238</v>
       </c>
     </row>
     <row r="568">
@@ -10096,7 +10096,7 @@
         <v>361.0904742917347</v>
       </c>
       <c r="E568" t="n">
-        <v>-8252.956320403697</v>
+        <v>8987.036696046185</v>
       </c>
     </row>
     <row r="569">
@@ -10113,7 +10113,7 @@
         <v>356.3896155226888</v>
       </c>
       <c r="E569" t="n">
-        <v>-8257.811959998622</v>
+        <v>8982.176343290334</v>
       </c>
     </row>
     <row r="570">
@@ -10130,7 +10130,7 @@
         <v>351.8684490134148</v>
       </c>
       <c r="E570" t="n">
-        <v>-8262.480415811733</v>
+        <v>8977.503066706167</v>
       </c>
     </row>
     <row r="571">
@@ -10147,7 +10147,7 @@
         <v>347.5157149606103</v>
       </c>
       <c r="E571" t="n">
-        <v>-8266.973286310214</v>
+        <v>8973.005268289993</v>
       </c>
     </row>
     <row r="572">
@@ -10164,7 +10164,7 @@
         <v>343.3211413251294</v>
       </c>
       <c r="E572" t="n">
-        <v>-8271.301194207857</v>
+        <v>8968.672325779671</v>
       </c>
     </row>
     <row r="573">
@@ -10175,13 +10175,13 @@
         <v>0.02028320319742842</v>
       </c>
       <c r="C573" t="n">
-        <v>6.843641945862782</v>
+        <v>6.843641945862783</v>
       </c>
       <c r="D573" t="n">
         <v>339.2753312085753</v>
       </c>
       <c r="E573" t="n">
-        <v>-8275.473891303933</v>
+        <v>8964.494487816504</v>
       </c>
     </row>
     <row r="574">
@@ -10198,7 +10198,7 @@
         <v>335.3696658753495</v>
       </c>
       <c r="E574" t="n">
-        <v>-8279.500349160575</v>
+        <v>8960.462783268298</v>
       </c>
     </row>
     <row r="575">
@@ -10215,7 +10215,7 @@
         <v>331.5962209471662</v>
       </c>
       <c r="E575" t="n">
-        <v>-8283.388837976197</v>
+        <v>8956.568942356402</v>
       </c>
     </row>
     <row r="576">
@@ -10226,13 +10226,13 @@
         <v>0.02099547287504524</v>
       </c>
       <c r="C576" t="n">
-        <v>7.256710056558383</v>
+        <v>7.256710056558381</v>
       </c>
       <c r="D576" t="n">
         <v>327.9476937155955</v>
       </c>
       <c r="E576" t="n">
-        <v>-8287.14699555152</v>
+        <v>8952.805327690296</v>
       </c>
     </row>
     <row r="577">
@@ -10249,7 +10249,7 @@
         <v>324.4173398644552</v>
       </c>
       <c r="E577" t="n">
-        <v>-8290.781887883535</v>
+        <v>8949.164873673884</v>
       </c>
     </row>
     <row r="578">
@@ -10266,7 +10266,7 @@
         <v>320.9989181800235</v>
       </c>
       <c r="E578" t="n">
-        <v>-8294.300062639071</v>
+        <v>8945.641033032489</v>
       </c>
     </row>
     <row r="579">
@@ -10283,7 +10283,7 @@
         <v>317.6866420633947</v>
       </c>
       <c r="E579" t="n">
-        <v>-8297.707596534307</v>
+        <v>8942.227729433642</v>
       </c>
     </row>
     <row r="580">
@@ -10294,13 +10294,13 @@
         <v>0.02190897454314442</v>
       </c>
       <c r="C580" t="n">
-        <v>7.799961193469382</v>
+        <v>7.799961193469381</v>
       </c>
       <c r="D580" t="n">
         <v>314.4751368545549</v>
       </c>
       <c r="E580" t="n">
-        <v>-8301.010137468396</v>
+        <v>8938.919315353747</v>
       </c>
     </row>
     <row r="581">
@@ -10311,13 +10311,13 @@
         <v>0.02213143185853759</v>
       </c>
       <c r="C581" t="n">
-        <v>7.934508828983285</v>
+        <v>7.934508828983286</v>
       </c>
       <c r="D581" t="n">
         <v>311.3594021390358</v>
       </c>
       <c r="E581" t="n">
-        <v>-8304.212942116365</v>
+        <v>8935.710534485652</v>
       </c>
     </row>
     <row r="582">
@@ -10328,13 +10328,13 @@
         <v>0.02235166699418328</v>
       </c>
       <c r="C582" t="n">
-        <v>8.068570912853485</v>
+        <v>8.068570912853486</v>
       </c>
       <c r="D582" t="n">
         <v>308.3347783413977</v>
       </c>
       <c r="E582" t="n">
-        <v>-8307.320909571459</v>
+        <v>8932.596488096542</v>
       </c>
     </row>
     <row r="583">
@@ -10351,7 +10351,7 @@
         <v>305.3969170201553</v>
       </c>
       <c r="E583" t="n">
-        <v>-8310.338611534475</v>
+        <v>8929.572604838899</v>
       </c>
     </row>
     <row r="584">
@@ -10368,7 +10368,7 @@
         <v>302.5417543702575</v>
       </c>
       <c r="E584" t="n">
-        <v>-8313.270319471849</v>
+        <v>8926.634613592782</v>
       </c>
     </row>
     <row r="585">
@@ -10385,7 +10385,7 @@
         <v>299.7654875151374</v>
       </c>
       <c r="E585" t="n">
-        <v>-8316.120029102101</v>
+        <v>8923.778518979409</v>
       </c>
     </row>
     <row r="586">
@@ -10396,13 +10396,13 @@
         <v>0.02321166310727155</v>
       </c>
       <c r="C586" t="n">
-        <v>8.600149215758453</v>
+        <v>8.600149215758451</v>
       </c>
       <c r="D586" t="n">
         <v>297.0645532335039</v>
       </c>
       <c r="E586" t="n">
-        <v>-8318.891482519732</v>
+        <v>8921.000579237803</v>
       </c>
     </row>
     <row r="587">
@@ -10419,7 +10419,7 @@
         <v>294.435608818639</v>
       </c>
       <c r="E587" t="n">
-        <v>-8321.58818822234</v>
+        <v>8918.29728619771</v>
       </c>
     </row>
     <row r="588">
@@ -10436,7 +10436,7 @@
         <v>291.8755148119098</v>
       </c>
       <c r="E588" t="n">
-        <v>-8324.213439272029</v>
+        <v>8915.665347118458</v>
       </c>
     </row>
     <row r="589">
@@ -10453,7 +10453,7 @@
         <v>289.3813193889878</v>
       </c>
       <c r="E589" t="n">
-        <v>-8326.770329792076</v>
+        <v>8913.101668192585</v>
       </c>
     </row>
     <row r="590">
@@ -10470,7 +10470,7 @@
         <v>286.9502442081457</v>
       </c>
       <c r="E590" t="n">
-        <v>-8329.261769974339</v>
+        <v>8910.603339538453</v>
       </c>
     </row>
     <row r="591">
@@ -10487,7 +10487,7 @@
         <v>284.5796715559992</v>
       </c>
       <c r="E591" t="n">
-        <v>-8331.690499752061</v>
+        <v>8908.167621527859</v>
       </c>
     </row>
     <row r="592">
@@ -10504,7 +10504,7 @@
         <v>282.2671326480214</v>
       </c>
       <c r="E592" t="n">
-        <v>-8334.059101273491</v>
+        <v>8905.791932312341</v>
       </c>
     </row>
     <row r="593">
@@ -10521,7 +10521,7 @@
         <v>280.0102969597388</v>
       </c>
       <c r="E593" t="n">
-        <v>-8336.370010296843</v>
+        <v>8903.473836428533</v>
       </c>
     </row>
     <row r="594">
@@ -10532,13 +10532,13 @@
         <v>0.02484239250544041</v>
       </c>
       <c r="C594" t="n">
-        <v>9.64258618352344</v>
+        <v>9.642586183523441</v>
       </c>
       <c r="D594" t="n">
         <v>277.8069624803312</v>
       </c>
       <c r="E594" t="n">
-        <v>-8338.625526612792</v>
+        <v>8901.211034375947</v>
       </c>
     </row>
     <row r="595">
@@ -10555,7 +10555,7 @@
         <v>275.6550467938245</v>
       </c>
       <c r="E595" t="n">
-        <v>-8340.827823588854</v>
+        <v>8899.001353072423</v>
       </c>
     </row>
     <row r="596">
@@ -10566,13 +10566,13 @@
         <v>0.02523361078020334</v>
       </c>
       <c r="C596" t="n">
-        <v>9.899212382099412</v>
+        <v>9.89921238209941</v>
       </c>
       <c r="D596" t="n">
         <v>273.5525789045947</v>
       </c>
       <c r="E596" t="n">
-        <v>-8342.978956920386</v>
+        <v>8896.842737103616</v>
       </c>
     </row>
     <row r="597">
@@ -10589,7 +10589,7 @@
         <v>271.4976917337906</v>
       </c>
       <c r="E597" t="n">
-        <v>-8345.080872662749</v>
+        <v>8894.733240690726</v>
       </c>
     </row>
     <row r="598">
@@ -10606,7 +10606,7 @@
         <v>269.4886152218108</v>
       </c>
       <c r="E598" t="n">
-        <v>-8347.135414612281</v>
+        <v>8892.671020309823</v>
       </c>
     </row>
     <row r="599">
@@ -10623,7 +10623,7 @@
         <v>267.5236699793355</v>
       </c>
       <c r="E599" t="n">
-        <v>-8349.144331095962</v>
+        <v>8890.654327902179</v>
       </c>
     </row>
     <row r="600">
@@ -10640,7 +10640,7 @@
         <v>265.6012614358029</v>
       </c>
       <c r="E600" t="n">
-        <v>-8351.109281223957</v>
+        <v>8888.681504621894</v>
       </c>
     </row>
     <row r="601">
@@ -10657,7 +10657,7 @@
         <v>263.7198744397756</v>
       </c>
       <c r="E601" t="n">
-        <v>-8353.031840653526</v>
+        <v>8886.750975072206</v>
       </c>
     </row>
     <row r="602">
@@ -10674,7 +10674,7 @@
         <v>261.8780682705046</v>
       </c>
       <c r="E602" t="n">
-        <v>-8354.913506907749</v>
+        <v>8884.861241986717</v>
       </c>
     </row>
     <row r="603">
@@ -10691,7 +10691,7 @@
         <v>260.0744720242402</v>
       </c>
       <c r="E603" t="n">
-        <v>-8356.755704288666</v>
+        <v>8883.010881316424</v>
       </c>
     </row>
     <row r="604">
@@ -10708,7 +10708,7 @@
         <v>258.3077803425792</v>
       </c>
       <c r="E604" t="n">
-        <v>-8358.559788420131</v>
+        <v>8881.198537686958</v>
       </c>
     </row>
     <row r="605">
@@ -10725,7 +10725,7 @@
         <v>256.5767494534277</v>
       </c>
       <c r="E605" t="n">
-        <v>-8360.327050452486</v>
+        <v>8879.422920194122</v>
       </c>
     </row>
     <row r="606">
@@ -10742,7 +10742,7 @@
         <v>254.880193498063</v>
       </c>
       <c r="E606" t="n">
-        <v>-8362.058720957812</v>
+        <v>8877.682798508504</v>
       </c>
     </row>
     <row r="607">
@@ -10759,7 +10759,7 @@
         <v>253.2169811203587</v>
       </c>
       <c r="E607" t="n">
-        <v>-8363.755973542247</v>
+        <v>8875.976999263416</v>
       </c>
     </row>
     <row r="608">
@@ -10776,7 +10776,7 @@
         <v>251.5860322965236</v>
       </c>
       <c r="E608" t="n">
-        <v>-8365.419928198902</v>
+        <v>8874.304402702095</v>
       </c>
     </row>
     <row r="609">
@@ -10793,7 +10793,7 @@
         <v>249.986315385741</v>
       </c>
       <c r="E609" t="n">
-        <v>-8367.051654422788</v>
+        <v>8872.663939562668</v>
       </c>
     </row>
     <row r="610">
@@ -10810,7 +10810,7 @@
         <v>248.4168443839161</v>
       </c>
       <c r="E610" t="n">
-        <v>-8368.652174107623</v>
+        <v>8871.054588181669</v>
       </c>
     </row>
     <row r="611">
@@ -10827,7 +10827,7 @@
         <v>246.8766763643688</v>
       </c>
       <c r="E611" t="n">
-        <v>-8370.22246424178</v>
+        <v>8869.475371797958</v>
       </c>
     </row>
     <row r="612">
@@ -10844,7 +10844,7 @@
         <v>245.3649090907573</v>
       </c>
       <c r="E612" t="n">
-        <v>-8371.763459419923</v>
+        <v>8867.925356041247</v>
       </c>
     </row>
     <row r="613">
@@ -10861,7 +10861,7 @@
         <v>243.8806787888425</v>
       </c>
       <c r="E613" t="n">
-        <v>-8373.276054184742</v>
+        <v>8866.403646590508</v>
       </c>
     </row>
     <row r="614">
@@ -10878,7 +10878,7 @@
         <v>242.4231580648671</v>
       </c>
       <c r="E614" t="n">
-        <v>-8374.761105212152</v>
+        <v>8864.909386988684</v>
       </c>
     </row>
     <row r="615">
@@ -10895,7 +10895,7 @@
         <v>240.991553959393</v>
       </c>
       <c r="E615" t="n">
-        <v>-8376.219433352306</v>
+        <v>8863.441756601878</v>
       </c>
     </row>
     <row r="616">
@@ -10912,7 +10912,7 @@
         <v>239.5851061264003</v>
       </c>
       <c r="E616" t="n">
-        <v>-8377.651825537312</v>
+        <v>8861.999968711647</v>
       </c>
     </row>
     <row r="617">
@@ -10929,7 +10929,7 @@
         <v>238.2030851283086</v>
       </c>
       <c r="E617" t="n">
-        <v>-8379.05903656595</v>
+        <v>8860.583268730321</v>
       </c>
     </row>
     <row r="618">
@@ -10940,13 +10940,13 @@
         <v>0.02919311730931717</v>
       </c>
       <c r="C618" t="n">
-        <v>12.63224119254065</v>
+        <v>12.63224119254064</v>
       </c>
       <c r="D618" t="n">
         <v>236.8447908383768</v>
       </c>
       <c r="E618" t="n">
-        <v>-8380.44179077459</v>
+        <v>8859.190932530162</v>
       </c>
     </row>
     <row r="619">
@@ -10963,7 +10963,7 @@
         <v>235.5095509426391</v>
       </c>
       <c r="E619" t="n">
-        <v>-8381.80078360283</v>
+        <v>8857.82226487781</v>
       </c>
     </row>
     <row r="620">
@@ -10980,7 +10980,7 @@
         <v>234.1967195341874</v>
       </c>
       <c r="E620" t="n">
-        <v>-8383.136683061608</v>
+        <v>8856.476597966246</v>
       </c>
     </row>
     <row r="621">
@@ -10997,7 +10997,7 @@
         <v>232.90567579319</v>
       </c>
       <c r="E621" t="n">
-        <v>-8384.450131110818</v>
+        <v>8855.153290037157</v>
       </c>
     </row>
     <row r="622">
@@ -11014,7 +11014,7 @@
         <v>231.6358227465729</v>
       </c>
       <c r="E622" t="n">
-        <v>-8385.741744953099</v>
+        <v>8853.851724087215</v>
       </c>
     </row>
     <row r="623">
@@ -11031,7 +11031,7 @@
         <v>230.3865861017805</v>
       </c>
       <c r="E623" t="n">
-        <v>-8387.01211824969</v>
+        <v>8852.571306652264</v>
       </c>
     </row>
     <row r="624">
@@ -11048,7 +11048,7 @@
         <v>229.1574131494617</v>
       </c>
       <c r="E624" t="n">
-        <v>-8388.26182226393</v>
+        <v>8851.311466663994</v>
       </c>
     </row>
     <row r="625">
@@ -11065,7 +11065,7 @@
         <v>227.9477717303454</v>
       </c>
       <c r="E625" t="n">
-        <v>-8389.491406937288</v>
+        <v>8850.071654373758</v>
       </c>
     </row>
     <row r="626">
@@ -11082,7 +11082,7 @@
         <v>226.7571492619314</v>
       </c>
       <c r="E626" t="n">
-        <v>-8390.701401902827</v>
+        <v>8848.851340339297</v>
       </c>
     </row>
     <row r="627">
@@ -11099,7 +11099,7 @@
         <v>225.5850518209566</v>
       </c>
       <c r="E627" t="n">
-        <v>-8391.892317440195</v>
+        <v>8847.650014469769</v>
       </c>
     </row>
     <row r="628">
@@ -11116,7 +11116,7 @@
         <v>224.4310032779143</v>
       </c>
       <c r="E628" t="n">
-        <v>-8393.064645376171</v>
+        <v>8846.467185125197</v>
       </c>
     </row>
     <row r="629">
@@ -11133,7 +11133,7 @@
         <v>223.2945444801756</v>
       </c>
       <c r="E629" t="n">
-        <v>-8394.218859934374</v>
+        <v>8845.302378266786</v>
       </c>
     </row>
     <row r="630">
@@ -11150,7 +11150,7 @@
         <v>222.1752324805271</v>
       </c>
       <c r="E630" t="n">
-        <v>-8395.355418537636</v>
+        <v>8844.155136654688</v>
       </c>
     </row>
     <row r="631">
@@ -11167,7 +11167,7 @@
         <v>221.0726398081777</v>
       </c>
       <c r="E631" t="n">
-        <v>-8396.474762565931</v>
+        <v>8843.025019090059</v>
       </c>
     </row>
     <row r="632">
@@ -11184,7 +11184,7 @@
         <v>210.8820223858276</v>
       </c>
       <c r="E632" t="n">
-        <v>-8406.808360108031</v>
+        <v>8832.578745759776</v>
       </c>
     </row>
     <row r="633">
@@ -11201,7 +11201,7 @@
         <v>201.9855900137053</v>
       </c>
       <c r="E633" t="n">
-        <v>-8415.81022007172</v>
+        <v>8823.455343994707</v>
       </c>
     </row>
     <row r="634">
@@ -11218,7 +11218,7 @@
         <v>194.1304745775967</v>
       </c>
       <c r="E634" t="n">
-        <v>-8423.740913634638</v>
+        <v>8815.394398033202</v>
       </c>
     </row>
     <row r="635">
@@ -11235,7 +11235,7 @@
         <v>187.128009764335</v>
       </c>
       <c r="E635" t="n">
-        <v>-8430.794631486027</v>
+        <v>8808.201860126122</v>
       </c>
     </row>
     <row r="636">
@@ -11252,7 +11252,7 @@
         <v>180.8341808116588</v>
       </c>
       <c r="E636" t="n">
-        <v>-8437.119454776066</v>
+        <v>8801.729781444123</v>
       </c>
     </row>
     <row r="637">
@@ -11269,7 +11269,7 @@
         <v>175.1368926531941</v>
       </c>
       <c r="E637" t="n">
-        <v>-8442.83054122449</v>
+        <v>8795.863127439372</v>
       </c>
     </row>
     <row r="638">
@@ -11286,7 +11286,7 @@
         <v>169.9474120237808</v>
       </c>
       <c r="E638" t="n">
-        <v>-8448.018977601329</v>
+        <v>8790.510926549348</v>
       </c>
     </row>
     <row r="639">
@@ -11303,7 +11303,7 @@
         <v>165.1944568643435</v>
       </c>
       <c r="E639" t="n">
-        <v>-8452.757886674231</v>
+        <v>8785.600164217478</v>
       </c>
     </row>
     <row r="640">
@@ -11320,7 +11320,7 @@
         <v>160.8200166064283</v>
       </c>
       <c r="E640" t="n">
-        <v>-8457.106741226009</v>
+        <v>8781.071469677543</v>
       </c>
     </row>
     <row r="641">
@@ -11337,7 +11337,7 @@
         <v>156.7763345017134</v>
       </c>
       <c r="E641" t="n">
-        <v>-8461.114475765567</v>
+        <v>8776.87600491374</v>
       </c>
     </row>
     <row r="642">
@@ -11354,7 +11354,7 @@
         <v>153.0236884910018</v>
       </c>
       <c r="E642" t="n">
-        <v>-8464.821772892919</v>
+        <v>8772.973178863378</v>
       </c>
     </row>
     <row r="643">
@@ -11371,7 +11371,7 @@
         <v>149.5287322947034</v>
       </c>
       <c r="E643" t="n">
-        <v>-8468.262771169042</v>
+        <v>8769.328940031402</v>
       </c>
     </row>
     <row r="644">
@@ -11388,7 +11388,7 @@
         <v>146.2632368801183</v>
       </c>
       <c r="E644" t="n">
-        <v>-8471.466359888474</v>
+        <v>8765.914482134445</v>
       </c>
     </row>
     <row r="645">
@@ -11405,7 +11405,7 @@
         <v>143.2031228806353</v>
       </c>
       <c r="E645" t="n">
-        <v>-8474.457173879875</v>
+        <v>8762.705249661292</v>
       </c>
     </row>
     <row r="646">
@@ -11422,7 +11422,7 @@
         <v>140.3277076633041</v>
       </c>
       <c r="E646" t="n">
-        <v>-8477.25636715578</v>
+        <v>8759.680164537658</v>
       </c>
     </row>
     <row r="647">
@@ -11439,7 +11439,7 @@
         <v>137.619112939695</v>
       </c>
       <c r="E647" t="n">
-        <v>-8479.882221262073</v>
+        <v>8756.821018053188</v>
       </c>
     </row>
     <row r="648">
@@ -11456,7 +11456,7 @@
         <v>135.0617939664018</v>
       </c>
       <c r="E648" t="n">
-        <v>-8482.350628509872</v>
+        <v>8754.111987873019</v>
       </c>
     </row>
     <row r="649">
@@ -11473,7 +11473,7 @@
         <v>132.6421618965759</v>
       </c>
       <c r="E649" t="n">
-        <v>-8484.675479407966</v>
+        <v>8751.539250821461</v>
       </c>
     </row>
     <row r="650">
@@ -11484,13 +11484,13 @@
         <v>0.05329700048749725</v>
       </c>
       <c r="C650" t="n">
-        <v>33.62622010736301</v>
+        <v>33.626220107363</v>
       </c>
       <c r="D650" t="n">
         <v>130.3482782533155</v>
       </c>
       <c r="E650" t="n">
-        <v>-8486.868975961988</v>
+        <v>8749.090669775112</v>
       </c>
     </row>
     <row r="651">
@@ -11501,13 +11501,13 @@
         <v>0.05420796085472842</v>
       </c>
       <c r="C651" t="n">
-        <v>34.53906112365402</v>
+        <v>34.53906112365401</v>
       </c>
       <c r="D651" t="n">
         <v>128.1696057904609</v>
       </c>
       <c r="E651" t="n">
-        <v>-8488.941887042729</v>
+        <v>8746.755538466788</v>
       </c>
     </row>
     <row r="652">
@@ -11518,13 +11518,13 @@
         <v>0.05510384700592522</v>
       </c>
       <c r="C652" t="n">
-        <v>35.44383220848267</v>
+        <v>35.44383220848266</v>
       </c>
       <c r="D652" t="n">
         <v>126.0968038390896</v>
       </c>
       <c r="E652" t="n">
-        <v>-8490.903758072343</v>
+        <v>8744.524371953872</v>
       </c>
     </row>
     <row r="653">
@@ -11535,13 +11535,13 @@
         <v>0.05598538206221503</v>
       </c>
       <c r="C653" t="n">
-        <v>36.3407941256412</v>
+        <v>36.34079412564121</v>
       </c>
       <c r="D653" t="n">
         <v>124.121559045823</v>
       </c>
       <c r="E653" t="n">
-        <v>-8492.763084383132</v>
+        <v>8742.388733398922</v>
       </c>
     </row>
     <row r="654">
@@ -11558,7 +11558,7 @@
         <v>122.2364444889341</v>
       </c>
       <c r="E654" t="n">
-        <v>-8494.527455460435</v>
+        <v>8740.341089952759</v>
       </c>
     </row>
     <row r="655">
@@ -11575,7 +11575,7 @@
         <v>120.4348017149112</v>
       </c>
       <c r="E655" t="n">
-        <v>-8496.203675678462</v>
+        <v>8738.37469213334</v>
       </c>
     </row>
     <row r="656">
@@ -11592,7 +11592,7 @@
         <v>118.7106414144603</v>
       </c>
       <c r="E656" t="n">
-        <v>-8497.797865926384</v>
+        <v>8736.483472303629</v>
       </c>
     </row>
     <row r="657">
@@ -11609,7 +11609,7 @@
         <v>117.0585593538846</v>
       </c>
       <c r="E657" t="n">
-        <v>-8499.315549600091</v>
+        <v>8734.661958774954</v>
       </c>
     </row>
     <row r="658">
@@ -11620,13 +11620,13 @@
         <v>0.06019948380948115</v>
       </c>
       <c r="C658" t="n">
-        <v>40.7165294263056</v>
+        <v>40.71652942630561</v>
       </c>
       <c r="D658" t="n">
         <v>115.4736648675205</v>
       </c>
       <c r="E658" t="n">
-        <v>-8500.761725725082</v>
+        <v>8732.905202771351</v>
       </c>
     </row>
     <row r="659">
@@ -11643,7 +11643,7 @@
         <v>113.9515197515197</v>
       </c>
       <c r="E659" t="n">
-        <v>-8502.140931426433</v>
+        <v>8731.208716039353</v>
       </c>
     </row>
     <row r="660">
@@ -11660,7 +11660,7 @@
         <v>112.488085816736</v>
       </c>
       <c r="E660" t="n">
-        <v>-8503.45729553307</v>
+        <v>8729.568417317263</v>
       </c>
     </row>
     <row r="661">
@@ -11677,7 +11677,7 @@
         <v>111.0796796867857</v>
       </c>
       <c r="E661" t="n">
-        <v>-8504.714584766152</v>
+        <v>8727.980586214599</v>
       </c>
     </row>
     <row r="662">
@@ -11694,7 +11694,7 @@
         <v>109.7229336872505</v>
       </c>
       <c r="E662" t="n">
-        <v>-8505.916243694439</v>
+        <v>8726.441823319328</v>
       </c>
     </row>
     <row r="663">
@@ -11705,13 +11705,13 @@
         <v>0.06413685722756239</v>
       </c>
       <c r="C663" t="n">
-        <v>44.92826179223639</v>
+        <v>44.92826179223638</v>
       </c>
       <c r="D663" t="n">
         <v>108.414761879039</v>
       </c>
       <c r="E663" t="n">
-        <v>-8507.065429427163</v>
+        <v>8724.949015562983</v>
       </c>
     </row>
     <row r="664">
@@ -11722,13 +11722,13 @@
         <v>0.06489561432298326</v>
       </c>
       <c r="C664" t="n">
-        <v>45.75274080544333</v>
+        <v>45.75274080544334</v>
       </c>
       <c r="D664" t="n">
         <v>107.1523304548541</v>
       </c>
       <c r="E664" t="n">
-        <v>-8508.165041844446</v>
+        <v>8723.499306043977</v>
       </c>
     </row>
     <row r="665">
@@ -11745,7 +11745,7 @@
         <v>105.9330318514354</v>
       </c>
       <c r="E665" t="n">
-        <v>-8509.217750028416</v>
+        <v>8722.090067646623</v>
       </c>
     </row>
     <row r="666">
@@ -11762,7 +11762,7 @@
         <v>104.7544620386073</v>
       </c>
       <c r="E666" t="n">
-        <v>-8510.226015446615</v>
+        <v>8720.718879904067</v>
       </c>
     </row>
     <row r="667">
@@ -11779,7 +11779,7 @@
         <v>103.6144005344022</v>
       </c>
       <c r="E667" t="n">
-        <v>-8511.192112349372</v>
+        <v>8719.383508644529</v>
       </c>
     </row>
     <row r="668">
@@ -11796,7 +11796,7 @@
         <v>102.5107927677543</v>
       </c>
       <c r="E668" t="n">
-        <v>-8512.118145768272</v>
+        <v>8718.081888033315</v>
       </c>
     </row>
     <row r="669">
@@ -11813,7 +11813,7 @@
         <v>101.4417344696352</v>
       </c>
       <c r="E669" t="n">
-        <v>-8513.006067442184</v>
+        <v>8716.812104684517</v>
       </c>
     </row>
     <row r="670">
@@ -11830,7 +11830,7 @@
         <v>100.4054578225346</v>
       </c>
       <c r="E670" t="n">
-        <v>-8513.857689947514</v>
+        <v>8715.572383566552</v>
       </c>
     </row>
     <row r="671">
@@ -11847,7 +11847,7 @@
         <v>99.40031913886699</v>
       </c>
       <c r="E671" t="n">
-        <v>-8514.674699266881</v>
+        <v>8714.361075466748</v>
       </c>
     </row>
     <row r="672">
@@ -11858,13 +11858,13 @@
         <v>0.07067231401791778</v>
       </c>
       <c r="C672" t="n">
-        <v>52.15610095831686</v>
+        <v>52.15610095831685</v>
       </c>
       <c r="D672" t="n">
         <v>98.42478787274044</v>
       </c>
       <c r="E672" t="n">
-        <v>-8515.458665996272</v>
+        <v>8713.176645815363</v>
       </c>
     </row>
     <row r="673">
@@ -11875,13 +11875,13 @@
         <v>0.07136143606164781</v>
       </c>
       <c r="C673" t="n">
-        <v>52.9341166202241</v>
+        <v>52.93411662022411</v>
       </c>
       <c r="D673" t="n">
         <v>97.47743679783318</v>
       </c>
       <c r="E673" t="n">
-        <v>-8516.21105536189</v>
+        <v>8712.017664698333</v>
       </c>
     </row>
     <row r="674">
@@ -11892,13 +11892,13 @@
         <v>0.07204394481146927</v>
       </c>
       <c r="C674" t="n">
-        <v>53.70748116976561</v>
+        <v>53.7074811697656</v>
       </c>
       <c r="D674" t="n">
         <v>96.55693320788028</v>
       </c>
       <c r="E674" t="n">
-        <v>-8516.93323619309</v>
+        <v>8710.882797912056</v>
       </c>
     </row>
     <row r="675">
@@ -11909,13 +11909,13 @@
         <v>0.07272002605594875</v>
       </c>
       <c r="C675" t="n">
-        <v>54.47628254433414</v>
+        <v>54.47628254433415</v>
       </c>
       <c r="D675" t="n">
         <v>95.66203101626563</v>
       </c>
       <c r="E675" t="n">
-        <v>-8517.626488977647</v>
+        <v>8709.770798934136</v>
       </c>
     </row>
     <row r="676">
@@ -11932,7 +11932,7 @@
         <v>94.79156364811624</v>
       </c>
       <c r="E676" t="n">
-        <v>-8518.292013108485</v>
+        <v>8708.680501701512</v>
       </c>
     </row>
     <row r="677">
@@ -11943,13 +11943,13 @@
         <v>0.07405360688688854</v>
       </c>
       <c r="C677" t="n">
-        <v>56.00053140897938</v>
+        <v>56.00053140897939</v>
       </c>
       <c r="D677" t="n">
         <v>93.9444376326195</v>
       </c>
       <c r="E677" t="n">
-        <v>-8518.930933415828</v>
+        <v>8707.610814101523</v>
       </c>
     </row>
     <row r="678">
@@ -11966,7 +11966,7 @@
         <v>93.11962681546444</v>
       </c>
       <c r="E678" t="n">
-        <v>-8519.544306066762</v>
+        <v>8706.560712094366</v>
       </c>
     </row>
     <row r="679">
@@ -11977,13 +11977,13 @@
         <v>0.07536350297873001</v>
       </c>
       <c r="C679" t="n">
-        <v>57.50750467791363</v>
+        <v>57.50750467791362</v>
       </c>
       <c r="D679" t="n">
         <v>92.31616712169944</v>
       </c>
       <c r="E679" t="n">
-        <v>-8520.133123903468</v>
+        <v>8705.529234395915</v>
       </c>
     </row>
     <row r="680">
@@ -12000,7 +12000,7 @@
         <v>91.53315180818672</v>
       </c>
       <c r="E680" t="n">
-        <v>-8520.698321281932</v>
+        <v>8704.515477658662</v>
       </c>
     </row>
     <row r="681">
@@ -12011,13 +12011,13 @@
         <v>0.07665092542655602</v>
       </c>
       <c r="C681" t="n">
-        <v>58.99779955356244</v>
+        <v>58.99779955356246</v>
       </c>
       <c r="D681" t="n">
         <v>90.76972715245847</v>
       </c>
       <c r="E681" t="n">
-        <v>-8521.240778465715</v>
+        <v>8703.51859209672</v>
       </c>
     </row>
     <row r="682">
@@ -12034,7 +12034,7 @@
         <v>90.02508853134201</v>
       </c>
       <c r="E682" t="n">
-        <v>-8521.761325622358</v>
+        <v>8702.537777507428</v>
       </c>
     </row>
     <row r="683">
@@ -12051,7 +12051,7 @@
         <v>89.2984768483749</v>
       </c>
       <c r="E683" t="n">
-        <v>-8522.260746463988</v>
+        <v>8701.572279647486</v>
       </c>
     </row>
     <row r="684">
@@ -12068,7 +12068,7 @@
         <v>88.5891752739267</v>
       </c>
       <c r="E684" t="n">
-        <v>-8522.739781569264</v>
+        <v>8700.621386927212</v>
       </c>
     </row>
     <row r="685">
@@ -12085,7 +12085,7 @@
         <v>87.89650626618302</v>
       </c>
       <c r="E685" t="n">
-        <v>-8523.199131419009</v>
+        <v>8699.684427390326</v>
       </c>
     </row>
     <row r="686">
@@ -12102,7 +12102,7 @@
         <v>87.21982884483019</v>
       </c>
       <c r="E686" t="n">
-        <v>-8523.639459174234</v>
+        <v>8698.760765950496</v>
       </c>
     </row>
     <row r="687">
@@ -12119,7 +12119,7 @@
         <v>86.55853609249114</v>
       </c>
       <c r="E687" t="n">
-        <v>-8524.061393222008</v>
+        <v>8697.849801859371</v>
       </c>
     </row>
     <row r="688">
@@ -12130,13 +12130,13 @@
         <v>0.08099518548631995</v>
       </c>
       <c r="C688" t="n">
-        <v>64.09022079477674</v>
+        <v>64.09022079477676</v>
       </c>
       <c r="D688" t="n">
         <v>85.91205286176042</v>
       </c>
       <c r="E688" t="n">
-        <v>-8524.465529511845</v>
+        <v>8696.950966383523</v>
       </c>
     </row>
     <row r="689">
@@ -12153,7 +12153,7 @@
         <v>85.27983366813736</v>
       </c>
       <c r="E689" t="n">
-        <v>-8524.852433702701</v>
+        <v>8696.063720670247</v>
       </c>
     </row>
     <row r="690">
@@ -12170,7 +12170,7 @@
         <v>84.6613607513013</v>
       </c>
       <c r="E690" t="n">
-        <v>-8525.222643138275</v>
+        <v>8695.187553784233</v>
       </c>
     </row>
     <row r="691">
@@ -12187,7 +12187,7 @@
         <v>84.05614228906207</v>
       </c>
       <c r="E691" t="n">
-        <v>-8525.576668666938</v>
+        <v>8694.321980899407</v>
       </c>
     </row>
     <row r="692">
@@ -12204,7 +12204,7 @@
         <v>83.46371074997326</v>
       </c>
       <c r="E692" t="n">
-        <v>-8525.914996320244</v>
+        <v>8693.466541631436</v>
       </c>
     </row>
     <row r="693">
@@ -12221,7 +12221,7 @@
         <v>82.88362137206317</v>
       </c>
       <c r="E693" t="n">
-        <v>-8526.238088863003</v>
+        <v>8692.62079849827</v>
       </c>
     </row>
     <row r="694">
@@ -12238,7 +12238,7 @@
         <v>82.31545075642755</v>
       </c>
       <c r="E694" t="n">
-        <v>-8526.546387226368</v>
+        <v>8691.784335497323</v>
       </c>
     </row>
     <row r="695">
@@ -12255,7 +12255,7 @@
         <v>81.7587955655723</v>
       </c>
       <c r="E695" t="n">
-        <v>-8526.840311834165</v>
+        <v>8690.95675678885</v>
       </c>
     </row>
     <row r="696">
@@ -12272,7 +12272,7 @@
         <v>81.21327131740904</v>
       </c>
       <c r="E696" t="n">
-        <v>-8527.120263831845</v>
+        <v>8690.137685476418</v>
       </c>
     </row>
     <row r="697">
@@ -12289,7 +12289,7 @@
         <v>80.67851126670411</v>
       </c>
       <c r="E697" t="n">
-        <v>-8527.386626226271</v>
+        <v>8689.326762476032</v>
       </c>
     </row>
     <row r="698">
@@ -12306,7 +12306,7 @@
         <v>80.15416536658336</v>
       </c>
       <c r="E698" t="n">
-        <v>-8527.639764944026</v>
+        <v>8688.52364546647</v>
       </c>
     </row>
     <row r="699">
@@ -12323,7 +12323,7 @@
         <v>79.63989930340817</v>
       </c>
       <c r="E699" t="n">
-        <v>-8527.880029815025</v>
+        <v>8687.728007914078</v>
       </c>
     </row>
     <row r="700">
@@ -12340,7 +12340,7 @@
         <v>79.13539359897266</v>
       </c>
       <c r="E700" t="n">
-        <v>-8528.107755487452</v>
+        <v>8686.939538165658</v>
       </c>
     </row>
     <row r="701">
@@ -12351,13 +12351,13 @@
         <v>0.08849604462223314</v>
       </c>
       <c r="C701" t="n">
-        <v>73.09059099550869</v>
+        <v>73.09059099550868</v>
       </c>
       <c r="D701" t="n">
         <v>78.64034277454188</v>
       </c>
       <c r="E701" t="n">
-        <v>-8528.32326227982</v>
+        <v>8686.157938604196</v>
       </c>
     </row>
     <row r="702">
@@ -12374,7 +12374,7 @@
         <v>78.15445457175886</v>
       </c>
       <c r="E702" t="n">
-        <v>-8528.526856975013</v>
+        <v>8685.38292486206</v>
       </c>
     </row>
     <row r="703">
@@ -12391,7 +12391,7 @@
         <v>77.67744922590265</v>
       </c>
       <c r="E703" t="n">
-        <v>-8528.718833561137</v>
+        <v>8684.61422508742</v>
       </c>
     </row>
     <row r="704">
@@ -12408,7 +12408,7 @@
         <v>77.20905878739158</v>
       </c>
       <c r="E704" t="n">
-        <v>-8528.899473923153</v>
+        <v>8683.851579259408</v>
       </c>
     </row>
     <row r="705">
@@ -12425,7 +12425,7 @@
         <v>76.74902648778992</v>
       </c>
       <c r="E705" t="n">
-        <v>-8529.06904848912</v>
+        <v>8683.094738548318</v>
       </c>
     </row>
     <row r="706">
@@ -12436,13 +12436,13 @@
         <v>0.09121574166513827</v>
       </c>
       <c r="C706" t="n">
-        <v>76.4113347061859</v>
+        <v>76.41133470618591</v>
       </c>
       <c r="D706" t="n">
         <v>76.29710614690995</v>
       </c>
       <c r="E706" t="n">
-        <v>-8529.227816834788</v>
+        <v>8682.343464717584</v>
       </c>
     </row>
     <row r="707">
@@ -12459,7 +12459,7 @@
         <v>75.85306161789546</v>
       </c>
       <c r="E707" t="n">
-        <v>-8529.376028249295</v>
+        <v>8681.597529564067</v>
       </c>
     </row>
     <row r="708">
@@ -12470,13 +12470,13 @@
         <v>0.09228098645173431</v>
       </c>
       <c r="C708" t="n">
-        <v>77.71949776881341</v>
+        <v>77.7194977688134</v>
       </c>
       <c r="D708" t="n">
         <v>75.41666626744696</v>
       </c>
       <c r="E708" t="n">
-        <v>-8529.513922265258</v>
+        <v>8680.856714393984</v>
       </c>
     </row>
     <row r="709">
@@ -12493,7 +12493,7 @@
         <v>74.98770248858551</v>
       </c>
       <c r="E709" t="n">
-        <v>-8529.641729155559</v>
+        <v>8680.120809531727</v>
       </c>
     </row>
     <row r="710">
@@ -12504,13 +12504,13 @@
         <v>0.09333396091239173</v>
       </c>
       <c r="C710" t="n">
-        <v>79.01655608798626</v>
+        <v>79.01655608798625</v>
       </c>
       <c r="D710" t="n">
         <v>74.56596124357662</v>
       </c>
       <c r="E710" t="n">
-        <v>-8529.759670399601</v>
+        <v>8679.389613859266</v>
       </c>
     </row>
     <row r="711">
@@ -12521,13 +12521,13 @@
         <v>0.09385597520970344</v>
       </c>
       <c r="C711" t="n">
-        <v>79.66099970105552</v>
+        <v>79.6609997010555</v>
       </c>
       <c r="D711" t="n">
         <v>74.15124163483107</v>
       </c>
       <c r="E711" t="n">
-        <v>-8529.867959120829</v>
+        <v>8678.662934383725</v>
       </c>
     </row>
     <row r="712">
@@ -12538,13 +12538,13 @@
         <v>0.09437507319431379</v>
       </c>
       <c r="C712" t="n">
-        <v>80.30276020389229</v>
+        <v>80.3027602038923</v>
       </c>
       <c r="D712" t="n">
         <v>73.74335050178145</v>
       </c>
       <c r="E712" t="n">
-        <v>-8529.96680049811</v>
+        <v>8677.940585831442</v>
       </c>
     </row>
     <row r="713">
@@ -12561,7 +12561,7 @@
         <v>73.34210204189657</v>
       </c>
       <c r="E713" t="n">
-        <v>-8530.056392152226</v>
+        <v>8677.222390266226</v>
       </c>
     </row>
     <row r="714">
@@ -12578,7 +12578,7 @@
         <v>72.94731745414215</v>
       </c>
       <c r="E714" t="n">
-        <v>-8530.136924509679</v>
+        <v>8676.508176730415</v>
       </c>
     </row>
     <row r="715">
@@ -12595,7 +12595,7 @@
         <v>72.55882460333632</v>
       </c>
       <c r="E715" t="n">
-        <v>-8530.208581145247</v>
+        <v>8675.797780907125</v>
       </c>
     </row>
     <row r="716">
@@ -12612,7 +12612,7 @@
         <v>72.17645770396418</v>
       </c>
       <c r="E716" t="n">
-        <v>-8530.271539104544</v>
+        <v>8675.091044801989</v>
       </c>
     </row>
     <row r="717">
@@ -12623,13 +12623,13 @@
         <v>0.09692843821579081</v>
       </c>
       <c r="C717" t="n">
-        <v>83.47233014128955</v>
+        <v>83.47233014128953</v>
       </c>
       <c r="D717" t="n">
         <v>71.80005702213516</v>
       </c>
       <c r="E717" t="n">
-        <v>-8530.325969208277</v>
+        <v>8674.387816443403</v>
       </c>
     </row>
     <row r="718">
@@ -12640,13 +12640,13 @@
         <v>0.097430993176318</v>
       </c>
       <c r="C718" t="n">
-        <v>84.09859187862324</v>
+        <v>84.09859187862325</v>
       </c>
       <c r="D718" t="n">
         <v>71.42946859446343</v>
       </c>
       <c r="E718" t="n">
-        <v>-8530.372036339204</v>
+        <v>8673.687949599776</v>
       </c>
     </row>
     <row r="719">
@@ -12663,7 +12663,7 @@
         <v>71.06454396274835</v>
       </c>
       <c r="E719" t="n">
-        <v>-8530.409899712922</v>
+        <v>8672.991303512743</v>
       </c>
     </row>
     <row r="720">
@@ -12680,7 +12680,7 @@
         <v>70.70513992341527</v>
       </c>
       <c r="E720" t="n">
-        <v>-8530.439713133812</v>
+        <v>8672.297742645393</v>
       </c>
     </row>
     <row r="721">
@@ -12697,7 +12697,7 @@
         <v>70.35111829075643</v>
       </c>
       <c r="E721" t="n">
-        <v>-8530.461625236683</v>
+        <v>8671.607136444247</v>
       </c>
     </row>
     <row r="722">
@@ -12708,13 +12708,13 @@
         <v>0.1037402159555023</v>
       </c>
       <c r="C722" t="n">
-        <v>92.02232390565312</v>
+        <v>92.02232390565311</v>
       </c>
       <c r="D722" t="n">
         <v>67.07970693664687</v>
       </c>
       <c r="E722" t="n">
-        <v>-8530.275600458652</v>
+        <v>8664.838006438071</v>
       </c>
     </row>
     <row r="723">
@@ -12731,7 +12731,7 @@
         <v>64.22450165265356</v>
       </c>
       <c r="E723" t="n">
-        <v>-8529.432005032708</v>
+        <v>8658.250420931823</v>
       </c>
     </row>
     <row r="724">
@@ -12742,13 +12742,13 @@
         <v>0.1127495058893614</v>
       </c>
       <c r="C724" t="n">
-        <v>103.5014720470949</v>
+        <v>103.5014720470948</v>
       </c>
       <c r="D724" t="n">
         <v>61.70388758007232</v>
       </c>
       <c r="E724" t="n">
-        <v>-8528.020980399608</v>
+        <v>8651.769746054895</v>
       </c>
     </row>
     <row r="725">
@@ -12765,7 +12765,7 @@
         <v>59.45702610267946</v>
       </c>
       <c r="E725" t="n">
-        <v>-8526.111046069253</v>
+        <v>8645.341719792994</v>
       </c>
     </row>
     <row r="726">
@@ -12782,7 +12782,7 @@
         <v>57.43751433489489</v>
       </c>
       <c r="E726" t="n">
-        <v>-8523.755606485889</v>
+        <v>8638.926130813348</v>
       </c>
     </row>
     <row r="727">
@@ -12799,7 +12799,7 @@
         <v>55.60925990271615</v>
       </c>
       <c r="E727" t="n">
-        <v>-8520.997195738344</v>
+        <v>8632.492720823944</v>
       </c>
     </row>
     <row r="728">
@@ -12816,7 +12816,7 @@
         <v>53.94371076960787</v>
       </c>
       <c r="E728" t="n">
-        <v>-8517.870336716165</v>
+        <v>8626.018443892472</v>
       </c>
     </row>
     <row r="729">
@@ -12833,7 +12833,7 @@
         <v>52.41794363636159</v>
       </c>
       <c r="E729" t="n">
-        <v>-8514.403520969183</v>
+        <v>8619.485583436808</v>
       </c>
     </row>
     <row r="730">
@@ -12850,7 +12850,7 @@
         <v>51.01331315969384</v>
       </c>
       <c r="E730" t="n">
-        <v>-8510.620613158</v>
+        <v>8612.880427964956</v>
       </c>
     </row>
     <row r="731">
@@ -12867,7 +12867,7 @@
         <v>49.71447736354403</v>
       </c>
       <c r="E731" t="n">
-        <v>-8506.54186872008</v>
+        <v>8606.192320556589</v>
       </c>
     </row>
     <row r="732">
@@ -12884,7 +12884,7 @@
         <v>48.50868137604429</v>
       </c>
       <c r="E732" t="n">
-        <v>-8502.184685317388</v>
+        <v>8599.412964205643</v>
       </c>
     </row>
     <row r="733">
@@ -12901,7 +12901,7 @@
         <v>47.38522228150859</v>
       </c>
       <c r="E733" t="n">
-        <v>-8497.564167153289</v>
+        <v>8592.535905963874</v>
       </c>
     </row>
     <row r="734">
@@ -12918,7 +12918,7 @@
         <v>46.33504333677933</v>
       </c>
       <c r="E734" t="n">
-        <v>-8492.693555249411</v>
+        <v>8585.55614834876</v>
       </c>
     </row>
     <row r="735">
@@ -12935,7 +12935,7 @@
         <v>45.35042214633214</v>
       </c>
       <c r="E735" t="n">
-        <v>-8487.584560067551</v>
+        <v>8578.469852838487</v>
       </c>
     </row>
     <row r="736">
@@ -12952,7 +12952,7 @@
         <v>44.4247281207266</v>
       </c>
       <c r="E736" t="n">
-        <v>-8482.247621882341</v>
+        <v>8571.274110998425</v>
       </c>
     </row>
     <row r="737">
@@ -12969,7 +12969,7 @@
         <v>43.55223173047744</v>
       </c>
       <c r="E737" t="n">
-        <v>-8476.692116947239</v>
+        <v>8563.966765952064</v>
       </c>
     </row>
     <row r="738">
@@ -12986,7 +12986,7 @@
         <v>42.72795297070593</v>
       </c>
       <c r="E738" t="n">
-        <v>-8470.926522466312</v>
+        <v>8556.546271790716</v>
       </c>
     </row>
     <row r="739">
@@ -13003,7 +13003,7 @@
         <v>41.94753985315217</v>
       </c>
       <c r="E739" t="n">
-        <v>-8464.958549890545</v>
+        <v>8549.01158189616</v>
       </c>
     </row>
     <row r="740">
@@ -13020,7 +13020,7 @@
         <v>41.20717013771065</v>
       </c>
       <c r="E740" t="n">
-        <v>-8458.795253591861</v>
+        <v>8541.362059524898</v>
       </c>
     </row>
     <row r="741">
@@ -13037,7 +13037,7 @@
         <v>40.50347122675907</v>
       </c>
       <c r="E741" t="n">
-        <v>-8452.443120204769</v>
+        <v>8533.597405696093</v>
       </c>
     </row>
     <row r="742">
@@ -13054,7 +13054,7 @@
         <v>39.83345438366598</v>
       </c>
       <c r="E742" t="n">
-        <v>-8445.908142647259</v>
+        <v>8525.71760064744</v>
       </c>
     </row>
     <row r="743">
@@ -13071,7 +13071,7 @@
         <v>39.19446034352791</v>
       </c>
       <c r="E743" t="n">
-        <v>-8439.195881893937</v>
+        <v>8517.722856015602</v>
       </c>
     </row>
     <row r="744">
@@ -13088,7 +13088,7 @@
         <v>38.58411405553641</v>
       </c>
       <c r="E744" t="n">
-        <v>-8432.311518878962</v>
+        <v>8509.613575557625</v>
       </c>
     </row>
     <row r="745">
@@ -13105,7 +13105,7 @@
         <v>38.0002867986647</v>
       </c>
       <c r="E745" t="n">
-        <v>-8425.259898384144</v>
+        <v>8501.390322721756</v>
       </c>
     </row>
     <row r="746">
@@ -13122,7 +13122,7 @@
         <v>37.44106429179448</v>
       </c>
       <c r="E746" t="n">
-        <v>-8418.04556637241</v>
+        <v>8493.053793746423</v>
       </c>
     </row>
     <row r="747">
@@ -13133,13 +13133,13 @@
         <v>0.186536698828756</v>
       </c>
       <c r="C747" t="n">
-        <v>198.2229682845026</v>
+        <v>198.2229682845025</v>
       </c>
       <c r="D747" t="n">
         <v>36.90471970863118</v>
       </c>
       <c r="E747" t="n">
-        <v>-8410.672801925113</v>
+        <v>8484.604795248537</v>
       </c>
     </row>
     <row r="748">
@@ -13156,7 +13156,7 @@
         <v>36.38969073009653</v>
       </c>
       <c r="E748" t="n">
-        <v>-8403.145644708702</v>
+        <v>8476.044225477384</v>
       </c>
     </row>
     <row r="749">
@@ -13173,7 +13173,7 @@
         <v>35.89455993916712</v>
       </c>
       <c r="E749" t="n">
-        <v>-8395.467918715678</v>
+        <v>8467.37305857793</v>
       </c>
     </row>
     <row r="750">
@@ -13190,7 +13190,7 @@
         <v>35.41803799762601</v>
       </c>
       <c r="E750" t="n">
-        <v>-8387.643252882926</v>
+        <v>8458.592331336355</v>
       </c>
     </row>
     <row r="751">
@@ -13207,7 +13207,7 @@
         <v>34.95894914993308</v>
       </c>
       <c r="E751" t="n">
-        <v>-8379.675099079224</v>
+        <v>8449.703131982995</v>
       </c>
     </row>
     <row r="752">
@@ -13224,7 +13224,7 @@
         <v>34.51621868310882</v>
       </c>
       <c r="E752" t="n">
-        <v>-8371.566747865156</v>
+        <v>8440.706590707816</v>
       </c>
     </row>
     <row r="753">
@@ -13235,13 +13235,13 @@
         <v>0.2009963526153456</v>
       </c>
       <c r="C753" t="n">
-        <v>215.7542451743474</v>
+        <v>215.7542451743475</v>
       </c>
       <c r="D753" t="n">
         <v>34.08886203817603</v>
       </c>
       <c r="E753" t="n">
-        <v>-8363.321342357194</v>
+        <v>8431.603871606654</v>
       </c>
     </row>
     <row r="754">
@@ -13258,7 +13258,7 @@
         <v>33.67597532210856</v>
       </c>
       <c r="E754" t="n">
-        <v>-8354.941890471817</v>
+        <v>8422.39616582808</v>
       </c>
     </row>
     <row r="755">
@@ -13275,7 +13275,7 @@
         <v>33.27672701226136</v>
       </c>
       <c r="E755" t="n">
-        <v>-8346.431275778805</v>
+        <v>8413.084685730975</v>
       </c>
     </row>
     <row r="756">
@@ -13292,7 +13292,7 @@
         <v>32.89035068011628</v>
       </c>
       <c r="E756" t="n">
-        <v>-8337.79226715553</v>
+        <v>8403.670659895655</v>
       </c>
     </row>
     <row r="757">
@@ -13309,7 +13309,7 @@
         <v>32.51613858955631</v>
       </c>
       <c r="E757" t="n">
-        <v>-8329.027527403827</v>
+        <v>8394.155328858429</v>
       </c>
     </row>
     <row r="758">
@@ -13326,7 +13326,7 @@
         <v>32.15343604810715</v>
       </c>
       <c r="E758" t="n">
-        <v>-8320.139620965594</v>
+        <v>8384.539941460922</v>
       </c>
     </row>
     <row r="759">
@@ -13343,7 +13343,7 @@
         <v>31.80163640867148</v>
       </c>
       <c r="E759" t="n">
-        <v>-8311.131020852572</v>
+        <v>8374.825751723141</v>
       </c>
     </row>
     <row r="760">
@@ -13360,7 +13360,7 @@
         <v>31.46017663504461</v>
       </c>
       <c r="E760" t="n">
-        <v>-8302.004114888889</v>
+        <v>8365.014016164219</v>
       </c>
     </row>
     <row r="761">
@@ -13377,7 +13377,7 @@
         <v>31.12853335756857</v>
       </c>
       <c r="E761" t="n">
-        <v>-8292.761211350178</v>
+        <v>8355.105991506371</v>
       </c>
     </row>
     <row r="762">
@@ -13394,7 +13394,7 @@
         <v>30.8062193561634</v>
       </c>
       <c r="E762" t="n">
-        <v>-8283.404544071464</v>
+        <v>8345.102932707825</v>
       </c>
     </row>
     <row r="763">
@@ -13411,7 +13411,7 @@
         <v>30.49278041706704</v>
       </c>
       <c r="E763" t="n">
-        <v>-8273.936277085912</v>
+        <v>8335.006091278767</v>
       </c>
     </row>
     <row r="764">
@@ -13428,7 +13428,7 @@
         <v>30.18779251724509</v>
       </c>
       <c r="E764" t="n">
-        <v>-8264.358508847916</v>
+        <v>8324.816713841088</v>
       </c>
     </row>
     <row r="765">
@@ -13445,7 +13445,7 @@
         <v>29.89085929685394</v>
       </c>
       <c r="E765" t="n">
-        <v>-8254.673276087107</v>
+        <v>8314.536040898691</v>
       </c>
     </row>
     <row r="766">
@@ -13462,7 +13462,7 @@
         <v>29.60160978556659</v>
       </c>
       <c r="E766" t="n">
-        <v>-8244.882557333303</v>
+        <v>8304.165305789609</v>
       </c>
     </row>
     <row r="767">
@@ -13479,7 +13479,7 @@
         <v>29.31969635316878</v>
       </c>
       <c r="E767" t="n">
-        <v>-8234.988276148124</v>
+        <v>8293.705733796103</v>
       </c>
     </row>
     <row r="768">
@@ -13496,7 +13496,7 @@
         <v>29.04479285874393</v>
       </c>
       <c r="E768" t="n">
-        <v>-8224.99230409343</v>
+        <v>8283.158541391051</v>
       </c>
     </row>
     <row r="769">
@@ -13513,7 +13513,7 @@
         <v>28.77659297609886</v>
       </c>
       <c r="E769" t="n">
-        <v>-8214.89646346396</v>
+        <v>8272.524935603224</v>
       </c>
     </row>
     <row r="770">
@@ -13530,7 +13530,7 @@
         <v>28.5148086759357</v>
       </c>
       <c r="E770" t="n">
-        <v>-8204.702529807681</v>
+        <v>8261.806113485556</v>
       </c>
     </row>
     <row r="771">
@@ -13547,7 +13547,7 @@
         <v>28.25916884772086</v>
       </c>
       <c r="E771" t="n">
-        <v>-8194.412234254829</v>
+        <v>8251.003261673193</v>
       </c>
     </row>
     <row r="772">
@@ -13564,7 +13564,7 @@
         <v>28.00941804630731</v>
       </c>
       <c r="E772" t="n">
-        <v>-8184.027265673928</v>
+        <v>8240.117556019419</v>
       </c>
     </row>
     <row r="773">
@@ -13581,7 +13581,7 @@
         <v>27.76531535018012</v>
       </c>
       <c r="E773" t="n">
-        <v>-8173.549272671444</v>
+        <v>8229.150161299809</v>
       </c>
     </row>
     <row r="774">
@@ -13598,7 +13598,7 @@
         <v>27.52663331976538</v>
       </c>
       <c r="E774" t="n">
-        <v>-8162.979865449193</v>
+        <v>8218.102230975359</v>
       </c>
     </row>
     <row r="775">
@@ -13615,7 +13615,7 @@
         <v>27.29315704560087</v>
       </c>
       <c r="E775" t="n">
-        <v>-8152.320617532755</v>
+        <v>8206.974907007383</v>
       </c>
     </row>
     <row r="776">
@@ -13626,13 +13626,13 @@
         <v>0.2468946760211901</v>
       </c>
       <c r="C776" t="n">
-        <v>266.4595796790817</v>
+        <v>266.4595796790816</v>
       </c>
       <c r="D776" t="n">
         <v>27.06468327734991</v>
       </c>
       <c r="E776" t="n">
-        <v>-8141.573067382298</v>
+        <v>8195.769319717443</v>
       </c>
     </row>
     <row r="777">
@@ -13649,7 +13649,7 @@
         <v>26.84101962566681</v>
       </c>
       <c r="E777" t="n">
-        <v>-8130.73871989591</v>
+        <v>8184.486587686246</v>
       </c>
     </row>
     <row r="778">
@@ -13666,7 +13666,7 @@
         <v>26.62198382982151</v>
       </c>
       <c r="E778" t="n">
-        <v>-8119.819047814975</v>
+        <v>8173.127817686895</v>
       </c>
     </row>
     <row r="779">
@@ -13683,7 +13683,7 @@
         <v>26.40740308477469</v>
       </c>
       <c r="E779" t="n">
-        <v>-8108.81549303972</v>
+        <v>8161.694104647809</v>
       </c>
     </row>
     <row r="780">
@@ -13700,7 +13700,7 @@
         <v>26.19711342208383</v>
       </c>
       <c r="E780" t="n">
-        <v>-8097.729467862192</v>
+        <v>8150.18653164136</v>
       </c>
     </row>
     <row r="781">
@@ -13717,7 +13717,7 @@
         <v>25.99095913962419</v>
       </c>
       <c r="E781" t="n">
-        <v>-8086.562356123726</v>
+        <v>8138.606169895143</v>
       </c>
     </row>
     <row r="782">
@@ -13734,7 +13734,7 @@
         <v>25.78879227564041</v>
       </c>
       <c r="E782" t="n">
-        <v>-8075.315514302602</v>
+        <v>8126.954078822587</v>
       </c>
     </row>
     <row r="783">
@@ -13751,7 +13751,7 @@
         <v>25.59047212311343</v>
       </c>
       <c r="E783" t="n">
-        <v>-8063.990272537572</v>
+        <v>8115.231306070449</v>
       </c>
     </row>
     <row r="784">
@@ -13768,7 +13768,7 @@
         <v>25.39586478084077</v>
       </c>
       <c r="E784" t="n">
-        <v>-8052.5879355921</v>
+        <v>8103.438887580925</v>
       </c>
     </row>
     <row r="785">
@@ -13785,7 +13785,7 @@
         <v>25.20484273799519</v>
       </c>
       <c r="E785" t="n">
-        <v>-8041.10978376383</v>
+        <v>8091.577847666196</v>
       </c>
     </row>
     <row r="786">
@@ -13802,7 +13802,7 @@
         <v>25.01728448925032</v>
       </c>
       <c r="E786" t="n">
-        <v>-8029.557073743391</v>
+        <v>8079.649199093849</v>
       </c>
     </row>
     <row r="787">
@@ -13819,7 +13819,7 @@
         <v>24.83307417785093</v>
       </c>
       <c r="E787" t="n">
-        <v>-8017.931039426124</v>
+        <v>8067.653943181351</v>
       </c>
     </row>
     <row r="788">
@@ -13836,7 +13836,7 @@
         <v>24.65210126426142</v>
       </c>
       <c r="E788" t="n">
-        <v>-8006.232892680336</v>
+        <v>8055.593069898468</v>
       </c>
     </row>
     <row r="789">
@@ -13853,7 +13853,7 @@
         <v>24.47426021825412</v>
       </c>
       <c r="E789" t="n">
-        <v>-7994.463824074945</v>
+        <v>8043.467557976236</v>
       </c>
     </row>
     <row r="790">
@@ -13870,7 +13870,7 @@
         <v>24.29945023250287</v>
       </c>
       <c r="E790" t="n">
-        <v>-7982.625003569331</v>
+        <v>8031.278375021316</v>
       </c>
     </row>
     <row r="791">
@@ -13887,7 +13887,7 @@
         <v>24.12757495592944</v>
       </c>
       <c r="E791" t="n">
-        <v>-7970.717581168418</v>
+        <v>8019.026477635321</v>
       </c>
     </row>
     <row r="792">
@@ -13904,7 +13904,7 @@
         <v>23.9585422452123</v>
       </c>
       <c r="E792" t="n">
-        <v>-7958.742687544504</v>
+        <v>8006.712811537384</v>
       </c>
     </row>
     <row r="793">
@@ -13921,7 +13921,7 @@
         <v>23.79226393301447</v>
       </c>
       <c r="E793" t="n">
-        <v>-7946.701434628908</v>
+        <v>7994.33831169015</v>
       </c>
     </row>
     <row r="794">
@@ -13938,7 +13938,7 @@
         <v>23.62865561161663</v>
       </c>
       <c r="E794" t="n">
-        <v>-7934.594916174904</v>
+        <v>7981.90390242801</v>
       </c>
     </row>
     <row r="795">
@@ -13955,7 +13955,7 @@
         <v>23.46763643076003</v>
       </c>
       <c r="E795" t="n">
-        <v>-7922.424208293772</v>
+        <v>7969.41049758703</v>
       </c>
     </row>
     <row r="796">
@@ -13972,7 +13972,7 @@
         <v>23.30912890860958</v>
       </c>
       <c r="E796" t="n">
-        <v>-7910.190369966062</v>
+        <v>7956.859000636447</v>
       </c>
     </row>
     <row r="797">
@@ -13989,7 +13989,7 @@
         <v>23.15305875484244</v>
       </c>
       <c r="E797" t="n">
-        <v>-7897.8944435291</v>
+        <v>7944.250304810773</v>
       </c>
     </row>
     <row r="798">
@@ -14006,7 +14006,7 @@
         <v>22.99935470495345</v>
       </c>
       <c r="E798" t="n">
-        <v>-7885.537455142628</v>
+        <v>7931.585293242588</v>
       </c>
     </row>
     <row r="799">
@@ -14023,7 +14023,7 @@
         <v>22.8479483649469</v>
       </c>
       <c r="E799" t="n">
-        <v>-7873.120415233626</v>
+        <v>7918.864839095381</v>
       </c>
     </row>
     <row r="800">
@@ -14040,7 +14040,7 @@
         <v>22.69877406565364</v>
       </c>
       <c r="E800" t="n">
-        <v>-7860.644318921664</v>
+        <v>7906.089805696276</v>
       </c>
     </row>
     <row r="801">
@@ -14057,7 +14057,7 @@
         <v>22.55176872597644</v>
       </c>
       <c r="E801" t="n">
-        <v>-7848.110146425983</v>
+        <v>7893.261046668376</v>
       </c>
     </row>
     <row r="802">
@@ -14074,7 +14074,7 @@
         <v>22.40687172442415</v>
       </c>
       <c r="E802" t="n">
-        <v>-7835.51886345515</v>
+        <v>7880.379406062429</v>
       </c>
     </row>
     <row r="803">
@@ -14091,7 +14091,7 @@
         <v>22.2640247783476</v>
       </c>
       <c r="E803" t="n">
-        <v>-7822.871421580591</v>
+        <v>7867.445718487766</v>
       </c>
     </row>
     <row r="804">
@@ -14108,7 +14108,7 @@
         <v>22.12317183033711</v>
       </c>
       <c r="E804" t="n">
-        <v>-7810.168758594663</v>
+        <v>7854.460809242185</v>
       </c>
     </row>
     <row r="805">
@@ -14125,7 +14125,7 @@
         <v>21.98425894128537</v>
       </c>
       <c r="E805" t="n">
-        <v>-7797.411798854126</v>
+        <v>7841.425494440691</v>
       </c>
     </row>
     <row r="806">
@@ -14142,7 +14142,7 @@
         <v>21.84723418965821</v>
       </c>
       <c r="E806" t="n">
-        <v>-7784.601453610024</v>
+        <v>7828.340581143014</v>
       </c>
     </row>
     <row r="807">
@@ -14159,7 +14159,7 @@
         <v>21.712047576552</v>
       </c>
       <c r="E807" t="n">
-        <v>-7771.738621324521</v>
+        <v>7815.206867479785</v>
       </c>
     </row>
     <row r="808">
@@ -14170,13 +14170,13 @@
         <v>0.2936933357518447</v>
       </c>
       <c r="C808" t="n">
-        <v>307.3108395716414</v>
+        <v>307.3108395716413</v>
       </c>
       <c r="D808" t="n">
         <v>21.57865093614857</v>
       </c>
       <c r="E808" t="n">
-        <v>-7758.824187975421</v>
+        <v>7802.025142777216</v>
       </c>
     </row>
     <row r="809">
@@ -14187,13 +14187,13 @@
         <v>0.294909256868519</v>
       </c>
       <c r="C809" t="n">
-        <v>308.1802115063692</v>
+        <v>308.1802115063693</v>
       </c>
       <c r="D809" t="n">
         <v>21.44699785120921</v>
       </c>
       <c r="E809" t="n">
-        <v>-7745.859027348984</v>
+        <v>7788.796187680212</v>
       </c>
     </row>
     <row r="810">
@@ -14210,7 +14210,7 @@
         <v>21.31704357327538</v>
       </c>
       <c r="E810" t="n">
-        <v>-7732.844001321875</v>
+        <v>7775.520774274046</v>
       </c>
     </row>
     <row r="811">
@@ -14221,13 +14221,13 @@
         <v>0.2973011995044514</v>
       </c>
       <c r="C811" t="n">
-        <v>309.856632443149</v>
+        <v>309.8566324431491</v>
       </c>
       <c r="D811" t="n">
         <v>21.18874494727013</v>
       </c>
       <c r="E811" t="n">
-        <v>-7719.779960132363</v>
+        <v>7762.199666204139</v>
       </c>
     </row>
     <row r="812">
@@ -14244,7 +14244,7 @@
         <v>19.98833277211608</v>
       </c>
       <c r="E812" t="n">
-        <v>-7586.622941728385</v>
+        <v>7626.637578044459</v>
       </c>
     </row>
     <row r="813">
@@ -14261,7 +14261,7 @@
         <v>18.91552571249165</v>
       </c>
       <c r="E813" t="n">
-        <v>-7449.422240888927</v>
+        <v>7487.287694996376</v>
       </c>
     </row>
     <row r="814">
@@ -14278,7 +14278,7 @@
         <v>17.94511132750431</v>
       </c>
       <c r="E814" t="n">
-        <v>-7308.869699328558</v>
+        <v>7344.791278955166</v>
       </c>
     </row>
     <row r="815">
@@ -14295,7 +14295,7 @@
         <v>17.05845297320701</v>
       </c>
       <c r="E815" t="n">
-        <v>-7165.581326706799</v>
+        <v>7199.726955678655</v>
       </c>
     </row>
     <row r="816">
@@ -14306,13 +14306,13 @@
         <v>0.341765888787447</v>
       </c>
       <c r="C816" t="n">
-        <v>329.9963321546084</v>
+        <v>329.9963321546083</v>
       </c>
       <c r="D816" t="n">
         <v>16.24147333579263</v>
       </c>
       <c r="E816" t="n">
-        <v>-7020.10888703147</v>
+        <v>7052.618253476784</v>
       </c>
     </row>
     <row r="817">
@@ -14329,7 +14329,7 @@
         <v>15.48334289675872</v>
       </c>
       <c r="E817" t="n">
-        <v>-6872.948839361388</v>
+        <v>6903.939911606042</v>
       </c>
     </row>
     <row r="818">
@@ -14346,7 +14346,7 @@
         <v>14.77559935550184</v>
       </c>
       <c r="E818" t="n">
-        <v>-6724.549410748875</v>
+        <v>6754.12318607866</v>
       </c>
     </row>
     <row r="819">
@@ -14363,7 +14363,7 @@
         <v>14.1115399942226</v>
       </c>
       <c r="E819" t="n">
-        <v>-6575.316309573532</v>
+        <v>6603.560343740292</v>
       </c>
     </row>
     <row r="820">
@@ -14380,7 +14380,7 @@
         <v>13.48579227678393</v>
       </c>
       <c r="E820" t="n">
-        <v>-6425.61742342293</v>
+        <v>6452.60849862111</v>
       </c>
     </row>
     <row r="821">
@@ -14397,7 +14397,7 @@
         <v>12.89400399308947</v>
       </c>
       <c r="E821" t="n">
-        <v>-6275.786741830486</v>
+        <v>6301.592913053323</v>
       </c>
     </row>
     <row r="822">
@@ -14408,13 +14408,13 @@
         <v>0.3632719081218644</v>
       </c>
       <c r="C822" t="n">
-        <v>318.1784444930863</v>
+        <v>318.1784444930864</v>
       </c>
       <c r="D822" t="n">
         <v>12.33261550408452</v>
       </c>
       <c r="E822" t="n">
-        <v>-6126.127676093941</v>
+        <v>6150.809860616167</v>
       </c>
     </row>
     <row r="823">
@@ -14431,7 +14431,7 @@
         <v>11.79868957216651</v>
       </c>
       <c r="E823" t="n">
-        <v>-5976.915902397159</v>
+        <v>6000.52912792701</v>
       </c>
     </row>
     <row r="824">
@@ -14448,7 +14448,7 @@
         <v>11.28978235366354</v>
       </c>
       <c r="E824" t="n">
-        <v>-5828.401822560333</v>
+        <v>5850.996216643899</v>
       </c>
     </row>
     <row r="825">
@@ -14465,7 +14465,7 @@
         <v>10.80384432155166</v>
       </c>
       <c r="E825" t="n">
-        <v>-5680.81271411565</v>
+        <v>5702.43429483743</v>
       </c>
     </row>
     <row r="826">
@@ -14482,7 +14482,7 @@
         <v>10.33914329233511</v>
       </c>
       <c r="E826" t="n">
-        <v>-5534.354625028609</v>
+        <v>5555.045937348673</v>
       </c>
     </row>
     <row r="827">
@@ -14499,7 +14499,7 @@
         <v>9.894204010640077</v>
       </c>
       <c r="E827" t="n">
-        <v>-5389.214056319342</v>
+        <v>5409.014687259082</v>
       </c>
     </row>
     <row r="828">
@@ -14510,13 +14510,13 @@
         <v>0.3585362657422283</v>
       </c>
       <c r="C828" t="n">
-        <v>286.8144937423302</v>
+        <v>286.8144937423301</v>
       </c>
       <c r="D828" t="n">
         <v>9.467760299022201</v>
       </c>
       <c r="E828" t="n">
-        <v>-5245.559466807781</v>
+        <v>5264.506464686177</v>
       </c>
     </row>
     <row r="829">
@@ -14533,7 +14533,7 @@
         <v>9.058716857547369</v>
       </c>
       <c r="E829" t="n">
-        <v>-5103.542627349956</v>
+        <v>5121.670844423585</v>
       </c>
     </row>
     <row r="830">
@@ -14550,7 +14550,7 @@
         <v>8.666118555706829</v>
       </c>
       <c r="E830" t="n">
-        <v>-4963.299846661409</v>
+        <v>4980.642220193577</v>
       </c>
     </row>
     <row r="831">
@@ -14567,7 +14567,7 @@
         <v>8.289125600247411</v>
       </c>
       <c r="E831" t="n">
-        <v>-4824.95308672247</v>
+        <v>4841.540870264485</v>
       </c>
     </row>
     <row r="832">
@@ -14584,7 +14584,7 @@
         <v>7.926993353715767</v>
       </c>
       <c r="E832" t="n">
-        <v>-4688.610982538071</v>
+        <v>4704.473936748285</v>
       </c>
     </row>
     <row r="833">
@@ -14595,13 +14595,13 @@
         <v>0.3401462712193246</v>
       </c>
       <c r="C833" t="n">
-        <v>254.4126890696238</v>
+        <v>254.4126890696237</v>
       </c>
       <c r="D833" t="n">
         <v>7.57905586487226</v>
       </c>
       <c r="E833" t="n">
-        <v>-4554.369778467007</v>
+        <v>4569.536328910205</v>
       </c>
     </row>
     <row r="834">
@@ -14618,7 +14618,7 @@
         <v>7.244712384132454</v>
       </c>
       <c r="E834" t="n">
-        <v>-4422.314191289694</v>
+        <v>4436.811559201773</v>
       </c>
     </row>
     <row r="835">
@@ -14635,7 +14635,7 @@
         <v>6.923416295848716</v>
       </c>
       <c r="E835" t="n">
-        <v>-4292.518208532807</v>
+        <v>4306.372519396208</v>
       </c>
     </row>
     <row r="836">
@@ -14646,13 +14646,13 @@
         <v>0.3246878185608585</v>
       </c>
       <c r="C836" t="n">
-        <v>234.1734958887843</v>
+        <v>234.1734958887842</v>
       </c>
       <c r="D836" t="n">
         <v>6.614666019189547</v>
       </c>
       <c r="E836" t="n">
-        <v>-4165.045829228676</v>
+        <v>4178.282203105198</v>
       </c>
     </row>
     <row r="837">
@@ -14669,7 +14669,7 @@
         <v>6.31799752094379</v>
       </c>
       <c r="E837" t="n">
-        <v>-4039.951753191322</v>
+        <v>4052.594380043747</v>
       </c>
     </row>
     <row r="838">
@@ -14686,7 +14686,7 @@
         <v>6.03297815413926</v>
       </c>
       <c r="E838" t="n">
-        <v>-3917.282023989482</v>
+        <v>3929.354226649772</v>
       </c>
     </row>
     <row r="839">
@@ -14703,7 +14703,7 @@
         <v>5.75920159123014</v>
       </c>
       <c r="E839" t="n">
-        <v>-3797.074630051882</v>
+        <v>3808.598917030088</v>
       </c>
     </row>
     <row r="840">
@@ -14714,13 +14714,13 @@
         <v>0.3006156558591339</v>
       </c>
       <c r="C840" t="n">
-        <v>207.5013103760752</v>
+        <v>207.5013103760751</v>
       </c>
       <c r="D840" t="n">
         <v>5.496283663641654</v>
       </c>
       <c r="E840" t="n">
-        <v>-3679.360067720503</v>
+        <v>3690.358177671172</v>
       </c>
     </row>
     <row r="841">
@@ -14737,7 +14737,7 @@
         <v>5.243858953498329</v>
       </c>
       <c r="E841" t="n">
-        <v>-3564.16186955094</v>
+        <v>3574.654808904755</v>
       </c>
     </row>
     <row r="842">
@@ -14754,7 +14754,7 @@
         <v>5.001578010506247</v>
       </c>
       <c r="E842" t="n">
-        <v>-3451.497100725566</v>
+        <v>3461.505175739303</v>
       </c>
     </row>
     <row r="843">
@@ -14771,7 +14771,7 @@
         <v>4.769105088776887</v>
       </c>
       <c r="E843" t="n">
-        <v>-3341.376826081017</v>
+        <v>3350.91967034799</v>
       </c>
     </row>
     <row r="844">
@@ -14788,7 +14788,7 @@
         <v>4.546116316048971</v>
       </c>
       <c r="E844" t="n">
-        <v>-3233.806549943897</v>
+        <v>3242.903148231596</v>
       </c>
     </row>
     <row r="845">
@@ -14805,7 +14805,7 @@
         <v>4.332298222178699</v>
       </c>
       <c r="E845" t="n">
-        <v>-3128.786630708171</v>
+        <v>3137.455339843249</v>
       </c>
     </row>
     <row r="846">
@@ -14822,7 +14822,7 @@
         <v>4.127346565608358</v>
       </c>
       <c r="E846" t="n">
-        <v>-3026.312671866691</v>
+        <v>3034.571239264571</v>
       </c>
     </row>
     <row r="847">
@@ -14839,7 +14839,7 @@
         <v>3.930965406311597</v>
       </c>
       <c r="E847" t="n">
-        <v>-2926.375891020979</v>
+        <v>2934.241471354176</v>
       </c>
     </row>
     <row r="848">
@@ -14856,7 +14856,7 @@
         <v>3.742866381854719</v>
       </c>
       <c r="E848" t="n">
-        <v>-2828.96346823263</v>
+        <v>2836.452638644964</v>
       </c>
     </row>
     <row r="849">
@@ -14873,7 +14873,7 @@
         <v>3.562768150022227</v>
       </c>
       <c r="E849" t="n">
-        <v>-2734.058874942394</v>
+        <v>2741.187649143022</v>
       </c>
     </row>
     <row r="850">
@@ -14890,7 +14890,7 @@
         <v>3.390395967177359</v>
       </c>
       <c r="E850" t="n">
-        <v>-2641.642184564798</v>
+        <v>2648.426026074221</v>
       </c>
     </row>
     <row r="851">
@@ -14907,7 +14907,7 @@
         <v>3.225481376359362</v>
       </c>
       <c r="E851" t="n">
-        <v>-2551.690365765017</v>
+        <v>2558.144200533116</v>
       </c>
     </row>
     <row r="852">
@@ -14918,13 +14918,13 @@
         <v>0.2194028096409194</v>
       </c>
       <c r="C852" t="n">
-        <v>136.792193634507</v>
+        <v>136.7921936345069</v>
       </c>
       <c r="D852" t="n">
         <v>3.067761983212932</v>
       </c>
       <c r="E852" t="n">
-        <v>-2464.177559337149</v>
+        <v>2470.315787909402</v>
       </c>
     </row>
     <row r="853">
@@ -14941,7 +14941,7 @@
         <v>2.916981301325329</v>
       </c>
       <c r="E853" t="n">
-        <v>-2379.07533952774</v>
+        <v>2384.911848898857</v>
       </c>
     </row>
     <row r="854">
@@ -14958,7 +14958,7 @@
         <v>2.772888651512295</v>
       </c>
       <c r="E854" t="n">
-        <v>-2296.352960582839</v>
+        <v>2301.901135846085</v>
       </c>
     </row>
     <row r="855">
@@ -14975,7 +14975,7 @@
         <v>2.635239102126225</v>
       </c>
       <c r="E855" t="n">
-        <v>-2215.977589240323</v>
+        <v>2221.250325114868</v>
       </c>
     </row>
     <row r="856">
@@ -14992,7 +14992,7 @@
         <v>2.503793439624985</v>
       </c>
       <c r="E856" t="n">
-        <v>-2137.914523839414</v>
+        <v>2142.924236136515</v>
       </c>
     </row>
     <row r="857">
@@ -15009,7 +15009,7 @@
         <v>2.378318160491601</v>
       </c>
       <c r="E857" t="n">
-        <v>-2062.127400676441</v>
+        <v>2066.886037747378</v>
       </c>
     </row>
     <row r="858">
@@ -15026,7 +15026,7 @@
         <v>2.258585477179341</v>
       </c>
       <c r="E858" t="n">
-        <v>-1988.578388197553</v>
+        <v>1993.097442391579</v>
       </c>
     </row>
     <row r="859">
@@ -15043,7 +15043,7 @@
         <v>2.144373332110887</v>
       </c>
       <c r="E859" t="n">
-        <v>-1917.2283695858</v>
+        <v>1921.518888734383</v>
       </c>
     </row>
     <row r="860">
@@ -15060,7 +15060,7 @@
         <v>2.035465414916503</v>
       </c>
       <c r="E860" t="n">
-        <v>-1848.037114270328</v>
+        <v>1852.109713204313</v>
       </c>
     </row>
     <row r="861">
@@ -15077,7 +15077,7 @@
         <v>1.931651179081164</v>
       </c>
       <c r="E861" t="n">
-        <v>-1780.963438858919</v>
+        <v>1784.828310957569</v>
       </c>
     </row>
     <row r="862">
@@ -15094,7 +15094,7 @@
         <v>1.832725855007691</v>
       </c>
       <c r="E862" t="n">
-        <v>-1715.965357971477</v>
+        <v>1719.632286736338</v>
       </c>
     </row>
     <row r="863">
@@ -15111,7 +15111,7 @@
         <v>1.738490457211727</v>
       </c>
       <c r="E863" t="n">
-        <v>-1653.000225430787</v>
+        <v>1656.478596072741</v>
       </c>
     </row>
     <row r="864">
@@ -15122,13 +15122,13 @@
         <v>0.1456555259449302</v>
       </c>
       <c r="C864" t="n">
-        <v>85.31466758627064</v>
+        <v>85.31466758627063</v>
       </c>
       <c r="D864" t="n">
         <v>1.648751783962066</v>
       </c>
       <c r="E864" t="n">
-        <v>-1592.024866247386</v>
+        <v>1595.323677271881</v>
       </c>
     </row>
     <row r="865">
@@ -15145,7 +15145,7 @@
         <v>1.563322408181139</v>
       </c>
       <c r="E865" t="n">
-        <v>-1532.995699817779</v>
+        <v>1536.123574590836</v>
       </c>
     </row>
     <row r="866">
@@ -15162,7 +15162,7 @@
         <v>1.48202065883822</v>
       </c>
       <c r="E866" t="n">
-        <v>-1475.868854738913</v>
+        <v>1478.834053014964</v>
       </c>
     </row>
     <row r="867">
@@ -15179,7 +15179,7 @@
         <v>1.404670592413428</v>
       </c>
       <c r="E867" t="n">
-        <v>-1420.600275626681</v>
+        <v>1423.410705018448</v>
       </c>
     </row>
     <row r="868">
@@ -15196,7 +15196,7 @@
         <v>1.331101954293657</v>
       </c>
       <c r="E868" t="n">
-        <v>-1367.145822312161</v>
+        <v>1369.8090496825</v>
       </c>
     </row>
     <row r="869">
@@ -15207,13 +15207,13 @@
         <v>0.1202542353334595</v>
       </c>
       <c r="C869" t="n">
-        <v>69.30528700280476</v>
+        <v>69.30528700280475</v>
       </c>
       <c r="D869" t="n">
         <v>1.261150130190789</v>
       </c>
       <c r="E869" t="n">
-        <v>-1315.46136177601</v>
+        <v>1317.984624531817</v>
       </c>
     </row>
     <row r="870">
@@ -15230,7 +15230,7 @@
         <v>1.194656087855383</v>
       </c>
       <c r="E870" t="n">
-        <v>-1265.502853168863</v>
+        <v>1267.893070437678</v>
       </c>
     </row>
     <row r="871">
@@ -15241,13 +15241,13 @@
         <v>0.1110610969815252</v>
       </c>
       <c r="C871" t="n">
-        <v>63.68592525165621</v>
+        <v>63.6859252516562</v>
       </c>
       <c r="D871" t="n">
         <v>1.131466309502379</v>
       </c>
       <c r="E871" t="n">
-        <v>-1217.226426253589</v>
+        <v>1219.490209924374</v>
       </c>
     </row>
     <row r="872">
@@ -15264,7 +15264,7 @@
         <v>1.071432715474577</v>
       </c>
       <c r="E872" t="n">
-        <v>-1170.588453593857</v>
+        <v>1172.732119204451</v>
       </c>
     </row>
     <row r="873">
@@ -15281,7 +15281,7 @@
         <v>1.014412579750348</v>
       </c>
       <c r="E873" t="n">
-        <v>-1125.545616802334</v>
+        <v>1127.575194257328</v>
       </c>
     </row>
     <row r="874">
@@ -15298,7 +15298,7 @@
         <v>0.9602684379582846</v>
       </c>
       <c r="E874" t="n">
-        <v>-1082.054967151222</v>
+        <v>1083.976211255284</v>
       </c>
     </row>
     <row r="875">
@@ -15315,7 +15315,7 @@
         <v>0.9088679885973577</v>
       </c>
       <c r="E875" t="n">
-        <v>-1040.073980837437</v>
+        <v>1041.892381630545</v>
       </c>
     </row>
     <row r="876">
@@ -15332,7 +15332,7 @@
         <v>0.8600839881801577</v>
       </c>
       <c r="E876" t="n">
-        <v>-999.5606091846014</v>
+        <v>1001.281402067052</v>
       </c>
     </row>
     <row r="877">
@@ -15349,7 +15349,7 @@
         <v>0.8137941410215473</v>
       </c>
       <c r="E877" t="n">
-        <v>-960.4733240542412</v>
+        <v>962.101499690752</v>
       </c>
     </row>
     <row r="878">
@@ -15366,7 +15366,7 @@
         <v>0.7698809843886603</v>
       </c>
       <c r="E878" t="n">
-        <v>-922.7711587288087</v>
+        <v>924.3114727224657</v>
       </c>
     </row>
     <row r="879">
@@ -15383,7 +15383,7 @@
         <v>0.7282317697123464</v>
       </c>
       <c r="E879" t="n">
-        <v>-886.4137445197842</v>
+        <v>887.8707268479831</v>
       </c>
     </row>
     <row r="880">
@@ -15400,7 +15400,7 @@
         <v>0.6887383405371811</v>
       </c>
       <c r="E880" t="n">
-        <v>-851.3613433447712</v>
+        <v>852.7393075506468</v>
       </c>
     </row>
     <row r="881">
@@ -15417,7 +15417,7 @@
         <v>0.6512970078585663</v>
       </c>
       <c r="E881" t="n">
-        <v>-817.5748765084149</v>
+        <v>818.8779286425594</v>
       </c>
     </row>
     <row r="882">
@@ -15434,7 +15434,7 @@
         <v>0.6158084234625322</v>
       </c>
       <c r="E882" t="n">
-        <v>-785.0159499129805</v>
+        <v>786.247997221472</v>
       </c>
     </row>
     <row r="883">
@@ -15445,13 +15445,13 @@
         <v>0.06693897934318287</v>
       </c>
       <c r="C883" t="n">
-        <v>37.82787592366046</v>
+        <v>37.82787592366045</v>
       </c>
       <c r="D883" t="n">
         <v>0.5821774518481032</v>
       </c>
       <c r="E883" t="n">
-        <v>-753.646875915695</v>
+        <v>754.8116352716243</v>
       </c>
     </row>
     <row r="884">
@@ -15468,7 +15468,7 @@
         <v>0.5503130412742273</v>
       </c>
       <c r="E884" t="n">
-        <v>-723.4306920412587</v>
+        <v>724.5316981180194</v>
       </c>
     </row>
     <row r="885">
@@ -15485,7 +15485,7 @@
         <v>0.5201280944342377</v>
       </c>
       <c r="E885" t="n">
-        <v>-694.3311767495015</v>
+        <v>695.3717899351152</v>
       </c>
     </row>
     <row r="886">
@@ -15502,7 +15502,7 @@
         <v>0.4915393392215641</v>
       </c>
       <c r="E886" t="n">
-        <v>-666.3128624498222</v>
+        <v>667.2962765024995</v>
       </c>
     </row>
     <row r="887">
@@ -15519,7 +15519,7 @@
         <v>0.4644672000110017</v>
       </c>
       <c r="E887" t="n">
-        <v>-639.3410459459068</v>
+        <v>640.2702953918873</v>
       </c>
     </row>
     <row r="888">
@@ -15536,7 +15536,7 @@
         <v>0.4388356698413133</v>
       </c>
       <c r="E888" t="n">
-        <v>-613.381796486232</v>
+        <v>614.2597637617249</v>
       </c>
     </row>
     <row r="889">
@@ -15553,7 +15553,7 @@
         <v>0.4145721838472829</v>
       </c>
       <c r="E889" t="n">
-        <v>-588.4019615880737</v>
+        <v>589.2313839278072</v>
       </c>
     </row>
     <row r="890">
@@ -15570,7 +15570,7 @@
         <v>0.3916074942529553</v>
       </c>
       <c r="E890" t="n">
-        <v>-564.3691707950549</v>
+        <v>565.1526468705741</v>
       </c>
     </row>
     <row r="891">
@@ -15587,7 +15587,7 @@
         <v>0.369875547203048</v>
       </c>
       <c r="E891" t="n">
-        <v>-541.251837520888</v>
+        <v>541.991833832286</v>
       </c>
     </row>
     <row r="892">
@@ -15604,7 +15604,7 @@
         <v>0.3493133616763052</v>
       </c>
       <c r="E892" t="n">
-        <v>-519.0191591246249</v>
+        <v>519.7180161498871</v>
       </c>
     </row>
     <row r="893">
@@ -15621,7 +15621,7 @@
         <v>0.3298609106932638</v>
       </c>
       <c r="E893" t="n">
-        <v>-497.6411153557034</v>
+        <v>498.3010534622623</v>
       </c>
     </row>
     <row r="894">
@@ -15632,13 +15632,13 @@
         <v>0.04061507552809257</v>
       </c>
       <c r="C894" t="n">
-        <v>23.11446465295092</v>
+        <v>23.11446465295093</v>
       </c>
       <c r="D894" t="n">
         <v>0.311461005001441</v>
       </c>
       <c r="E894" t="n">
-        <v>-477.0884653001626</v>
+        <v>477.711590423628</v>
       </c>
     </row>
     <row r="895">
@@ -15655,7 +15655,7 @@
         <v>0.294059179393366</v>
       </c>
       <c r="E895" t="n">
-        <v>-457.33274295272</v>
+        <v>457.9210520480655</v>
       </c>
     </row>
     <row r="896">
@@ -15672,7 +15672,7 @@
         <v>0.2776035817872632</v>
       </c>
       <c r="E896" t="n">
-        <v>-438.3462515329111</v>
+        <v>438.9016378036442</v>
       </c>
     </row>
     <row r="897">
@@ -15689,7 +15689,7 @@
         <v>0.2620448651764492</v>
       </c>
       <c r="E897" t="n">
-        <v>-420.1020566571924</v>
+        <v>420.6263145682627</v>
       </c>
     </row>
     <row r="898">
@@ -15706,7 +15706,7 @@
         <v>0.2473360825316243</v>
       </c>
       <c r="E898" t="n">
-        <v>-402.5739784728343</v>
+        <v>403.0688085531884</v>
       </c>
     </row>
     <row r="899">
@@ -15723,7 +15723,7 @@
         <v>0.2334325847202053</v>
       </c>
       <c r="E899" t="n">
-        <v>-385.7365828535241</v>
+        <v>386.2035962943532</v>
       </c>
     </row>
     <row r="900">
@@ -15740,7 +15740,7 @@
         <v>0.2202919214885005</v>
       </c>
       <c r="E900" t="n">
-        <v>-369.565171750936</v>
+        <v>370.005894805748</v>
       </c>
     </row>
     <row r="901">
@@ -15751,13 +15751,13 @@
         <v>0.02914709131562824</v>
       </c>
       <c r="C901" t="n">
-        <v>16.80842735499899</v>
+        <v>16.808427354999</v>
       </c>
       <c r="D901" t="n">
         <v>0.2078737455359377</v>
       </c>
       <c r="E901" t="n">
-        <v>-354.0357727910355</v>
+        <v>354.4516509837437</v>
       </c>
     </row>
   </sheetData>
